--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2653C-6272-4071-9E80-62C764B0883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5DFFB-B8BA-4FAE-ADEA-110898C5F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-960" yWindow="1095" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="修改记录" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$H$1:$H$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$1:$I$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数码变焦case自动化部分!$A$1:$H$253</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="427">
   <si>
     <t>测试项</t>
   </si>
@@ -1737,7 +1738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,18 +1913,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,8 +1922,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1942,7 +1946,23 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF0000FF"/>
@@ -1954,6 +1974,14 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2268,7 +2296,7 @@
   <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9029,7 +9057,7 @@
       <c r="I291" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H291" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I291" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="41">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -9075,10 +9103,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9089,20 +9117,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7660AB4-0AA7-45F2-9870-2C5FAAAEA767}">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -9130,994 +9158,910 @@
       <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="E3" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>404</v>
-      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="58"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H5" s="58"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="E6" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H6" s="58"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H7" s="58"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H8" s="58"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H9" s="58"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H10" s="58"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="58" t="s">
+      <c r="E11" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="58"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="58" t="s">
+      <c r="E12" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="58"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H13" s="58"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="E14" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="58"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="58" t="s">
+      <c r="E15" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H15" s="58"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H16" s="58"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H17" s="58"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="58" t="s">
+      <c r="E18" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18" s="58"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H19" s="58"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="58" t="s">
+      <c r="E20" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20" s="58"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="58" t="s">
+      <c r="E21" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H21" s="58"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="58" t="s">
+      <c r="E22" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H22" s="58"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
     </row>
     <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="58" t="s">
+      <c r="E23" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H23" s="58"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="58" t="s">
+      <c r="E24" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H24" s="58"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="58" t="s">
+      <c r="E25" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H25" s="58"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="58" t="s">
+      <c r="E26" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H26" s="58"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H27" s="58"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
     </row>
     <row r="28" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="58" t="s">
+      <c r="E28" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H28" s="58"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="58" t="s">
+      <c r="E29" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H29" s="58"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="58" t="s">
+      <c r="E30" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H30" s="58"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="58" t="s">
+      <c r="E31" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="58"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="58" t="s">
+      <c r="E32" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H32" s="58"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H33" s="58"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="58" t="s">
+      <c r="E34" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H34" s="58"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="58" t="s">
+      <c r="E35" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H35" s="58"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="58" t="s">
+      <c r="E36" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H36" s="58"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="58" t="s">
+      <c r="E37" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H37" s="58"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
     </row>
     <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="58" t="s">
+      <c r="E38" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H38" s="58"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
     </row>
     <row r="39" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="58" t="s">
+      <c r="E39" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H39" s="58"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
     </row>
     <row r="40" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="E40" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="58" t="s">
+      <c r="E40" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H40" s="58"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
     </row>
     <row r="41" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="58" t="s">
+      <c r="E41" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H41" s="58"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="58" t="s">
+      <c r="E42" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H42" s="58"/>
-    </row>
-    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+    </row>
+    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="E43" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="58" t="s">
+      <c r="E43" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H43" s="58"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -10127,3989 +10071,4586 @@
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
     </row>
-    <row r="45" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+    <row r="45" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+    </row>
+    <row r="46" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+    </row>
+    <row r="47" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+    </row>
+    <row r="48" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+    </row>
+    <row r="49" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+    </row>
+    <row r="50" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+    </row>
+    <row r="51" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+    </row>
+    <row r="52" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+    </row>
+    <row r="53" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+    </row>
+    <row r="54" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+    </row>
+    <row r="55" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+    </row>
+    <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+    </row>
+    <row r="57" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+    </row>
+    <row r="58" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+    </row>
+    <row r="59" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+    </row>
+    <row r="60" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+    </row>
+    <row r="61" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+    </row>
+    <row r="62" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+    </row>
+    <row r="63" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+    </row>
+    <row r="64" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+    </row>
+    <row r="65" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+    </row>
+    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+    </row>
+    <row r="67" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+    </row>
+    <row r="68" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+    </row>
+    <row r="69" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+    </row>
+    <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+    </row>
+    <row r="71" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+    </row>
+    <row r="72" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+    </row>
+    <row r="73" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+    </row>
+    <row r="74" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+    </row>
+    <row r="75" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+    </row>
+    <row r="76" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+    </row>
+    <row r="77" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+    </row>
+    <row r="78" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+    </row>
+    <row r="79" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+    </row>
+    <row r="80" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+    </row>
+    <row r="81" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+    </row>
+    <row r="82" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+    </row>
+    <row r="83" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+    </row>
+    <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+    </row>
+    <row r="85" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="64"/>
+    </row>
+    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C87" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D87" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="E45" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="58" t="s">
+      <c r="E87" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="G87" s="65"/>
+      <c r="H87" s="66"/>
+    </row>
+    <row r="88" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A88" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B88" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C88" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D88" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="58" t="s">
+      <c r="E88" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
+      <c r="G88" s="65"/>
+      <c r="H88" s="66"/>
+    </row>
+    <row r="89" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A89" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B89" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C89" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D89" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="E47" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="58" t="s">
+      <c r="E89" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="G89" s="65"/>
+      <c r="H89" s="66"/>
+    </row>
+    <row r="90" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A90" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B90" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C90" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D90" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="58" t="s">
+      <c r="E90" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G48" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
+      <c r="G90" s="65"/>
+      <c r="H90" s="66"/>
+    </row>
+    <row r="91" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A91" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B91" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C91" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D91" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="E49" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="58" t="s">
+      <c r="E91" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="G91" s="65"/>
+      <c r="H91" s="66"/>
+    </row>
+    <row r="92" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A92" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B92" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C92" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D92" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="E50" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="58" t="s">
+      <c r="E92" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" s="58" t="s">
+      <c r="G92" s="65"/>
+      <c r="H92" s="66"/>
+    </row>
+    <row r="93" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A93" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B93" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C93" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D93" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="58" t="s">
+      <c r="E93" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A52" s="58" t="s">
+      <c r="G93" s="65"/>
+      <c r="H93" s="66"/>
+    </row>
+    <row r="94" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A94" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B94" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C94" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D94" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="58" t="s">
+      <c r="E94" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="G94" s="65"/>
+      <c r="H94" s="66"/>
+    </row>
+    <row r="95" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A95" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B95" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C95" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D95" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="58" t="s">
+      <c r="E95" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="58" t="s">
+      <c r="G95" s="65"/>
+      <c r="H95" s="66"/>
+    </row>
+    <row r="96" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A96" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B96" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C96" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D96" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="E54" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="58" t="s">
+      <c r="E96" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A55" s="58" t="s">
+      <c r="G96" s="65"/>
+      <c r="H96" s="66"/>
+    </row>
+    <row r="97" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A97" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B97" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C97" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D97" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="58" t="s">
+      <c r="E97" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
+      <c r="G97" s="65"/>
+      <c r="H97" s="66"/>
+    </row>
+    <row r="98" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A98" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B98" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C98" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D98" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="E56" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="58" t="s">
+      <c r="E98" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A57" s="58" t="s">
+      <c r="G98" s="65"/>
+      <c r="H98" s="66"/>
+    </row>
+    <row r="99" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A99" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B99" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C99" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D99" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="E57" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="58" t="s">
+      <c r="E99" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G57" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A58" s="58" t="s">
+      <c r="G99" s="65"/>
+      <c r="H99" s="66"/>
+    </row>
+    <row r="100" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A100" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B100" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C100" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D100" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="E58" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="58" t="s">
+      <c r="E100" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A59" s="58" t="s">
+      <c r="G100" s="65"/>
+      <c r="H100" s="66"/>
+    </row>
+    <row r="101" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A101" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B101" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C101" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D101" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="E59" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="58" t="s">
+      <c r="E101" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A60" s="58" t="s">
+      <c r="G101" s="65"/>
+      <c r="H101" s="66"/>
+    </row>
+    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A102" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B102" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C102" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D102" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="E60" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="58" t="s">
+      <c r="E102" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A61" s="58" t="s">
+      <c r="G102" s="65"/>
+      <c r="H102" s="66"/>
+    </row>
+    <row r="103" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A103" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B103" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C103" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D103" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="E61" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="58" t="s">
+      <c r="E103" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A62" s="58" t="s">
+      <c r="G103" s="65"/>
+      <c r="H103" s="66"/>
+    </row>
+    <row r="104" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A104" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B104" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C104" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D104" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="E62" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="58" t="s">
+      <c r="E104" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="58" t="s">
+      <c r="G104" s="65"/>
+      <c r="H104" s="66"/>
+    </row>
+    <row r="105" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B105" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C105" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D105" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="E63" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="58" t="s">
+      <c r="E105" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A64" s="58" t="s">
+      <c r="G105" s="65"/>
+      <c r="H105" s="66"/>
+    </row>
+    <row r="106" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A106" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B106" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C106" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D106" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="58" t="s">
+      <c r="E106" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G64" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="58" t="s">
+      <c r="G106" s="65"/>
+      <c r="H106" s="66"/>
+    </row>
+    <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B107" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C107" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D107" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="E65" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="58" t="s">
+      <c r="E107" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="58" t="s">
+      <c r="G107" s="65"/>
+      <c r="H107" s="66"/>
+    </row>
+    <row r="108" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B108" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C108" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D108" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E66" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="58" t="s">
+      <c r="E108" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="G108" s="65"/>
+      <c r="H108" s="66"/>
+    </row>
+    <row r="109" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A109" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B109" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C109" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D109" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="58" t="s">
+      <c r="E109" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G67" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A68" s="58" t="s">
+      <c r="G109" s="65"/>
+      <c r="H109" s="66"/>
+    </row>
+    <row r="110" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A110" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B110" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C110" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D110" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="58" t="s">
+      <c r="E110" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A69" s="58" t="s">
+      <c r="G110" s="65"/>
+      <c r="H110" s="66"/>
+    </row>
+    <row r="111" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A111" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B111" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C111" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D111" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="E69" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="58" t="s">
+      <c r="E111" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G69" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A70" s="58" t="s">
+      <c r="G111" s="65"/>
+      <c r="H111" s="66"/>
+    </row>
+    <row r="112" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A112" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B112" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C112" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D112" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="E70" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="58" t="s">
+      <c r="E112" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G70" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A71" s="58" t="s">
+      <c r="G112" s="65"/>
+      <c r="H112" s="66"/>
+    </row>
+    <row r="113" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A113" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B113" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C113" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D113" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="58" t="s">
+      <c r="E113" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A72" s="58" t="s">
+      <c r="G113" s="65"/>
+      <c r="H113" s="66"/>
+    </row>
+    <row r="114" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A114" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B114" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C114" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D114" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="58" t="s">
+      <c r="E114" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G72" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A73" s="58" t="s">
+      <c r="G114" s="65"/>
+      <c r="H114" s="66"/>
+    </row>
+    <row r="115" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A115" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B115" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C115" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D115" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="E73" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="58" t="s">
+      <c r="E115" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74" s="58" t="s">
+      <c r="G115" s="65"/>
+      <c r="H115" s="66"/>
+    </row>
+    <row r="116" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A116" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B116" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C116" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D116" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E74" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="58" t="s">
+      <c r="E116" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A75" s="58" t="s">
+      <c r="G116" s="65"/>
+      <c r="H116" s="66"/>
+    </row>
+    <row r="117" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A117" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B117" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C117" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D117" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="E75" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="58" t="s">
+      <c r="E117" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A76" s="58" t="s">
+      <c r="G117" s="65"/>
+      <c r="H117" s="66"/>
+    </row>
+    <row r="118" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A118" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B118" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C118" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D118" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="E76" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="58" t="s">
+      <c r="E118" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G76" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A77" s="58" t="s">
+      <c r="G118" s="65"/>
+      <c r="H118" s="66"/>
+    </row>
+    <row r="119" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A119" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B119" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C119" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D119" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="58" t="s">
+      <c r="E119" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A78" s="58" t="s">
+      <c r="G119" s="65"/>
+      <c r="H119" s="66"/>
+    </row>
+    <row r="120" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A120" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B120" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C120" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D120" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="E78" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="58" t="s">
+      <c r="E120" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G78" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A79" s="58" t="s">
+      <c r="G120" s="65"/>
+      <c r="H120" s="66"/>
+    </row>
+    <row r="121" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A121" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B121" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C121" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="58" t="s">
+      <c r="D121" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="E79" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="58" t="s">
+      <c r="E121" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A80" s="58" t="s">
+      <c r="G121" s="65"/>
+      <c r="H121" s="66"/>
+    </row>
+    <row r="122" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A122" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B122" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C122" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D122" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="E80" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="58" t="s">
+      <c r="E122" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G80" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A81" s="58" t="s">
+      <c r="G122" s="65"/>
+      <c r="H122" s="66"/>
+    </row>
+    <row r="123" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A123" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B123" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C123" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D123" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="E81" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="58" t="s">
+      <c r="E123" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A82" s="58" t="s">
+      <c r="G123" s="65"/>
+      <c r="H123" s="66"/>
+    </row>
+    <row r="124" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A124" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="58" t="s">
+      <c r="B124" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C124" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D124" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="E82" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="58" t="s">
+      <c r="E124" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A83" s="58" t="s">
+      <c r="G124" s="65"/>
+      <c r="H124" s="66"/>
+    </row>
+    <row r="125" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A125" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B125" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C125" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D125" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="E83" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="58" t="s">
+      <c r="E125" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G83" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A84" s="58" t="s">
+      <c r="G125" s="65"/>
+      <c r="H125" s="66"/>
+    </row>
+    <row r="126" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A126" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B126" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C126" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D126" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="58" t="s">
+      <c r="E126" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G84" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="58" t="s">
+      <c r="G126" s="65"/>
+      <c r="H126" s="66"/>
+    </row>
+    <row r="127" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B127" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C127" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D127" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="E85" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" s="58" t="s">
+      <c r="E127" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="64" t="s">
+      <c r="G127" s="65"/>
+      <c r="H127" s="66"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-    </row>
-    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="58" t="s">
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="60"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="60"/>
+    </row>
+    <row r="129" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B129" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C129" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D129" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="E87" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="58" t="s">
+      <c r="E129" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A88" s="58" t="s">
+      <c r="G129" s="65"/>
+      <c r="H129" s="66"/>
+    </row>
+    <row r="130" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A130" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B130" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C130" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="58" t="s">
+      <c r="D130" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="E88" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="58" t="s">
+      <c r="E130" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G88" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A89" s="58" t="s">
+      <c r="G130" s="65"/>
+      <c r="H130" s="66"/>
+    </row>
+    <row r="131" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A131" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B131" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C131" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D131" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="E89" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" s="58" t="s">
+      <c r="E131" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G89" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A90" s="58" t="s">
+      <c r="G131" s="65"/>
+      <c r="H131" s="66"/>
+    </row>
+    <row r="132" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A132" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B132" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="58" t="s">
+      <c r="C132" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D132" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="58" t="s">
+      <c r="E132" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G90" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A91" s="58" t="s">
+      <c r="G132" s="65"/>
+      <c r="H132" s="66"/>
+    </row>
+    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A133" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B133" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C133" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D133" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="E91" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="58" t="s">
+      <c r="E133" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G91" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A92" s="58" t="s">
+      <c r="G133" s="65"/>
+      <c r="H133" s="66"/>
+    </row>
+    <row r="134" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A134" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B134" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="58" t="s">
+      <c r="C134" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D134" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="58" t="s">
+      <c r="E134" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G92" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A93" s="58" t="s">
+      <c r="G134" s="65"/>
+      <c r="H134" s="66"/>
+    </row>
+    <row r="135" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A135" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B135" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C135" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D135" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="58" t="s">
+      <c r="E135" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G93" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A94" s="58" t="s">
+      <c r="G135" s="65"/>
+      <c r="H135" s="66"/>
+    </row>
+    <row r="136" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A136" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B136" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="58" t="s">
+      <c r="C136" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="58" t="s">
+      <c r="D136" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="E94" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="58" t="s">
+      <c r="E136" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A95" s="58" t="s">
+      <c r="G136" s="65"/>
+      <c r="H136" s="66"/>
+    </row>
+    <row r="137" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A137" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B137" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C137" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D137" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="58" t="s">
+      <c r="E137" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G95" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A96" s="58" t="s">
+      <c r="G137" s="65"/>
+      <c r="H137" s="66"/>
+    </row>
+    <row r="138" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A138" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B138" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C138" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D138" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="E96" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" s="58" t="s">
+      <c r="E138" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G96" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A97" s="58" t="s">
+      <c r="G138" s="65"/>
+      <c r="H138" s="66"/>
+    </row>
+    <row r="139" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A139" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B139" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C139" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D139" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="E97" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="58" t="s">
+      <c r="E139" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G97" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A98" s="58" t="s">
+      <c r="G139" s="65"/>
+      <c r="H139" s="66"/>
+    </row>
+    <row r="140" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A140" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="58" t="s">
+      <c r="B140" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="58" t="s">
+      <c r="C140" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D140" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="E98" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="58" t="s">
+      <c r="E140" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G98" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A99" s="58" t="s">
+      <c r="G140" s="65"/>
+      <c r="H140" s="66"/>
+    </row>
+    <row r="141" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A141" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B141" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C141" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="58" t="s">
+      <c r="D141" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="E99" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="58" t="s">
+      <c r="E141" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G99" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A100" s="58" t="s">
+      <c r="G141" s="65"/>
+      <c r="H141" s="66"/>
+    </row>
+    <row r="142" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A142" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B142" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C142" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="58" t="s">
+      <c r="D142" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="E100" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="58" t="s">
+      <c r="E142" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G100" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H100" s="11"/>
-    </row>
-    <row r="101" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A101" s="58" t="s">
+      <c r="G142" s="65"/>
+      <c r="H142" s="66"/>
+    </row>
+    <row r="143" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A143" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B143" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C143" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="58" t="s">
+      <c r="D143" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="58" t="s">
+      <c r="E143" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G101" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H101" s="11"/>
-    </row>
-    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A102" s="58" t="s">
+      <c r="G143" s="65"/>
+      <c r="H143" s="66"/>
+    </row>
+    <row r="144" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A144" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B144" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C102" s="58" t="s">
+      <c r="C144" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D102" s="58" t="s">
+      <c r="D144" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="E102" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F102" s="58" t="s">
+      <c r="E144" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H102" s="11"/>
-    </row>
-    <row r="103" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A103" s="58" t="s">
+      <c r="G144" s="65"/>
+      <c r="H144" s="66"/>
+    </row>
+    <row r="145" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A145" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B145" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C145" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="58" t="s">
+      <c r="D145" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="E103" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" s="58" t="s">
+      <c r="E145" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G103" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A104" s="58" t="s">
+      <c r="G145" s="65"/>
+      <c r="H145" s="66"/>
+    </row>
+    <row r="146" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A146" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B146" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C146" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="58" t="s">
+      <c r="D146" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="E104" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="58" t="s">
+      <c r="E146" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G104" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H104" s="11"/>
-    </row>
-    <row r="105" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="58" t="s">
+      <c r="G146" s="65"/>
+      <c r="H146" s="66"/>
+    </row>
+    <row r="147" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B147" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C147" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D147" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="E105" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="58" t="s">
+      <c r="E147" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G105" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H105" s="11"/>
-    </row>
-    <row r="106" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A106" s="58" t="s">
+      <c r="G147" s="65"/>
+      <c r="H147" s="66"/>
+    </row>
+    <row r="148" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A148" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="58" t="s">
+      <c r="B148" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="C148" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="58" t="s">
+      <c r="D148" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="E106" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F106" s="58" t="s">
+      <c r="E148" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H106" s="11"/>
-    </row>
-    <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="58" t="s">
+      <c r="G148" s="65"/>
+      <c r="H148" s="66"/>
+    </row>
+    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B149" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C149" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D149" s="65" t="s">
         <v>415</v>
       </c>
-      <c r="E107" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="58" t="s">
+      <c r="E149" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G107" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H107" s="11"/>
-    </row>
-    <row r="108" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="58" t="s">
+      <c r="G149" s="65"/>
+      <c r="H149" s="66"/>
+    </row>
+    <row r="150" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A150" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B150" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="C150" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D108" s="58" t="s">
+      <c r="D150" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="E108" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F108" s="58" t="s">
+      <c r="E150" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G108" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H108" s="11"/>
-    </row>
-    <row r="109" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A109" s="58" t="s">
+      <c r="G150" s="65"/>
+      <c r="H150" s="66"/>
+    </row>
+    <row r="151" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A151" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B151" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C151" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D109" s="58" t="s">
+      <c r="D151" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="E109" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="58" t="s">
+      <c r="E151" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G109" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A110" s="58" t="s">
+      <c r="G151" s="65"/>
+      <c r="H151" s="66"/>
+    </row>
+    <row r="152" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A152" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="B152" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="58" t="s">
+      <c r="C152" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D110" s="58" t="s">
+      <c r="D152" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="E110" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="58" t="s">
+      <c r="E152" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G110" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H110" s="11"/>
-    </row>
-    <row r="111" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A111" s="58" t="s">
+      <c r="G152" s="65"/>
+      <c r="H152" s="66"/>
+    </row>
+    <row r="153" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A153" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B153" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C153" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D153" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="E111" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F111" s="58" t="s">
+      <c r="E153" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G111" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A112" s="58" t="s">
+      <c r="G153" s="65"/>
+      <c r="H153" s="66"/>
+    </row>
+    <row r="154" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A154" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="58" t="s">
+      <c r="B154" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C154" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="58" t="s">
+      <c r="D154" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="E112" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="58" t="s">
+      <c r="E154" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G112" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H112" s="11"/>
-    </row>
-    <row r="113" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A113" s="58" t="s">
+      <c r="G154" s="65"/>
+      <c r="H154" s="66"/>
+    </row>
+    <row r="155" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A155" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="58" t="s">
+      <c r="B155" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="58" t="s">
+      <c r="C155" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D113" s="58" t="s">
+      <c r="D155" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="E113" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="58" t="s">
+      <c r="E155" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G113" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A114" s="58" t="s">
+      <c r="G155" s="65"/>
+      <c r="H155" s="66"/>
+    </row>
+    <row r="156" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A156" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="58" t="s">
+      <c r="B156" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C156" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D114" s="58" t="s">
+      <c r="D156" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="E114" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="58" t="s">
+      <c r="E156" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H114" s="11"/>
-    </row>
-    <row r="115" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A115" s="58" t="s">
+      <c r="G156" s="65"/>
+      <c r="H156" s="66"/>
+    </row>
+    <row r="157" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A157" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="58" t="s">
+      <c r="B157" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C157" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D157" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="E115" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="58" t="s">
+      <c r="E157" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G115" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H115" s="11"/>
-    </row>
-    <row r="116" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A116" s="58" t="s">
+      <c r="G157" s="65"/>
+      <c r="H157" s="66"/>
+    </row>
+    <row r="158" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A158" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="B158" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C158" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="58" t="s">
+      <c r="D158" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="E116" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="58" t="s">
+      <c r="E158" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G116" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H116" s="11"/>
-    </row>
-    <row r="117" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A117" s="58" t="s">
+      <c r="G158" s="65"/>
+      <c r="H158" s="66"/>
+    </row>
+    <row r="159" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A159" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="B159" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="58" t="s">
+      <c r="C159" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="58" t="s">
+      <c r="D159" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="E117" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="58" t="s">
+      <c r="E159" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A118" s="58" t="s">
+      <c r="G159" s="65"/>
+      <c r="H159" s="66"/>
+    </row>
+    <row r="160" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A160" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="58" t="s">
+      <c r="B160" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C118" s="58" t="s">
+      <c r="C160" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="58" t="s">
+      <c r="D160" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="E118" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="58" t="s">
+      <c r="E160" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G118" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H118" s="11"/>
-    </row>
-    <row r="119" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A119" s="58" t="s">
+      <c r="G160" s="65"/>
+      <c r="H160" s="66"/>
+    </row>
+    <row r="161" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A161" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B119" s="58" t="s">
+      <c r="B161" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="C161" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D119" s="58" t="s">
+      <c r="D161" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="E119" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="58" t="s">
+      <c r="E161" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G119" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H119" s="11"/>
-    </row>
-    <row r="120" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A120" s="58" t="s">
+      <c r="G161" s="65"/>
+      <c r="H161" s="66"/>
+    </row>
+    <row r="162" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A162" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B120" s="58" t="s">
+      <c r="B162" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C120" s="58" t="s">
+      <c r="C162" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D120" s="58" t="s">
+      <c r="D162" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="E120" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="58" t="s">
+      <c r="E162" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G120" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H120" s="11"/>
-    </row>
-    <row r="121" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A121" s="58" t="s">
+      <c r="G162" s="65"/>
+      <c r="H162" s="66"/>
+    </row>
+    <row r="163" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A163" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B121" s="58" t="s">
+      <c r="B163" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C163" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="D163" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="E121" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="58" t="s">
+      <c r="E163" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G121" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H121" s="11"/>
-    </row>
-    <row r="122" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A122" s="58" t="s">
+      <c r="G163" s="65"/>
+      <c r="H163" s="66"/>
+    </row>
+    <row r="164" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A164" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="58" t="s">
+      <c r="B164" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="58" t="s">
+      <c r="C164" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D164" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="E122" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="58" t="s">
+      <c r="E164" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G122" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H122" s="11"/>
-    </row>
-    <row r="123" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A123" s="58" t="s">
+      <c r="G164" s="65"/>
+      <c r="H164" s="66"/>
+    </row>
+    <row r="165" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A165" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="58" t="s">
+      <c r="B165" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="58" t="s">
+      <c r="C165" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="58" t="s">
+      <c r="D165" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="58" t="s">
+      <c r="E165" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G123" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H123" s="11"/>
-    </row>
-    <row r="124" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A124" s="58" t="s">
+      <c r="G165" s="65"/>
+      <c r="H165" s="66"/>
+    </row>
+    <row r="166" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A166" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="58" t="s">
+      <c r="B166" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="58" t="s">
+      <c r="C166" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D166" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="E124" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="58" t="s">
+      <c r="E166" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G124" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A125" s="58" t="s">
+      <c r="G166" s="65"/>
+      <c r="H166" s="66"/>
+    </row>
+    <row r="167" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A167" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="B167" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="58" t="s">
+      <c r="C167" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D125" s="58" t="s">
+      <c r="D167" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="E125" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="58" t="s">
+      <c r="E167" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G125" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A126" s="58" t="s">
+      <c r="G167" s="65"/>
+      <c r="H167" s="66"/>
+    </row>
+    <row r="168" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A168" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="B168" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="58" t="s">
+      <c r="C168" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D126" s="58" t="s">
+      <c r="D168" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="E126" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F126" s="58" t="s">
+      <c r="E168" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="58" t="s">
+      <c r="G168" s="65"/>
+      <c r="H168" s="66"/>
+    </row>
+    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="B169" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C127" s="58" t="s">
+      <c r="C169" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D127" s="58" t="s">
+      <c r="D169" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="E127" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="58" t="s">
+      <c r="E169" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G127" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H127" s="11"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="62" t="s">
+      <c r="G169" s="65"/>
+      <c r="H169" s="66"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="63"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
-      <c r="H128" s="63"/>
-    </row>
-    <row r="129" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="58" t="s">
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+    </row>
+    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B171" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C171" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D171" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="E129" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="58" t="s">
+      <c r="E171" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H129" s="65"/>
-    </row>
-    <row r="130" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A130" s="58" t="s">
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+    </row>
+    <row r="172" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A172" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="58" t="s">
+      <c r="B172" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="58" t="s">
+      <c r="C172" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D130" s="58" t="s">
+      <c r="D172" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="E130" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="58" t="s">
+      <c r="E172" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H130" s="65"/>
-    </row>
-    <row r="131" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A131" s="58" t="s">
+      <c r="G172" s="65"/>
+      <c r="H172" s="65"/>
+    </row>
+    <row r="173" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A173" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B131" s="58" t="s">
+      <c r="B173" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="58" t="s">
+      <c r="C173" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="58" t="s">
+      <c r="D173" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="E131" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="58" t="s">
+      <c r="E173" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G131" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H131" s="65"/>
-    </row>
-    <row r="132" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A132" s="58" t="s">
+      <c r="G173" s="65"/>
+      <c r="H173" s="65"/>
+    </row>
+    <row r="174" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A174" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B174" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C132" s="58" t="s">
+      <c r="C174" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="58" t="s">
+      <c r="D174" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="E132" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F132" s="58" t="s">
+      <c r="E174" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G132" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H132" s="65"/>
-    </row>
-    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A133" s="58" t="s">
+      <c r="G174" s="65"/>
+      <c r="H174" s="65"/>
+    </row>
+    <row r="175" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A175" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="58" t="s">
+      <c r="B175" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="C175" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D175" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="E133" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F133" s="58" t="s">
+      <c r="E175" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G133" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H133" s="65"/>
-    </row>
-    <row r="134" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A134" s="58" t="s">
+      <c r="G175" s="65"/>
+      <c r="H175" s="65"/>
+    </row>
+    <row r="176" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A176" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="58" t="s">
+      <c r="B176" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="58" t="s">
+      <c r="C176" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D134" s="58" t="s">
+      <c r="D176" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="E134" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="58" t="s">
+      <c r="E176" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G134" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H134" s="65"/>
-    </row>
-    <row r="135" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A135" s="58" t="s">
+      <c r="G176" s="65"/>
+      <c r="H176" s="65"/>
+    </row>
+    <row r="177" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A177" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B135" s="58" t="s">
+      <c r="B177" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="58" t="s">
+      <c r="C177" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D135" s="58" t="s">
+      <c r="D177" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="E135" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="58" t="s">
+      <c r="E177" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G135" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H135" s="65"/>
-    </row>
-    <row r="136" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A136" s="58" t="s">
+      <c r="G177" s="65"/>
+      <c r="H177" s="65"/>
+    </row>
+    <row r="178" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A178" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="58" t="s">
+      <c r="B178" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C136" s="58" t="s">
+      <c r="C178" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D136" s="58" t="s">
+      <c r="D178" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="E136" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" s="58" t="s">
+      <c r="E178" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G136" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H136" s="65"/>
-    </row>
-    <row r="137" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A137" s="58" t="s">
+      <c r="G178" s="65"/>
+      <c r="H178" s="65"/>
+    </row>
+    <row r="179" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A179" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="58" t="s">
+      <c r="B179" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C137" s="58" t="s">
+      <c r="C179" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="58" t="s">
+      <c r="D179" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="E137" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F137" s="58" t="s">
+      <c r="E179" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G137" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H137" s="65"/>
-    </row>
-    <row r="138" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A138" s="58" t="s">
+      <c r="G179" s="65"/>
+      <c r="H179" s="65"/>
+    </row>
+    <row r="180" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A180" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B138" s="58" t="s">
+      <c r="B180" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C138" s="58" t="s">
+      <c r="C180" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D138" s="58" t="s">
+      <c r="D180" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="E138" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="58" t="s">
+      <c r="E180" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G138" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H138" s="65"/>
-    </row>
-    <row r="139" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A139" s="58" t="s">
+      <c r="G180" s="65"/>
+      <c r="H180" s="65"/>
+    </row>
+    <row r="181" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A181" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="58" t="s">
+      <c r="B181" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="C181" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D139" s="58" t="s">
+      <c r="D181" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="E139" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="58" t="s">
+      <c r="E181" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G139" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H139" s="65"/>
-    </row>
-    <row r="140" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A140" s="58" t="s">
+      <c r="G181" s="65"/>
+      <c r="H181" s="65"/>
+    </row>
+    <row r="182" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A182" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B140" s="58" t="s">
+      <c r="B182" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C140" s="58" t="s">
+      <c r="C182" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D140" s="58" t="s">
+      <c r="D182" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="E140" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="58" t="s">
+      <c r="E182" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G140" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H140" s="65"/>
-    </row>
-    <row r="141" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A141" s="58" t="s">
+      <c r="G182" s="65"/>
+      <c r="H182" s="65"/>
+    </row>
+    <row r="183" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A183" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="58" t="s">
+      <c r="B183" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C141" s="58" t="s">
+      <c r="C183" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D141" s="58" t="s">
+      <c r="D183" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="E141" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F141" s="58" t="s">
+      <c r="E183" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G141" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H141" s="65"/>
-    </row>
-    <row r="142" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A142" s="58" t="s">
+      <c r="G183" s="65"/>
+      <c r="H183" s="65"/>
+    </row>
+    <row r="184" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A184" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B142" s="58" t="s">
+      <c r="B184" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C142" s="58" t="s">
+      <c r="C184" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D142" s="58" t="s">
+      <c r="D184" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="E142" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F142" s="58" t="s">
+      <c r="E184" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G142" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H142" s="65"/>
-    </row>
-    <row r="143" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A143" s="58" t="s">
+      <c r="G184" s="65"/>
+      <c r="H184" s="65"/>
+    </row>
+    <row r="185" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A185" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B143" s="58" t="s">
+      <c r="B185" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C185" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D143" s="58" t="s">
+      <c r="D185" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="E143" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143" s="58" t="s">
+      <c r="E185" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G143" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H143" s="65"/>
-    </row>
-    <row r="144" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A144" s="58" t="s">
+      <c r="G185" s="65"/>
+      <c r="H185" s="65"/>
+    </row>
+    <row r="186" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A186" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B144" s="58" t="s">
+      <c r="B186" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C144" s="58" t="s">
+      <c r="C186" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D144" s="58" t="s">
+      <c r="D186" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="E144" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F144" s="58" t="s">
+      <c r="E186" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G144" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H144" s="65"/>
-    </row>
-    <row r="145" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A145" s="58" t="s">
+      <c r="G186" s="65"/>
+      <c r="H186" s="65"/>
+    </row>
+    <row r="187" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A187" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B145" s="58" t="s">
+      <c r="B187" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="58" t="s">
+      <c r="C187" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D145" s="58" t="s">
+      <c r="D187" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="E145" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="58" t="s">
+      <c r="E187" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G145" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H145" s="65"/>
-    </row>
-    <row r="146" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A146" s="58" t="s">
+      <c r="G187" s="65"/>
+      <c r="H187" s="65"/>
+    </row>
+    <row r="188" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A188" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B146" s="58" t="s">
+      <c r="B188" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C188" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D146" s="58" t="s">
+      <c r="D188" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="E146" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="58" t="s">
+      <c r="E188" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G146" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H146" s="65"/>
-    </row>
-    <row r="147" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="58" t="s">
+      <c r="G188" s="65"/>
+      <c r="H188" s="65"/>
+    </row>
+    <row r="189" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A189" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B147" s="58" t="s">
+      <c r="B189" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C189" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D147" s="58" t="s">
+      <c r="D189" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="E147" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F147" s="58" t="s">
+      <c r="E189" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G147" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H147" s="65"/>
-    </row>
-    <row r="148" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A148" s="58" t="s">
+      <c r="G189" s="65"/>
+      <c r="H189" s="65"/>
+    </row>
+    <row r="190" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A190" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B148" s="58" t="s">
+      <c r="B190" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C148" s="58" t="s">
+      <c r="C190" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D148" s="58" t="s">
+      <c r="D190" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="E148" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="58" t="s">
+      <c r="E190" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G148" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H148" s="65"/>
-    </row>
-    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="58" t="s">
+      <c r="G190" s="65"/>
+      <c r="H190" s="65"/>
+    </row>
+    <row r="191" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B149" s="58" t="s">
+      <c r="B191" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C149" s="58" t="s">
+      <c r="C191" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D149" s="58" t="s">
+      <c r="D191" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="E149" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="58" t="s">
+      <c r="E191" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G149" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H149" s="65"/>
-    </row>
-    <row r="150" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="58" t="s">
+      <c r="G191" s="65"/>
+      <c r="H191" s="65"/>
+    </row>
+    <row r="192" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A192" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="58" t="s">
+      <c r="B192" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="58" t="s">
+      <c r="C192" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D150" s="58" t="s">
+      <c r="D192" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="E150" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F150" s="58" t="s">
+      <c r="E192" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G150" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H150" s="65"/>
-    </row>
-    <row r="151" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A151" s="58" t="s">
+      <c r="G192" s="65"/>
+      <c r="H192" s="65"/>
+    </row>
+    <row r="193" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A193" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="58" t="s">
+      <c r="B193" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="58" t="s">
+      <c r="C193" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D151" s="58" t="s">
+      <c r="D193" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="E151" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" s="58" t="s">
+      <c r="E193" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G151" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H151" s="65"/>
-    </row>
-    <row r="152" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A152" s="58" t="s">
+      <c r="G193" s="65"/>
+      <c r="H193" s="65"/>
+    </row>
+    <row r="194" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A194" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B152" s="58" t="s">
+      <c r="B194" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C152" s="58" t="s">
+      <c r="C194" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D152" s="58" t="s">
+      <c r="D194" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="E152" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F152" s="58" t="s">
+      <c r="E194" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G152" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H152" s="65"/>
-    </row>
-    <row r="153" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A153" s="58" t="s">
+      <c r="G194" s="65"/>
+      <c r="H194" s="65"/>
+    </row>
+    <row r="195" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A195" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B153" s="58" t="s">
+      <c r="B195" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C153" s="58" t="s">
+      <c r="C195" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D153" s="58" t="s">
+      <c r="D195" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="E153" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="58" t="s">
+      <c r="E195" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G153" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H153" s="65"/>
-    </row>
-    <row r="154" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A154" s="58" t="s">
+      <c r="G195" s="65"/>
+      <c r="H195" s="65"/>
+    </row>
+    <row r="196" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A196" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B154" s="58" t="s">
+      <c r="B196" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C154" s="58" t="s">
+      <c r="C196" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D154" s="58" t="s">
+      <c r="D196" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="E154" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154" s="58" t="s">
+      <c r="E196" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G154" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H154" s="65"/>
-    </row>
-    <row r="155" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A155" s="58" t="s">
+      <c r="G196" s="65"/>
+      <c r="H196" s="65"/>
+    </row>
+    <row r="197" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A197" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="58" t="s">
+      <c r="B197" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C155" s="58" t="s">
+      <c r="C197" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D155" s="58" t="s">
+      <c r="D197" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="E155" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="58" t="s">
+      <c r="E197" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G155" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H155" s="65"/>
-    </row>
-    <row r="156" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A156" s="58" t="s">
+      <c r="G197" s="65"/>
+      <c r="H197" s="65"/>
+    </row>
+    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A198" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B156" s="58" t="s">
+      <c r="B198" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C156" s="58" t="s">
+      <c r="C198" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="58" t="s">
+      <c r="D198" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="E156" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="58" t="s">
+      <c r="E198" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G156" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H156" s="65"/>
-    </row>
-    <row r="157" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A157" s="58" t="s">
+      <c r="G198" s="65"/>
+      <c r="H198" s="65"/>
+    </row>
+    <row r="199" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A199" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="58" t="s">
+      <c r="B199" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C157" s="58" t="s">
+      <c r="C199" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D157" s="58" t="s">
+      <c r="D199" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="E157" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" s="58" t="s">
+      <c r="E199" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G157" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H157" s="65"/>
-    </row>
-    <row r="158" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A158" s="58" t="s">
+      <c r="G199" s="65"/>
+      <c r="H199" s="65"/>
+    </row>
+    <row r="200" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A200" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B158" s="58" t="s">
+      <c r="B200" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C158" s="58" t="s">
+      <c r="C200" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D158" s="58" t="s">
+      <c r="D200" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="E158" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="58" t="s">
+      <c r="E200" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G158" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H158" s="65"/>
-    </row>
-    <row r="159" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A159" s="58" t="s">
+      <c r="G200" s="65"/>
+      <c r="H200" s="65"/>
+    </row>
+    <row r="201" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A201" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B159" s="58" t="s">
+      <c r="B201" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C159" s="58" t="s">
+      <c r="C201" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D159" s="58" t="s">
+      <c r="D201" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E159" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" s="58" t="s">
+      <c r="E201" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G159" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H159" s="65"/>
-    </row>
-    <row r="160" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A160" s="58" t="s">
+      <c r="G201" s="65"/>
+      <c r="H201" s="65"/>
+    </row>
+    <row r="202" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A202" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B160" s="58" t="s">
+      <c r="B202" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C160" s="58" t="s">
+      <c r="C202" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D160" s="58" t="s">
+      <c r="D202" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="E160" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="58" t="s">
+      <c r="E202" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G160" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H160" s="65"/>
-    </row>
-    <row r="161" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A161" s="58" t="s">
+      <c r="G202" s="65"/>
+      <c r="H202" s="65"/>
+    </row>
+    <row r="203" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A203" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B161" s="58" t="s">
+      <c r="B203" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C161" s="58" t="s">
+      <c r="C203" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="58" t="s">
+      <c r="D203" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E161" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F161" s="58" t="s">
+      <c r="E203" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G161" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H161" s="65"/>
-    </row>
-    <row r="162" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A162" s="58" t="s">
+      <c r="G203" s="65"/>
+      <c r="H203" s="65"/>
+    </row>
+    <row r="204" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A204" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B162" s="58" t="s">
+      <c r="B204" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C162" s="58" t="s">
+      <c r="C204" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D162" s="58" t="s">
+      <c r="D204" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E162" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="58" t="s">
+      <c r="E204" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G162" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H162" s="65"/>
-    </row>
-    <row r="163" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A163" s="58" t="s">
+      <c r="G204" s="65"/>
+      <c r="H204" s="65"/>
+    </row>
+    <row r="205" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A205" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B163" s="58" t="s">
+      <c r="B205" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="58" t="s">
+      <c r="C205" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D163" s="58" t="s">
+      <c r="D205" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="E163" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F163" s="58" t="s">
+      <c r="E205" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G163" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H163" s="65"/>
-    </row>
-    <row r="164" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A164" s="58" t="s">
+      <c r="G205" s="65"/>
+      <c r="H205" s="65"/>
+    </row>
+    <row r="206" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A206" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B164" s="58" t="s">
+      <c r="B206" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C164" s="58" t="s">
+      <c r="C206" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D164" s="58" t="s">
+      <c r="D206" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="58" t="s">
+      <c r="E206" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G164" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H164" s="65"/>
-    </row>
-    <row r="165" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A165" s="58" t="s">
+      <c r="G206" s="65"/>
+      <c r="H206" s="65"/>
+    </row>
+    <row r="207" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A207" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B165" s="58" t="s">
+      <c r="B207" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C165" s="58" t="s">
+      <c r="C207" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="58" t="s">
+      <c r="D207" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="E165" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F165" s="58" t="s">
+      <c r="E207" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F207" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G165" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H165" s="65"/>
-    </row>
-    <row r="166" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A166" s="58" t="s">
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+    </row>
+    <row r="208" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A208" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B166" s="58" t="s">
+      <c r="B208" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C166" s="58" t="s">
+      <c r="C208" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="58" t="s">
+      <c r="D208" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E166" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F166" s="58" t="s">
+      <c r="E208" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G166" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H166" s="65"/>
-    </row>
-    <row r="167" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A167" s="58" t="s">
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+    </row>
+    <row r="209" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A209" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B167" s="58" t="s">
+      <c r="B209" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C167" s="58" t="s">
+      <c r="C209" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="58" t="s">
+      <c r="D209" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F167" s="58" t="s">
+      <c r="E209" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F209" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G167" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H167" s="65"/>
-    </row>
-    <row r="168" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A168" s="58" t="s">
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+    </row>
+    <row r="210" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A210" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B210" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="C210" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D168" s="58" t="s">
+      <c r="D210" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="E168" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F168" s="58" t="s">
+      <c r="E210" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G168" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H168" s="65"/>
-    </row>
-    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="58" t="s">
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+    </row>
+    <row r="211" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B169" s="58" t="s">
+      <c r="B211" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C169" s="58" t="s">
+      <c r="C211" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D211" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="E169" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F169" s="58" t="s">
+      <c r="E211" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F211" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G169" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H169" s="65"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="62" t="s">
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B170" s="63"/>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="63"/>
-      <c r="H170" s="63"/>
-    </row>
-    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="58" t="s">
+      <c r="B212" s="59"/>
+      <c r="C212" s="59"/>
+      <c r="D212" s="59"/>
+      <c r="E212" s="59"/>
+      <c r="F212" s="59"/>
+      <c r="G212" s="59"/>
+      <c r="H212" s="59"/>
+    </row>
+    <row r="213" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B171" s="58" t="s">
+      <c r="B213" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="58" t="s">
+      <c r="C213" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D171" s="58" t="s">
+      <c r="D213" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="E171" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" s="58" t="s">
+      <c r="E213" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F213" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G171" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H171" s="58"/>
-    </row>
-    <row r="172" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A172" s="58" t="s">
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+    </row>
+    <row r="214" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A214" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B172" s="58" t="s">
+      <c r="B214" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C172" s="58" t="s">
+      <c r="C214" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D172" s="58" t="s">
+      <c r="D214" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E172" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="58" t="s">
+      <c r="E214" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F214" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G172" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H172" s="58"/>
-    </row>
-    <row r="173" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A173" s="58" t="s">
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+    </row>
+    <row r="215" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A215" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B173" s="58" t="s">
+      <c r="B215" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C215" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D173" s="58" t="s">
+      <c r="D215" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="E173" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" s="58" t="s">
+      <c r="E215" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G173" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H173" s="58"/>
-    </row>
-    <row r="174" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A174" s="58" t="s">
+      <c r="G215" s="65"/>
+      <c r="H215" s="65"/>
+    </row>
+    <row r="216" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A216" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B174" s="58" t="s">
+      <c r="B216" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C174" s="58" t="s">
+      <c r="C216" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D174" s="58" t="s">
+      <c r="D216" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="E174" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F174" s="58" t="s">
+      <c r="E216" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G174" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H174" s="58"/>
-    </row>
-    <row r="175" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A175" s="58" t="s">
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+    </row>
+    <row r="217" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A217" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B175" s="58" t="s">
+      <c r="B217" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C175" s="58" t="s">
+      <c r="C217" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D175" s="58" t="s">
+      <c r="D217" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="E175" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F175" s="58" t="s">
+      <c r="E217" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G175" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H175" s="58"/>
-    </row>
-    <row r="176" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A176" s="58" t="s">
+      <c r="G217" s="65"/>
+      <c r="H217" s="65"/>
+    </row>
+    <row r="218" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A218" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="58" t="s">
+      <c r="B218" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="58" t="s">
+      <c r="C218" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D176" s="58" t="s">
+      <c r="D218" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E176" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F176" s="58" t="s">
+      <c r="E218" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G176" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H176" s="58"/>
-    </row>
-    <row r="177" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A177" s="58" t="s">
+      <c r="G218" s="65"/>
+      <c r="H218" s="65"/>
+    </row>
+    <row r="219" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A219" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B177" s="58" t="s">
+      <c r="B219" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C177" s="58" t="s">
+      <c r="C219" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D177" s="58" t="s">
+      <c r="D219" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="E177" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F177" s="58" t="s">
+      <c r="E219" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G177" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H177" s="58"/>
-    </row>
-    <row r="178" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A178" s="58" t="s">
+      <c r="G219" s="65"/>
+      <c r="H219" s="65"/>
+    </row>
+    <row r="220" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A220" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B178" s="58" t="s">
+      <c r="B220" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="58" t="s">
+      <c r="C220" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D178" s="58" t="s">
+      <c r="D220" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="E178" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F178" s="58" t="s">
+      <c r="E220" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G178" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H178" s="58"/>
-    </row>
-    <row r="179" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A179" s="58" t="s">
+      <c r="G220" s="65"/>
+      <c r="H220" s="65"/>
+    </row>
+    <row r="221" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A221" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B179" s="58" t="s">
+      <c r="B221" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C179" s="58" t="s">
+      <c r="C221" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D179" s="58" t="s">
+      <c r="D221" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="E179" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F179" s="58" t="s">
+      <c r="E221" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G179" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H179" s="58"/>
-    </row>
-    <row r="180" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A180" s="58" t="s">
+      <c r="G221" s="65"/>
+      <c r="H221" s="65"/>
+    </row>
+    <row r="222" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A222" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B180" s="58" t="s">
+      <c r="B222" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C180" s="58" t="s">
+      <c r="C222" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D180" s="58" t="s">
+      <c r="D222" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="E180" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F180" s="58" t="s">
+      <c r="E222" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G180" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H180" s="58"/>
-    </row>
-    <row r="181" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A181" s="58" t="s">
+      <c r="G222" s="65"/>
+      <c r="H222" s="65"/>
+    </row>
+    <row r="223" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A223" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B181" s="58" t="s">
+      <c r="B223" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C181" s="58" t="s">
+      <c r="C223" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D181" s="58" t="s">
+      <c r="D223" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="E181" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F181" s="58" t="s">
+      <c r="E223" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G181" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H181" s="58"/>
-    </row>
-    <row r="182" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A182" s="58" t="s">
+      <c r="G223" s="65"/>
+      <c r="H223" s="65"/>
+    </row>
+    <row r="224" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A224" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B182" s="58" t="s">
+      <c r="B224" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C182" s="58" t="s">
+      <c r="C224" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D182" s="58" t="s">
+      <c r="D224" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="E182" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F182" s="58" t="s">
+      <c r="E224" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G182" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H182" s="58"/>
-    </row>
-    <row r="183" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A183" s="58" t="s">
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+    </row>
+    <row r="225" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A225" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B183" s="58" t="s">
+      <c r="B225" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C183" s="58" t="s">
+      <c r="C225" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D183" s="58" t="s">
+      <c r="D225" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="E183" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F183" s="58" t="s">
+      <c r="E225" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G183" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H183" s="58"/>
-    </row>
-    <row r="184" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A184" s="58" t="s">
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+    </row>
+    <row r="226" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A226" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B184" s="58" t="s">
+      <c r="B226" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C184" s="58" t="s">
+      <c r="C226" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D184" s="58" t="s">
+      <c r="D226" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="E184" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F184" s="58" t="s">
+      <c r="E226" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F226" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G184" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H184" s="58"/>
-    </row>
-    <row r="185" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A185" s="58" t="s">
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+    </row>
+    <row r="227" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A227" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B185" s="58" t="s">
+      <c r="B227" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="58" t="s">
+      <c r="C227" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D185" s="58" t="s">
+      <c r="D227" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="E185" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F185" s="58" t="s">
+      <c r="E227" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G185" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H185" s="58"/>
-    </row>
-    <row r="186" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A186" s="58" t="s">
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+    </row>
+    <row r="228" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A228" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B186" s="58" t="s">
+      <c r="B228" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C186" s="58" t="s">
+      <c r="C228" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D186" s="58" t="s">
+      <c r="D228" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="E186" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F186" s="58" t="s">
+      <c r="E228" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G186" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H186" s="58"/>
-    </row>
-    <row r="187" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A187" s="58" t="s">
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+    </row>
+    <row r="229" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A229" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B187" s="58" t="s">
+      <c r="B229" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C187" s="58" t="s">
+      <c r="C229" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D187" s="58" t="s">
+      <c r="D229" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E187" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F187" s="58" t="s">
+      <c r="E229" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F229" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G187" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H187" s="58"/>
-    </row>
-    <row r="188" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A188" s="58" t="s">
+      <c r="G229" s="65"/>
+      <c r="H229" s="65"/>
+    </row>
+    <row r="230" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A230" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B188" s="58" t="s">
+      <c r="B230" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="C230" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D188" s="58" t="s">
+      <c r="D230" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="E188" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F188" s="58" t="s">
+      <c r="E230" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G188" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H188" s="58"/>
-    </row>
-    <row r="189" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="58" t="s">
+      <c r="G230" s="65"/>
+      <c r="H230" s="65"/>
+    </row>
+    <row r="231" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A231" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B189" s="58" t="s">
+      <c r="B231" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C189" s="58" t="s">
+      <c r="C231" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D189" s="58" t="s">
+      <c r="D231" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="E189" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F189" s="58" t="s">
+      <c r="E231" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G189" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H189" s="58"/>
-    </row>
-    <row r="190" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A190" s="58" t="s">
+      <c r="G231" s="65"/>
+      <c r="H231" s="65"/>
+    </row>
+    <row r="232" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A232" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B190" s="58" t="s">
+      <c r="B232" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C190" s="58" t="s">
+      <c r="C232" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D190" s="58" t="s">
+      <c r="D232" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="E190" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F190" s="58" t="s">
+      <c r="E232" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G190" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H190" s="58"/>
-    </row>
-    <row r="191" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="58" t="s">
+      <c r="G232" s="65"/>
+      <c r="H232" s="65"/>
+    </row>
+    <row r="233" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B191" s="58" t="s">
+      <c r="B233" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C191" s="58" t="s">
+      <c r="C233" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D191" s="58" t="s">
+      <c r="D233" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="E191" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F191" s="58" t="s">
+      <c r="E233" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G191" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H191" s="58"/>
-    </row>
-    <row r="192" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A192" s="58" t="s">
+      <c r="G233" s="65"/>
+      <c r="H233" s="65"/>
+    </row>
+    <row r="234" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A234" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B192" s="58" t="s">
+      <c r="B234" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="58" t="s">
+      <c r="C234" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D192" s="58" t="s">
+      <c r="D234" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="E192" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F192" s="58" t="s">
+      <c r="E234" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G192" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H192" s="58"/>
-    </row>
-    <row r="193" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A193" s="58" t="s">
+      <c r="G234" s="65"/>
+      <c r="H234" s="65"/>
+    </row>
+    <row r="235" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A235" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B193" s="58" t="s">
+      <c r="B235" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C193" s="58" t="s">
+      <c r="C235" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D193" s="58" t="s">
+      <c r="D235" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="E193" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F193" s="58" t="s">
+      <c r="E235" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G193" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H193" s="58"/>
-    </row>
-    <row r="194" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A194" s="58" t="s">
+      <c r="G235" s="65"/>
+      <c r="H235" s="65"/>
+    </row>
+    <row r="236" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A236" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B194" s="58" t="s">
+      <c r="B236" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C194" s="58" t="s">
+      <c r="C236" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D194" s="58" t="s">
+      <c r="D236" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E194" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F194" s="58" t="s">
+      <c r="E236" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G194" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H194" s="58"/>
-    </row>
-    <row r="195" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A195" s="58" t="s">
+      <c r="G236" s="65"/>
+      <c r="H236" s="65"/>
+    </row>
+    <row r="237" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A237" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B237" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C195" s="58" t="s">
+      <c r="C237" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D195" s="58" t="s">
+      <c r="D237" s="65" t="s">
         <v>388</v>
       </c>
-      <c r="E195" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F195" s="58" t="s">
+      <c r="E237" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G195" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H195" s="58"/>
-    </row>
-    <row r="196" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A196" s="58" t="s">
+      <c r="G237" s="65"/>
+      <c r="H237" s="65"/>
+    </row>
+    <row r="238" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A238" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B196" s="58" t="s">
+      <c r="B238" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C196" s="58" t="s">
+      <c r="C238" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D196" s="58" t="s">
+      <c r="D238" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="E196" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F196" s="58" t="s">
+      <c r="E238" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F238" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G196" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H196" s="58"/>
-    </row>
-    <row r="197" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A197" s="58" t="s">
+      <c r="G238" s="65"/>
+      <c r="H238" s="65"/>
+    </row>
+    <row r="239" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A239" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B197" s="58" t="s">
+      <c r="B239" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C197" s="58" t="s">
+      <c r="C239" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D197" s="58" t="s">
+      <c r="D239" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="E197" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F197" s="58" t="s">
+      <c r="E239" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G197" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H197" s="58"/>
-    </row>
-    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A198" s="58" t="s">
+      <c r="G239" s="65"/>
+      <c r="H239" s="65"/>
+    </row>
+    <row r="240" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A240" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B198" s="58" t="s">
+      <c r="B240" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C198" s="58" t="s">
+      <c r="C240" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D198" s="58" t="s">
+      <c r="D240" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="E198" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F198" s="58" t="s">
+      <c r="E240" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G198" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H198" s="58"/>
-    </row>
-    <row r="199" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A199" s="58" t="s">
+      <c r="G240" s="65"/>
+      <c r="H240" s="65"/>
+    </row>
+    <row r="241" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A241" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B199" s="58" t="s">
+      <c r="B241" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C199" s="58" t="s">
+      <c r="C241" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D199" s="58" t="s">
+      <c r="D241" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="E199" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F199" s="58" t="s">
+      <c r="E241" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G199" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H199" s="58"/>
-    </row>
-    <row r="200" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A200" s="58" t="s">
+      <c r="G241" s="65"/>
+      <c r="H241" s="65"/>
+    </row>
+    <row r="242" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A242" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B200" s="58" t="s">
+      <c r="B242" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C200" s="58" t="s">
+      <c r="C242" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D200" s="58" t="s">
+      <c r="D242" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="E200" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F200" s="58" t="s">
+      <c r="E242" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F242" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G200" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H200" s="58"/>
-    </row>
-    <row r="201" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A201" s="58" t="s">
+      <c r="G242" s="65"/>
+      <c r="H242" s="65"/>
+    </row>
+    <row r="243" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A243" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B201" s="58" t="s">
+      <c r="B243" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C201" s="58" t="s">
+      <c r="C243" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D201" s="58" t="s">
+      <c r="D243" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="E201" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F201" s="58" t="s">
+      <c r="E243" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G201" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H201" s="58"/>
-    </row>
-    <row r="202" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A202" s="58" t="s">
+      <c r="G243" s="65"/>
+      <c r="H243" s="65"/>
+    </row>
+    <row r="244" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A244" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B202" s="58" t="s">
+      <c r="B244" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C202" s="58" t="s">
+      <c r="C244" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D202" s="58" t="s">
+      <c r="D244" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="E202" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F202" s="58" t="s">
+      <c r="E244" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F244" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G202" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H202" s="58"/>
-    </row>
-    <row r="203" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A203" s="58" t="s">
+      <c r="G244" s="65"/>
+      <c r="H244" s="65"/>
+    </row>
+    <row r="245" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A245" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B203" s="58" t="s">
+      <c r="B245" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C203" s="58" t="s">
+      <c r="C245" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D203" s="58" t="s">
+      <c r="D245" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="E203" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F203" s="58" t="s">
+      <c r="E245" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G203" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H203" s="58"/>
-    </row>
-    <row r="204" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A204" s="58" t="s">
+      <c r="G245" s="65"/>
+      <c r="H245" s="65"/>
+    </row>
+    <row r="246" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A246" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B204" s="58" t="s">
+      <c r="B246" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C204" s="58" t="s">
+      <c r="C246" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D204" s="58" t="s">
+      <c r="D246" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="E204" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F204" s="58" t="s">
+      <c r="E246" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G204" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H204" s="58"/>
-    </row>
-    <row r="205" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A205" s="58" t="s">
+      <c r="G246" s="65"/>
+      <c r="H246" s="65"/>
+    </row>
+    <row r="247" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A247" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B205" s="58" t="s">
+      <c r="B247" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="58" t="s">
+      <c r="C247" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D205" s="58" t="s">
+      <c r="D247" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="E205" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F205" s="58" t="s">
+      <c r="E247" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G205" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H205" s="58"/>
-    </row>
-    <row r="206" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A206" s="58" t="s">
+      <c r="G247" s="65"/>
+      <c r="H247" s="65"/>
+    </row>
+    <row r="248" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A248" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B206" s="58" t="s">
+      <c r="B248" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C206" s="58" t="s">
+      <c r="C248" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D206" s="58" t="s">
+      <c r="D248" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="E206" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F206" s="58" t="s">
+      <c r="E248" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G206" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H206" s="58"/>
-    </row>
-    <row r="207" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A207" s="58" t="s">
+      <c r="G248" s="65"/>
+      <c r="H248" s="65"/>
+    </row>
+    <row r="249" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A249" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B207" s="58" t="s">
+      <c r="B249" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C207" s="58" t="s">
+      <c r="C249" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D207" s="58" t="s">
+      <c r="D249" s="65" t="s">
         <v>400</v>
       </c>
-      <c r="E207" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F207" s="58" t="s">
+      <c r="E249" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G207" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H207" s="58"/>
-    </row>
-    <row r="208" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A208" s="58" t="s">
+      <c r="G249" s="65"/>
+      <c r="H249" s="65"/>
+    </row>
+    <row r="250" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A250" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B208" s="58" t="s">
+      <c r="B250" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="58" t="s">
+      <c r="C250" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D208" s="58" t="s">
+      <c r="D250" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="E208" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F208" s="58" t="s">
+      <c r="E250" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G208" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H208" s="58"/>
-    </row>
-    <row r="209" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A209" s="58" t="s">
+      <c r="G250" s="65"/>
+      <c r="H250" s="65"/>
+    </row>
+    <row r="251" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A251" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B209" s="58" t="s">
+      <c r="B251" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C209" s="58" t="s">
+      <c r="C251" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D209" s="58" t="s">
+      <c r="D251" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="E209" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F209" s="58" t="s">
+      <c r="E251" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G209" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H209" s="58"/>
-    </row>
-    <row r="210" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A210" s="58" t="s">
+      <c r="G251" s="65"/>
+      <c r="H251" s="65"/>
+    </row>
+    <row r="252" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A252" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B210" s="58" t="s">
+      <c r="B252" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C210" s="58" t="s">
+      <c r="C252" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D210" s="58" t="s">
+      <c r="D252" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="E210" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F210" s="58" t="s">
+      <c r="E252" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G210" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H210" s="58"/>
-    </row>
-    <row r="211" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="58" t="s">
+      <c r="G252" s="65"/>
+      <c r="H252" s="65"/>
+    </row>
+    <row r="253" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A253" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B211" s="58" t="s">
+      <c r="B253" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C211" s="58" t="s">
+      <c r="C253" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D211" s="58" t="s">
+      <c r="D253" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="E211" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F211" s="58" t="s">
+      <c r="E253" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G211" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H211" s="58"/>
+      <c r="G253" s="65"/>
+      <c r="H253" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A170:H170"/>
+  <autoFilter ref="A1:H253" xr:uid="{F7660AB4-0AA7-45F2-9870-2C5FAAAEA767}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A212:H212"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A170:H170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDEC79-62CB-46C4-9B1E-14D968AA1300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B360E2E-55C2-40E6-A1FA-C163F48B859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-960" yWindow="1095" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="431">
   <si>
     <t>测试项</t>
   </si>
@@ -1502,6 +1502,11 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
+预览画面放大1.3倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3415,7 +3420,7 @@
   <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3562,7 +3567,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B360E2E-55C2-40E6-A1FA-C163F48B859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95AB251-E130-4731-B8D5-6B879171E41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="1095" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
     <sheet name="数码变焦case自动化部分" sheetId="5" r:id="rId2"/>
     <sheet name="大纲" sheetId="2" r:id="rId3"/>
-    <sheet name="分辨率对应表" sheetId="3" r:id="rId4"/>
+    <sheet name="分辨率对应表-NotAvailable" sheetId="3" r:id="rId4"/>
     <sheet name="修改记录" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -3419,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7660AB4-0AA7-45F2-9870-2C5FAAAEA767}">
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9370,8 +9370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D545E-BA7E-427D-9736-C4763E12D214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785CF5B-5D17-4ED3-B2F0-C7B0133EB352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="414">
   <si>
     <t>测试项</t>
   </si>
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3187,9 +3187,7 @@
       <c r="F2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785CF5B-5D17-4ED3-B2F0-C7B0133EB352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2336D81-F0DC-4ABF-B962-88D725599546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="414">
   <si>
     <t>测试项</t>
   </si>
@@ -1602,12 +1602,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,20 +1609,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1994,8 +1994,8 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="12" width="9" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="10" max="13" width="9" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2011,16 +2011,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2028,10 +2028,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2043,7 +2043,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2055,8 +2055,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2078,8 +2078,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2101,10 +2101,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2116,7 +2116,7 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2128,8 +2128,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2154,10 +2154,10 @@
       <c r="A7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2166,7 +2166,7 @@
       <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2178,16 +2178,16 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2199,9 +2199,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2210,7 +2210,7 @@
       <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2222,16 +2222,16 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2243,8 +2243,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2256,7 +2256,7 @@
       <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2268,8 +2268,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2294,10 +2294,10 @@
       <c r="A13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2306,7 +2306,7 @@
       <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2318,16 +2318,16 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2339,9 +2339,9 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2350,7 +2350,7 @@
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2362,16 +2362,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2383,8 +2383,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2396,7 +2396,7 @@
       <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2408,8 +2408,8 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2434,10 +2434,10 @@
       <c r="A19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2446,7 +2446,7 @@
       <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2458,16 +2458,16 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2479,9 +2479,9 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2490,7 +2490,7 @@
       <c r="E21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2502,16 +2502,16 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2523,8 +2523,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2536,7 +2536,7 @@
       <c r="E23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2548,8 +2548,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="E24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2574,10 +2574,10 @@
       <c r="A25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2586,7 +2586,7 @@
       <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2598,16 +2598,16 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2619,9 +2619,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="33" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -2630,7 +2630,7 @@
       <c r="E27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2642,16 +2642,16 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2663,8 +2663,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2676,7 +2676,7 @@
       <c r="E29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2688,8 +2688,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2714,10 +2714,10 @@
       <c r="A31" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2726,7 +2726,7 @@
       <c r="E31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2738,16 +2738,16 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="33" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2770,7 +2770,7 @@
       <c r="E33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2782,16 +2782,16 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -2803,8 +2803,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2816,7 +2816,7 @@
       <c r="E35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2828,8 +2828,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="E36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2854,10 +2854,10 @@
       <c r="A37" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2866,7 +2866,7 @@
       <c r="E37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2878,16 +2878,16 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -2899,9 +2899,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -2910,7 +2910,7 @@
       <c r="E39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -2922,16 +2922,16 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -2943,8 +2943,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2956,7 +2956,7 @@
       <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -2968,8 +2968,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="6" t="s">
         <v>44</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="E42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3006,7 +3006,7 @@
       <c r="E43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3018,7 +3018,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3033,7 +3033,7 @@
       <c r="E44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3045,7 +3045,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="E45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3072,26 +3072,6 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3107,6 +3087,26 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3297,7 +3297,9 @@
       <c r="F7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,7 +4994,7 @@
         <v>69</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="24"/>
+      <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
@@ -5014,7 +5016,7 @@
         <v>72</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="24"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
@@ -5036,7 +5038,7 @@
         <v>75</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="24"/>
+      <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
@@ -5058,7 +5060,7 @@
         <v>78</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="24"/>
+      <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
@@ -5080,7 +5082,7 @@
         <v>81</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="24"/>
+      <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
@@ -5102,7 +5104,7 @@
         <v>84</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="24"/>
+      <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
@@ -5124,7 +5126,7 @@
         <v>87</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="24"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
@@ -5146,7 +5148,7 @@
         <v>90</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="24"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
@@ -5168,7 +5170,7 @@
         <v>93</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="24"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
@@ -5190,7 +5192,7 @@
         <v>96</v>
       </c>
       <c r="G93" s="21"/>
-      <c r="H93" s="24"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
@@ -5212,7 +5214,7 @@
         <v>99</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="24"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
@@ -5234,7 +5236,7 @@
         <v>102</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="24"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
@@ -5256,7 +5258,7 @@
         <v>105</v>
       </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="24"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
@@ -5278,7 +5280,7 @@
         <v>108</v>
       </c>
       <c r="G97" s="21"/>
-      <c r="H97" s="24"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
@@ -5300,7 +5302,7 @@
         <v>111</v>
       </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="24"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -5322,7 +5324,7 @@
         <v>114</v>
       </c>
       <c r="G99" s="21"/>
-      <c r="H99" s="24"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
@@ -5344,7 +5346,7 @@
         <v>117</v>
       </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="24"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
@@ -5366,7 +5368,7 @@
         <v>120</v>
       </c>
       <c r="G101" s="21"/>
-      <c r="H101" s="24"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
@@ -5388,7 +5390,7 @@
         <v>123</v>
       </c>
       <c r="G102" s="21"/>
-      <c r="H102" s="24"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
@@ -5410,7 +5412,7 @@
         <v>126</v>
       </c>
       <c r="G103" s="21"/>
-      <c r="H103" s="24"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
@@ -5432,7 +5434,7 @@
         <v>129</v>
       </c>
       <c r="G104" s="21"/>
-      <c r="H104" s="24"/>
+      <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
@@ -5454,7 +5456,7 @@
         <v>123</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="24"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -5476,7 +5478,7 @@
         <v>120</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="24"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
@@ -5498,7 +5500,7 @@
         <v>117</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="24"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
@@ -5520,7 +5522,7 @@
         <v>114</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="24"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
@@ -5542,7 +5544,7 @@
         <v>111</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="24"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
@@ -5564,7 +5566,7 @@
         <v>108</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="24"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
@@ -5586,7 +5588,7 @@
         <v>105</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="24"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
@@ -5608,7 +5610,7 @@
         <v>102</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="24"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
@@ -5630,7 +5632,7 @@
         <v>149</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="24"/>
+      <c r="H113" s="26"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
@@ -5652,7 +5654,7 @@
         <v>96</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="24"/>
+      <c r="H114" s="26"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
@@ -5674,7 +5676,7 @@
         <v>93</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="24"/>
+      <c r="H115" s="26"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
@@ -5696,7 +5698,7 @@
         <v>90</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="24"/>
+      <c r="H116" s="26"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
@@ -5718,7 +5720,7 @@
         <v>87</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="24"/>
+      <c r="H117" s="26"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
@@ -5740,7 +5742,7 @@
         <v>84</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="24"/>
+      <c r="H118" s="26"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
@@ -5762,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="24"/>
+      <c r="H119" s="26"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
@@ -5784,7 +5786,7 @@
         <v>78</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="24"/>
+      <c r="H120" s="26"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
@@ -5806,7 +5808,7 @@
         <v>75</v>
       </c>
       <c r="G121" s="21"/>
-      <c r="H121" s="24"/>
+      <c r="H121" s="26"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
@@ -5828,7 +5830,7 @@
         <v>72</v>
       </c>
       <c r="G122" s="21"/>
-      <c r="H122" s="24"/>
+      <c r="H122" s="26"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
@@ -5850,7 +5852,7 @@
         <v>170</v>
       </c>
       <c r="G123" s="21"/>
-      <c r="H123" s="24"/>
+      <c r="H123" s="26"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
@@ -5872,7 +5874,7 @@
         <v>69</v>
       </c>
       <c r="G124" s="21"/>
-      <c r="H124" s="24"/>
+      <c r="H124" s="26"/>
     </row>
     <row r="125" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
@@ -5894,7 +5896,7 @@
         <v>69</v>
       </c>
       <c r="G125" s="21"/>
-      <c r="H125" s="24"/>
+      <c r="H125" s="26"/>
     </row>
     <row r="126" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
@@ -5916,7 +5918,7 @@
         <v>72</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="24"/>
+      <c r="H126" s="26"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
@@ -5938,7 +5940,7 @@
         <v>75</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="24"/>
+      <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
@@ -5960,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="G128" s="21"/>
-      <c r="H128" s="24"/>
+      <c r="H128" s="26"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
@@ -5982,7 +5984,7 @@
         <v>81</v>
       </c>
       <c r="G129" s="21"/>
-      <c r="H129" s="24"/>
+      <c r="H129" s="26"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
@@ -6004,7 +6006,7 @@
         <v>84</v>
       </c>
       <c r="G130" s="21"/>
-      <c r="H130" s="24"/>
+      <c r="H130" s="26"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
@@ -6026,7 +6028,7 @@
         <v>87</v>
       </c>
       <c r="G131" s="21"/>
-      <c r="H131" s="24"/>
+      <c r="H131" s="26"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
@@ -6048,7 +6050,7 @@
         <v>90</v>
       </c>
       <c r="G132" s="21"/>
-      <c r="H132" s="24"/>
+      <c r="H132" s="26"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
@@ -6070,7 +6072,7 @@
         <v>93</v>
       </c>
       <c r="G133" s="21"/>
-      <c r="H133" s="24"/>
+      <c r="H133" s="26"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
@@ -6092,7 +6094,7 @@
         <v>96</v>
       </c>
       <c r="G134" s="21"/>
-      <c r="H134" s="24"/>
+      <c r="H134" s="26"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
@@ -6114,7 +6116,7 @@
         <v>99</v>
       </c>
       <c r="G135" s="21"/>
-      <c r="H135" s="24"/>
+      <c r="H135" s="26"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
@@ -6136,7 +6138,7 @@
         <v>102</v>
       </c>
       <c r="G136" s="21"/>
-      <c r="H136" s="24"/>
+      <c r="H136" s="26"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
@@ -6158,7 +6160,7 @@
         <v>105</v>
       </c>
       <c r="G137" s="21"/>
-      <c r="H137" s="24"/>
+      <c r="H137" s="26"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
@@ -6180,7 +6182,7 @@
         <v>108</v>
       </c>
       <c r="G138" s="21"/>
-      <c r="H138" s="24"/>
+      <c r="H138" s="26"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
@@ -6202,7 +6204,7 @@
         <v>111</v>
       </c>
       <c r="G139" s="21"/>
-      <c r="H139" s="24"/>
+      <c r="H139" s="26"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
@@ -6224,7 +6226,7 @@
         <v>114</v>
       </c>
       <c r="G140" s="21"/>
-      <c r="H140" s="24"/>
+      <c r="H140" s="26"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
@@ -6246,7 +6248,7 @@
         <v>117</v>
       </c>
       <c r="G141" s="21"/>
-      <c r="H141" s="24"/>
+      <c r="H141" s="26"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
@@ -6268,7 +6270,7 @@
         <v>120</v>
       </c>
       <c r="G142" s="21"/>
-      <c r="H142" s="24"/>
+      <c r="H142" s="26"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
@@ -6290,7 +6292,7 @@
         <v>123</v>
       </c>
       <c r="G143" s="21"/>
-      <c r="H143" s="24"/>
+      <c r="H143" s="26"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
@@ -6312,7 +6314,7 @@
         <v>126</v>
       </c>
       <c r="G144" s="21"/>
-      <c r="H144" s="24"/>
+      <c r="H144" s="26"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
@@ -6334,7 +6336,7 @@
         <v>129</v>
       </c>
       <c r="G145" s="21"/>
-      <c r="H145" s="24"/>
+      <c r="H145" s="26"/>
     </row>
     <row r="146" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
@@ -6356,7 +6358,7 @@
         <v>123</v>
       </c>
       <c r="G146" s="21"/>
-      <c r="H146" s="24"/>
+      <c r="H146" s="26"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
@@ -6378,7 +6380,7 @@
         <v>120</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="24"/>
+      <c r="H147" s="26"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
@@ -6400,7 +6402,7 @@
         <v>117</v>
       </c>
       <c r="G148" s="21"/>
-      <c r="H148" s="24"/>
+      <c r="H148" s="26"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
@@ -6422,7 +6424,7 @@
         <v>114</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="H149" s="24"/>
+      <c r="H149" s="26"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
@@ -6444,7 +6446,7 @@
         <v>111</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="H150" s="24"/>
+      <c r="H150" s="26"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
@@ -6466,7 +6468,7 @@
         <v>108</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="H151" s="24"/>
+      <c r="H151" s="26"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
@@ -6488,7 +6490,7 @@
         <v>105</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="H152" s="24"/>
+      <c r="H152" s="26"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
@@ -6510,7 +6512,7 @@
         <v>102</v>
       </c>
       <c r="G153" s="21"/>
-      <c r="H153" s="24"/>
+      <c r="H153" s="26"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
@@ -6532,7 +6534,7 @@
         <v>149</v>
       </c>
       <c r="G154" s="21"/>
-      <c r="H154" s="24"/>
+      <c r="H154" s="26"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
@@ -6554,7 +6556,7 @@
         <v>96</v>
       </c>
       <c r="G155" s="21"/>
-      <c r="H155" s="24"/>
+      <c r="H155" s="26"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
@@ -6576,7 +6578,7 @@
         <v>93</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="24"/>
+      <c r="H156" s="26"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
@@ -6598,7 +6600,7 @@
         <v>90</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="24"/>
+      <c r="H157" s="26"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
@@ -6620,7 +6622,7 @@
         <v>87</v>
       </c>
       <c r="G158" s="21"/>
-      <c r="H158" s="24"/>
+      <c r="H158" s="26"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
@@ -6642,7 +6644,7 @@
         <v>84</v>
       </c>
       <c r="G159" s="21"/>
-      <c r="H159" s="24"/>
+      <c r="H159" s="26"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
@@ -6664,7 +6666,7 @@
         <v>81</v>
       </c>
       <c r="G160" s="21"/>
-      <c r="H160" s="24"/>
+      <c r="H160" s="26"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
@@ -6686,7 +6688,7 @@
         <v>78</v>
       </c>
       <c r="G161" s="21"/>
-      <c r="H161" s="24"/>
+      <c r="H161" s="26"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
@@ -6708,7 +6710,7 @@
         <v>75</v>
       </c>
       <c r="G162" s="21"/>
-      <c r="H162" s="24"/>
+      <c r="H162" s="26"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
@@ -6730,7 +6732,7 @@
         <v>72</v>
       </c>
       <c r="G163" s="21"/>
-      <c r="H163" s="24"/>
+      <c r="H163" s="26"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
@@ -6752,7 +6754,7 @@
         <v>170</v>
       </c>
       <c r="G164" s="21"/>
-      <c r="H164" s="24"/>
+      <c r="H164" s="26"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
@@ -6774,7 +6776,7 @@
         <v>69</v>
       </c>
       <c r="G165" s="21"/>
-      <c r="H165" s="24"/>
+      <c r="H165" s="26"/>
     </row>
     <row r="166" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
@@ -8615,10 +8617,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -8626,8 +8628,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
@@ -8644,314 +8646,314 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="6" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="34" t="s">
+      <c r="A45" s="32"/>
+      <c r="B45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="33" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="32"/>
+      <c r="B49" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -8959,8 +8961,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="6" t="s">
         <v>44</v>
       </c>
@@ -9046,7 +9048,7 @@
       <c r="F2" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="28" t="s">
         <v>395</v>
       </c>
@@ -9062,7 +9064,7 @@
       <c r="L2" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="28" t="s">
         <v>395</v>
       </c>
@@ -9105,7 +9107,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -9124,7 +9126,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="30"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -9170,7 +9172,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -9189,7 +9191,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="30"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -9235,7 +9237,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -9254,7 +9256,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -9300,7 +9302,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -9319,7 +9321,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -9365,7 +9367,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -9384,7 +9386,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -9430,7 +9432,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -9449,7 +9451,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -9495,7 +9497,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -9514,7 +9516,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -9560,7 +9562,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -9579,7 +9581,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="30"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -9625,7 +9627,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -9644,7 +9646,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="30"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -9690,7 +9692,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -9709,7 +9711,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="30"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -9755,7 +9757,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -9774,7 +9776,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="30"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -9820,7 +9822,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -9839,7 +9841,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="30"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -9885,7 +9887,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -9904,7 +9906,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="30"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -9950,7 +9952,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -9969,7 +9971,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="30"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10015,7 +10017,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10034,7 +10036,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="30"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10080,7 +10082,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -10099,7 +10101,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -10145,7 +10147,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -10164,7 +10166,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="30"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -10210,7 +10212,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -10229,7 +10231,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -10275,7 +10277,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -10294,7 +10296,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -10340,7 +10342,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -10359,7 +10361,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="30"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -10405,7 +10407,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -10424,7 +10426,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -10478,8 +10480,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="8" width="9" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="6" max="9" width="9" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6041678-6B6B-4EB2-B2A3-4ED1484F6C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC101C0-4BB2-4686-B360-1E3EC84C06CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3870,11 +3870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3937,7 +3936,7 @@
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3959,7 +3958,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4003,7 +4002,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4025,7 +4024,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4049,7 +4048,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4137,7 +4136,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4181,7 +4180,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4203,7 +4202,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4225,7 +4224,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4247,7 +4246,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4269,7 +4268,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4291,7 +4290,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -4379,7 +4378,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -4401,7 +4400,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -4445,7 +4444,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -4467,7 +4466,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -4489,7 +4488,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -4511,7 +4510,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -4533,7 +4532,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -4555,7 +4554,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -4577,7 +4576,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -4599,7 +4598,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -4621,7 +4620,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -4643,7 +4642,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -4687,7 +4686,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -4709,7 +4708,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -4731,7 +4730,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -4775,7 +4774,7 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -4841,7 +4840,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -4863,7 +4862,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -4885,7 +4884,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -4907,7 +4906,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -4929,7 +4928,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -4951,7 +4950,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -4995,7 +4994,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -5039,7 +5038,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
     </row>
-    <row r="53" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -5061,7 +5060,7 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -5083,7 +5082,7 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
     </row>
-    <row r="55" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -5105,7 +5104,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
     </row>
-    <row r="57" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -5149,7 +5148,7 @@
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
     </row>
-    <row r="58" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -5171,7 +5170,7 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
     </row>
-    <row r="59" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -5193,7 +5192,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -5215,7 +5214,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -5237,7 +5236,7 @@
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -5281,7 +5280,7 @@
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -5303,7 +5302,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -5325,7 +5324,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
     </row>
-    <row r="66" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -5347,7 +5346,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -5369,7 +5368,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -5413,7 +5412,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -5435,7 +5434,7 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
     </row>
-    <row r="71" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -5457,7 +5456,7 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -5479,7 +5478,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -5501,7 +5500,7 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -5523,7 +5522,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
     </row>
-    <row r="76" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -5567,7 +5566,7 @@
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -5589,7 +5588,7 @@
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
     </row>
-    <row r="78" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -5611,7 +5610,7 @@
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
     </row>
-    <row r="79" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -5633,7 +5632,7 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -5655,7 +5654,7 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
     </row>
-    <row r="81" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -5677,7 +5676,7 @@
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -5743,7 +5742,7 @@
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
     </row>
-    <row r="85" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -5765,7 +5764,7 @@
       <c r="G85" s="21"/>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -5787,7 +5786,7 @@
       <c r="G86" s="21"/>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -5809,7 +5808,7 @@
       <c r="G87" s="21"/>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -5831,7 +5830,7 @@
       <c r="G88" s="21"/>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -5853,7 +5852,7 @@
       <c r="G89" s="21"/>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -5875,7 +5874,7 @@
       <c r="G90" s="21"/>
       <c r="H90" s="27"/>
     </row>
-    <row r="91" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -5897,7 +5896,7 @@
       <c r="G91" s="21"/>
       <c r="H91" s="27"/>
     </row>
-    <row r="92" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -5919,7 +5918,7 @@
       <c r="G92" s="21"/>
       <c r="H92" s="27"/>
     </row>
-    <row r="93" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -5941,7 +5940,7 @@
       <c r="G93" s="21"/>
       <c r="H93" s="27"/>
     </row>
-    <row r="94" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -5963,7 +5962,7 @@
       <c r="G94" s="21"/>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -5985,7 +5984,7 @@
       <c r="G95" s="21"/>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -6007,7 +6006,7 @@
       <c r="G96" s="21"/>
       <c r="H96" s="27"/>
     </row>
-    <row r="97" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -6029,7 +6028,7 @@
       <c r="G97" s="21"/>
       <c r="H97" s="27"/>
     </row>
-    <row r="98" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -6051,7 +6050,7 @@
       <c r="G98" s="21"/>
       <c r="H98" s="27"/>
     </row>
-    <row r="99" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -6073,7 +6072,7 @@
       <c r="G99" s="21"/>
       <c r="H99" s="27"/>
     </row>
-    <row r="100" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -6095,7 +6094,7 @@
       <c r="G100" s="21"/>
       <c r="H100" s="27"/>
     </row>
-    <row r="101" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -6117,7 +6116,7 @@
       <c r="G101" s="21"/>
       <c r="H101" s="27"/>
     </row>
-    <row r="102" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -6139,7 +6138,7 @@
       <c r="G102" s="21"/>
       <c r="H102" s="27"/>
     </row>
-    <row r="103" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -6183,7 +6182,7 @@
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
     </row>
-    <row r="105" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -6205,7 +6204,7 @@
       <c r="G105" s="21"/>
       <c r="H105" s="27"/>
     </row>
-    <row r="106" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -6227,7 +6226,7 @@
       <c r="G106" s="21"/>
       <c r="H106" s="27"/>
     </row>
-    <row r="107" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -6249,7 +6248,7 @@
       <c r="G107" s="21"/>
       <c r="H107" s="27"/>
     </row>
-    <row r="108" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -6271,7 +6270,7 @@
       <c r="G108" s="21"/>
       <c r="H108" s="27"/>
     </row>
-    <row r="109" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -6293,7 +6292,7 @@
       <c r="G109" s="21"/>
       <c r="H109" s="27"/>
     </row>
-    <row r="110" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="G110" s="21"/>
       <c r="H110" s="27"/>
     </row>
-    <row r="111" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -6337,7 +6336,7 @@
       <c r="G111" s="21"/>
       <c r="H111" s="27"/>
     </row>
-    <row r="112" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -6359,7 +6358,7 @@
       <c r="G112" s="21"/>
       <c r="H112" s="27"/>
     </row>
-    <row r="113" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -6381,7 +6380,7 @@
       <c r="G113" s="21"/>
       <c r="H113" s="27"/>
     </row>
-    <row r="114" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -6403,7 +6402,7 @@
       <c r="G114" s="21"/>
       <c r="H114" s="27"/>
     </row>
-    <row r="115" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -6425,7 +6424,7 @@
       <c r="G115" s="21"/>
       <c r="H115" s="27"/>
     </row>
-    <row r="116" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -6447,7 +6446,7 @@
       <c r="G116" s="21"/>
       <c r="H116" s="27"/>
     </row>
-    <row r="117" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -6469,7 +6468,7 @@
       <c r="G117" s="21"/>
       <c r="H117" s="27"/>
     </row>
-    <row r="118" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -6491,7 +6490,7 @@
       <c r="G118" s="21"/>
       <c r="H118" s="27"/>
     </row>
-    <row r="119" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -6513,7 +6512,7 @@
       <c r="G119" s="21"/>
       <c r="H119" s="27"/>
     </row>
-    <row r="120" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -6535,7 +6534,7 @@
       <c r="G120" s="21"/>
       <c r="H120" s="27"/>
     </row>
-    <row r="121" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -6557,7 +6556,7 @@
       <c r="G121" s="21"/>
       <c r="H121" s="27"/>
     </row>
-    <row r="122" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -6579,7 +6578,7 @@
       <c r="G122" s="21"/>
       <c r="H122" s="27"/>
     </row>
-    <row r="123" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
     </row>
-    <row r="126" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -6667,7 +6666,7 @@
       <c r="G126" s="21"/>
       <c r="H126" s="27"/>
     </row>
-    <row r="127" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -6689,7 +6688,7 @@
       <c r="G127" s="21"/>
       <c r="H127" s="27"/>
     </row>
-    <row r="128" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -6711,7 +6710,7 @@
       <c r="G128" s="21"/>
       <c r="H128" s="27"/>
     </row>
-    <row r="129" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -6733,7 +6732,7 @@
       <c r="G129" s="21"/>
       <c r="H129" s="27"/>
     </row>
-    <row r="130" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="G130" s="21"/>
       <c r="H130" s="27"/>
     </row>
-    <row r="131" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -6777,7 +6776,7 @@
       <c r="G131" s="21"/>
       <c r="H131" s="27"/>
     </row>
-    <row r="132" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -6799,7 +6798,7 @@
       <c r="G132" s="21"/>
       <c r="H132" s="27"/>
     </row>
-    <row r="133" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -6821,7 +6820,7 @@
       <c r="G133" s="21"/>
       <c r="H133" s="27"/>
     </row>
-    <row r="134" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -6843,7 +6842,7 @@
       <c r="G134" s="21"/>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -6865,7 +6864,7 @@
       <c r="G135" s="21"/>
       <c r="H135" s="27"/>
     </row>
-    <row r="136" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -6887,7 +6886,7 @@
       <c r="G136" s="21"/>
       <c r="H136" s="27"/>
     </row>
-    <row r="137" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -6909,7 +6908,7 @@
       <c r="G137" s="21"/>
       <c r="H137" s="27"/>
     </row>
-    <row r="138" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -6931,7 +6930,7 @@
       <c r="G138" s="21"/>
       <c r="H138" s="27"/>
     </row>
-    <row r="139" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="G139" s="21"/>
       <c r="H139" s="27"/>
     </row>
-    <row r="140" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -6975,7 +6974,7 @@
       <c r="G140" s="21"/>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>140</v>
       </c>
@@ -6997,7 +6996,7 @@
       <c r="G141" s="21"/>
       <c r="H141" s="27"/>
     </row>
-    <row r="142" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>141</v>
       </c>
@@ -7019,7 +7018,7 @@
       <c r="G142" s="21"/>
       <c r="H142" s="27"/>
     </row>
-    <row r="143" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>142</v>
       </c>
@@ -7041,7 +7040,7 @@
       <c r="G143" s="21"/>
       <c r="H143" s="27"/>
     </row>
-    <row r="144" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
         <v>143</v>
       </c>
@@ -7085,7 +7084,7 @@
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>145</v>
       </c>
@@ -7107,7 +7106,7 @@
       <c r="G146" s="21"/>
       <c r="H146" s="27"/>
     </row>
-    <row r="147" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>146</v>
       </c>
@@ -7129,7 +7128,7 @@
       <c r="G147" s="21"/>
       <c r="H147" s="27"/>
     </row>
-    <row r="148" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>147</v>
       </c>
@@ -7151,7 +7150,7 @@
       <c r="G148" s="21"/>
       <c r="H148" s="27"/>
     </row>
-    <row r="149" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>148</v>
       </c>
@@ -7173,7 +7172,7 @@
       <c r="G149" s="21"/>
       <c r="H149" s="27"/>
     </row>
-    <row r="150" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>149</v>
       </c>
@@ -7195,7 +7194,7 @@
       <c r="G150" s="21"/>
       <c r="H150" s="27"/>
     </row>
-    <row r="151" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>150</v>
       </c>
@@ -7217,7 +7216,7 @@
       <c r="G151" s="21"/>
       <c r="H151" s="27"/>
     </row>
-    <row r="152" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>151</v>
       </c>
@@ -7239,7 +7238,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="27"/>
     </row>
-    <row r="153" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>152</v>
       </c>
@@ -7261,7 +7260,7 @@
       <c r="G153" s="21"/>
       <c r="H153" s="27"/>
     </row>
-    <row r="154" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>153</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="G154" s="21"/>
       <c r="H154" s="27"/>
     </row>
-    <row r="155" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>154</v>
       </c>
@@ -7305,7 +7304,7 @@
       <c r="G155" s="21"/>
       <c r="H155" s="27"/>
     </row>
-    <row r="156" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>155</v>
       </c>
@@ -7327,7 +7326,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="27"/>
     </row>
-    <row r="157" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>156</v>
       </c>
@@ -7349,7 +7348,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="27"/>
     </row>
-    <row r="158" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>157</v>
       </c>
@@ -7371,7 +7370,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="27"/>
     </row>
-    <row r="159" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>158</v>
       </c>
@@ -7393,7 +7392,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="27"/>
     </row>
-    <row r="160" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>159</v>
       </c>
@@ -7415,7 +7414,7 @@
       <c r="G160" s="21"/>
       <c r="H160" s="27"/>
     </row>
-    <row r="161" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>160</v>
       </c>
@@ -7437,7 +7436,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="27"/>
     </row>
-    <row r="162" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
         <v>161</v>
       </c>
@@ -7459,7 +7458,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="27"/>
     </row>
-    <row r="163" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
         <v>162</v>
       </c>
@@ -7481,7 +7480,7 @@
       <c r="G163" s="21"/>
       <c r="H163" s="27"/>
     </row>
-    <row r="164" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>163</v>
       </c>
@@ -7547,7 +7546,7 @@
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
     </row>
-    <row r="167" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>166</v>
       </c>
@@ -7569,7 +7568,7 @@
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
     </row>
-    <row r="168" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>167</v>
       </c>
@@ -7591,7 +7590,7 @@
       <c r="G168" s="21"/>
       <c r="H168" s="21"/>
     </row>
-    <row r="169" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>168</v>
       </c>
@@ -7613,7 +7612,7 @@
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
     </row>
-    <row r="170" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>169</v>
       </c>
@@ -7635,7 +7634,7 @@
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
     </row>
-    <row r="171" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>170</v>
       </c>
@@ -7657,7 +7656,7 @@
       <c r="G171" s="21"/>
       <c r="H171" s="21"/>
     </row>
-    <row r="172" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>171</v>
       </c>
@@ -7679,7 +7678,7 @@
       <c r="G172" s="21"/>
       <c r="H172" s="21"/>
     </row>
-    <row r="173" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>172</v>
       </c>
@@ -7701,7 +7700,7 @@
       <c r="G173" s="21"/>
       <c r="H173" s="21"/>
     </row>
-    <row r="174" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>173</v>
       </c>
@@ -7723,7 +7722,7 @@
       <c r="G174" s="21"/>
       <c r="H174" s="21"/>
     </row>
-    <row r="175" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>174</v>
       </c>
@@ -7745,7 +7744,7 @@
       <c r="G175" s="21"/>
       <c r="H175" s="21"/>
     </row>
-    <row r="176" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>175</v>
       </c>
@@ -7767,7 +7766,7 @@
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
     </row>
-    <row r="177" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>176</v>
       </c>
@@ -7789,7 +7788,7 @@
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
     </row>
-    <row r="178" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>177</v>
       </c>
@@ -7811,7 +7810,7 @@
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
     </row>
-    <row r="179" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>178</v>
       </c>
@@ -7833,7 +7832,7 @@
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
     </row>
-    <row r="180" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>179</v>
       </c>
@@ -7855,7 +7854,7 @@
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
     </row>
-    <row r="181" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>180</v>
       </c>
@@ -7877,7 +7876,7 @@
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
     </row>
-    <row r="182" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>181</v>
       </c>
@@ -7899,7 +7898,7 @@
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
     </row>
-    <row r="183" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>182</v>
       </c>
@@ -7921,7 +7920,7 @@
       <c r="G183" s="21"/>
       <c r="H183" s="21"/>
     </row>
-    <row r="184" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>183</v>
       </c>
@@ -7943,7 +7942,7 @@
       <c r="G184" s="21"/>
       <c r="H184" s="21"/>
     </row>
-    <row r="185" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>184</v>
       </c>
@@ -7987,7 +7986,7 @@
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
     </row>
-    <row r="187" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>186</v>
       </c>
@@ -8009,7 +8008,7 @@
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
     </row>
-    <row r="188" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>187</v>
       </c>
@@ -8031,7 +8030,7 @@
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
     </row>
-    <row r="189" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>188</v>
       </c>
@@ -8053,7 +8052,7 @@
       <c r="G189" s="21"/>
       <c r="H189" s="21"/>
     </row>
-    <row r="190" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>189</v>
       </c>
@@ -8075,7 +8074,7 @@
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
     </row>
-    <row r="191" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>190</v>
       </c>
@@ -8097,7 +8096,7 @@
       <c r="G191" s="21"/>
       <c r="H191" s="21"/>
     </row>
-    <row r="192" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>191</v>
       </c>
@@ -8119,7 +8118,7 @@
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
     </row>
-    <row r="193" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>192</v>
       </c>
@@ -8141,7 +8140,7 @@
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
     </row>
-    <row r="194" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -8163,7 +8162,7 @@
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
     </row>
-    <row r="195" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>194</v>
       </c>
@@ -8185,7 +8184,7 @@
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
     </row>
-    <row r="196" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>195</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
     </row>
-    <row r="197" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>196</v>
       </c>
@@ -8229,7 +8228,7 @@
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
     </row>
-    <row r="198" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>197</v>
       </c>
@@ -8251,7 +8250,7 @@
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
     </row>
-    <row r="199" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="21">
         <v>198</v>
       </c>
@@ -8273,7 +8272,7 @@
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
     </row>
-    <row r="200" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="21">
         <v>199</v>
       </c>
@@ -8295,7 +8294,7 @@
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
     </row>
-    <row r="201" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21">
         <v>200</v>
       </c>
@@ -8317,7 +8316,7 @@
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
     </row>
-    <row r="202" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="21">
         <v>201</v>
       </c>
@@ -8339,7 +8338,7 @@
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
     </row>
-    <row r="203" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21">
         <v>202</v>
       </c>
@@ -8361,7 +8360,7 @@
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
     </row>
-    <row r="204" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21">
         <v>203</v>
       </c>
@@ -8383,7 +8382,7 @@
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
     </row>
-    <row r="205" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="21">
         <v>204</v>
       </c>
@@ -8449,7 +8448,7 @@
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
     </row>
-    <row r="208" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21">
         <v>207</v>
       </c>
@@ -8471,7 +8470,7 @@
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
     </row>
-    <row r="209" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
         <v>208</v>
       </c>
@@ -8493,7 +8492,7 @@
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
     </row>
-    <row r="210" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
         <v>209</v>
       </c>
@@ -8515,7 +8514,7 @@
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
     </row>
-    <row r="211" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21">
         <v>210</v>
       </c>
@@ -8537,7 +8536,7 @@
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
     </row>
-    <row r="212" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21">
         <v>211</v>
       </c>
@@ -8559,7 +8558,7 @@
       <c r="G212" s="21"/>
       <c r="H212" s="21"/>
     </row>
-    <row r="213" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="21">
         <v>212</v>
       </c>
@@ -8581,7 +8580,7 @@
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
     </row>
-    <row r="214" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21">
         <v>213</v>
       </c>
@@ -8603,7 +8602,7 @@
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
     </row>
-    <row r="215" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21">
         <v>214</v>
       </c>
@@ -8625,7 +8624,7 @@
       <c r="G215" s="21"/>
       <c r="H215" s="21"/>
     </row>
-    <row r="216" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21">
         <v>215</v>
       </c>
@@ -8647,7 +8646,7 @@
       <c r="G216" s="21"/>
       <c r="H216" s="21"/>
     </row>
-    <row r="217" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="21">
         <v>216</v>
       </c>
@@ -8669,7 +8668,7 @@
       <c r="G217" s="21"/>
       <c r="H217" s="21"/>
     </row>
-    <row r="218" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21">
         <v>217</v>
       </c>
@@ -8691,7 +8690,7 @@
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
     </row>
-    <row r="219" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="21">
         <v>218</v>
       </c>
@@ -8713,7 +8712,7 @@
       <c r="G219" s="21"/>
       <c r="H219" s="21"/>
     </row>
-    <row r="220" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21">
         <v>219</v>
       </c>
@@ -8735,7 +8734,7 @@
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
     </row>
-    <row r="221" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="21">
         <v>220</v>
       </c>
@@ -8757,7 +8756,7 @@
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
     </row>
-    <row r="222" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="21">
         <v>221</v>
       </c>
@@ -8779,7 +8778,7 @@
       <c r="G222" s="21"/>
       <c r="H222" s="21"/>
     </row>
-    <row r="223" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="21">
         <v>222</v>
       </c>
@@ -8801,7 +8800,7 @@
       <c r="G223" s="21"/>
       <c r="H223" s="21"/>
     </row>
-    <row r="224" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="21">
         <v>223</v>
       </c>
@@ -8823,7 +8822,7 @@
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
     </row>
-    <row r="225" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="21">
         <v>224</v>
       </c>
@@ -8845,7 +8844,7 @@
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
     </row>
-    <row r="226" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="21">
         <v>225</v>
       </c>
@@ -8889,7 +8888,7 @@
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
     </row>
-    <row r="228" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="21">
         <v>227</v>
       </c>
@@ -8911,7 +8910,7 @@
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
     </row>
-    <row r="229" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="21">
         <v>228</v>
       </c>
@@ -8933,7 +8932,7 @@
       <c r="G229" s="21"/>
       <c r="H229" s="21"/>
     </row>
-    <row r="230" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="21">
         <v>229</v>
       </c>
@@ -8955,7 +8954,7 @@
       <c r="G230" s="21"/>
       <c r="H230" s="21"/>
     </row>
-    <row r="231" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="21">
         <v>230</v>
       </c>
@@ -8977,7 +8976,7 @@
       <c r="G231" s="21"/>
       <c r="H231" s="21"/>
     </row>
-    <row r="232" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21">
         <v>231</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="G232" s="21"/>
       <c r="H232" s="21"/>
     </row>
-    <row r="233" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21">
         <v>232</v>
       </c>
@@ -9021,7 +9020,7 @@
       <c r="G233" s="21"/>
       <c r="H233" s="21"/>
     </row>
-    <row r="234" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21">
         <v>233</v>
       </c>
@@ -9043,7 +9042,7 @@
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
     </row>
-    <row r="235" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
         <v>234</v>
       </c>
@@ -9065,7 +9064,7 @@
       <c r="G235" s="21"/>
       <c r="H235" s="21"/>
     </row>
-    <row r="236" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21">
         <v>235</v>
       </c>
@@ -9087,7 +9086,7 @@
       <c r="G236" s="21"/>
       <c r="H236" s="21"/>
     </row>
-    <row r="237" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21">
         <v>236</v>
       </c>
@@ -9109,7 +9108,7 @@
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
     </row>
-    <row r="238" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21">
         <v>237</v>
       </c>
@@ -9131,7 +9130,7 @@
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
     </row>
-    <row r="239" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21">
         <v>238</v>
       </c>
@@ -9153,7 +9152,7 @@
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
     </row>
-    <row r="240" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21">
         <v>239</v>
       </c>
@@ -9175,7 +9174,7 @@
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
     </row>
-    <row r="241" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21">
         <v>240</v>
       </c>
@@ -9197,7 +9196,7 @@
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
     </row>
-    <row r="242" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21">
         <v>241</v>
       </c>
@@ -9219,7 +9218,7 @@
       <c r="G242" s="21"/>
       <c r="H242" s="21"/>
     </row>
-    <row r="243" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21">
         <v>242</v>
       </c>
@@ -9241,7 +9240,7 @@
       <c r="G243" s="21"/>
       <c r="H243" s="21"/>
     </row>
-    <row r="244" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21">
         <v>243</v>
       </c>
@@ -9263,7 +9262,7 @@
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
     </row>
-    <row r="245" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="21">
         <v>244</v>
       </c>
@@ -9285,7 +9284,7 @@
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
     </row>
-    <row r="246" spans="1:8" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="21">
         <v>245</v>
       </c>
@@ -9330,11 +9329,7 @@
       <c r="H247" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="5">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC101C0-4BB2-4686-B360-1E3EC84C06CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF7664-1159-4262-A7AA-3DC2724B5D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
-  </si>
-  <si>
     <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
   </si>
   <si>
@@ -2059,6 +2056,10 @@
   </si>
   <si>
     <t>2021.12.13</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3873,7 +3874,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3919,19 +3920,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -3941,19 +3942,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -3963,19 +3964,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -3985,19 +3986,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4007,19 +4008,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -4029,22 +4030,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="H7" s="21"/>
     </row>
@@ -4053,19 +4054,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -4075,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -4097,19 +4098,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -4119,19 +4120,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -4141,19 +4142,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -4163,19 +4164,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -4185,19 +4186,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -4207,19 +4208,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -4229,19 +4230,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -4251,19 +4252,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -4273,19 +4274,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -4295,19 +4296,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4317,19 +4318,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -4339,19 +4340,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -4361,19 +4362,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -4383,19 +4384,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="E23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -4405,19 +4406,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="E24" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -4427,19 +4428,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="E25" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -4449,19 +4450,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>140</v>
-      </c>
       <c r="E26" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -4471,19 +4472,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>142</v>
-      </c>
       <c r="E27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4493,19 +4494,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="E28" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -4515,19 +4516,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="E29" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -4537,19 +4538,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -4559,19 +4560,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -4581,19 +4582,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>153</v>
-      </c>
       <c r="E32" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -4603,19 +4604,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="E33" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4625,19 +4626,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>157</v>
-      </c>
       <c r="E34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -4647,19 +4648,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>159</v>
-      </c>
       <c r="E35" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -4669,19 +4670,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="E36" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -4691,19 +4692,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>163</v>
-      </c>
       <c r="E37" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -4713,19 +4714,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="E38" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -4735,19 +4736,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="E39" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -4757,19 +4758,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>169</v>
-      </c>
       <c r="E40" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -4779,19 +4780,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -4801,19 +4802,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="E42" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -4823,19 +4824,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>177</v>
-      </c>
       <c r="E43" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -4845,19 +4846,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="E44" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -4867,19 +4868,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -4889,19 +4890,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="E46" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -4911,19 +4912,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="E47" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -4933,19 +4934,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="E48" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -4955,19 +4956,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="E49" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -4977,19 +4978,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -4999,19 +5000,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>193</v>
-      </c>
       <c r="E51" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -5021,19 +5022,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="E52" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -5043,19 +5044,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -5065,19 +5066,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>199</v>
-      </c>
       <c r="E54" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -5087,19 +5088,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>201</v>
-      </c>
       <c r="E55" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -5109,19 +5110,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>203</v>
-      </c>
       <c r="E56" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -5131,19 +5132,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="E57" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -5153,19 +5154,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="E58" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -5175,19 +5176,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>209</v>
-      </c>
       <c r="E59" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -5197,19 +5198,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="E60" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -5219,19 +5220,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>213</v>
-      </c>
       <c r="E61" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -5241,19 +5242,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="E62" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -5263,19 +5264,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>217</v>
-      </c>
       <c r="E63" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
@@ -5285,19 +5286,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="D64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>220</v>
-      </c>
       <c r="E64" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -5307,19 +5308,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="E65" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -5329,19 +5330,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>224</v>
-      </c>
       <c r="E66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -5351,19 +5352,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>226</v>
-      </c>
       <c r="E67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -5373,19 +5374,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>228</v>
-      </c>
       <c r="E68" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
@@ -5395,19 +5396,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>230</v>
-      </c>
       <c r="E69" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -5417,19 +5418,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>232</v>
-      </c>
       <c r="E70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
@@ -5439,19 +5440,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>234</v>
-      </c>
       <c r="E71" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
@@ -5461,19 +5462,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>236</v>
-      </c>
       <c r="E72" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
@@ -5483,19 +5484,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="E73" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
@@ -5505,19 +5506,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>240</v>
-      </c>
       <c r="E74" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
@@ -5527,19 +5528,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>242</v>
-      </c>
       <c r="E75" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
@@ -5549,19 +5550,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>244</v>
-      </c>
       <c r="E76" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -5571,19 +5572,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>246</v>
-      </c>
       <c r="E77" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -5593,19 +5594,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>248</v>
-      </c>
       <c r="E78" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
@@ -5615,19 +5616,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>250</v>
-      </c>
       <c r="E79" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -5637,19 +5638,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="E80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
@@ -5659,19 +5660,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>254</v>
-      </c>
       <c r="E81" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
@@ -5681,19 +5682,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="E82" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
@@ -5703,19 +5704,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>258</v>
-      </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
@@ -5725,19 +5726,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="D84" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>261</v>
-      </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
@@ -5747,19 +5748,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>263</v>
-      </c>
       <c r="E85" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="27"/>
@@ -5769,19 +5770,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>265</v>
-      </c>
       <c r="E86" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="27"/>
@@ -5791,19 +5792,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="E87" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="27"/>
@@ -5813,19 +5814,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>269</v>
-      </c>
       <c r="E88" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="27"/>
@@ -5835,19 +5836,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>271</v>
-      </c>
       <c r="E89" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="27"/>
@@ -5857,19 +5858,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E90" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="27"/>
@@ -5879,19 +5880,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>275</v>
-      </c>
       <c r="E91" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="27"/>
@@ -5901,19 +5902,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="E92" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G92" s="21"/>
       <c r="H92" s="27"/>
@@ -5923,19 +5924,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>279</v>
-      </c>
       <c r="E93" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="27"/>
@@ -5945,19 +5946,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>281</v>
-      </c>
       <c r="E94" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="27"/>
@@ -5967,19 +5968,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="E95" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="27"/>
@@ -5989,19 +5990,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="27"/>
@@ -6011,19 +6012,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="E97" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="27"/>
@@ -6033,19 +6034,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="E98" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="27"/>
@@ -6055,19 +6056,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="E99" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="27"/>
@@ -6077,19 +6078,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>293</v>
-      </c>
       <c r="E100" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="27"/>
@@ -6099,19 +6100,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>295</v>
-      </c>
       <c r="E101" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G101" s="21"/>
       <c r="H101" s="27"/>
@@ -6121,19 +6122,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="E102" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="27"/>
@@ -6143,19 +6144,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>299</v>
-      </c>
       <c r="E103" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G103" s="21"/>
       <c r="H103" s="27"/>
@@ -6165,19 +6166,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>301</v>
-      </c>
       <c r="E104" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
@@ -6187,19 +6188,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="D105" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D105" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="E105" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="27"/>
@@ -6209,19 +6210,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>306</v>
-      </c>
       <c r="E106" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G106" s="21"/>
       <c r="H106" s="27"/>
@@ -6231,19 +6232,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="E107" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G107" s="21"/>
       <c r="H107" s="27"/>
@@ -6253,19 +6254,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="E108" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="27"/>
@@ -6275,19 +6276,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="E109" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="27"/>
@@ -6297,19 +6298,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>314</v>
-      </c>
       <c r="E110" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="27"/>
@@ -6319,19 +6320,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>316</v>
-      </c>
       <c r="E111" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G111" s="21"/>
       <c r="H111" s="27"/>
@@ -6341,19 +6342,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="E112" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="27"/>
@@ -6363,19 +6364,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="E113" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="27"/>
@@ -6385,19 +6386,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>322</v>
-      </c>
       <c r="E114" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="27"/>
@@ -6407,19 +6408,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>324</v>
-      </c>
       <c r="E115" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="27"/>
@@ -6429,19 +6430,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>326</v>
-      </c>
       <c r="E116" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="27"/>
@@ -6451,19 +6452,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>328</v>
-      </c>
       <c r="E117" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="27"/>
@@ -6473,19 +6474,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>330</v>
-      </c>
       <c r="E118" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G118" s="21"/>
       <c r="H118" s="27"/>
@@ -6495,19 +6496,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>332</v>
-      </c>
       <c r="E119" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G119" s="21"/>
       <c r="H119" s="27"/>
@@ -6517,19 +6518,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C120" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>334</v>
-      </c>
       <c r="E120" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="27"/>
@@ -6539,19 +6540,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C121" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="E121" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="27"/>
@@ -6561,19 +6562,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C122" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>338</v>
-      </c>
       <c r="E122" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="27"/>
@@ -6583,19 +6584,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C123" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>340</v>
-      </c>
       <c r="E123" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="27"/>
@@ -6605,19 +6606,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>342</v>
-      </c>
       <c r="E124" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
@@ -6627,19 +6628,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="D125" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>345</v>
-      </c>
       <c r="E125" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
@@ -6649,19 +6650,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>347</v>
-      </c>
       <c r="E126" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="27"/>
@@ -6671,19 +6672,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="E127" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="27"/>
@@ -6693,19 +6694,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>351</v>
-      </c>
       <c r="E128" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="27"/>
@@ -6715,19 +6716,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C129" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>353</v>
-      </c>
       <c r="E129" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="27"/>
@@ -6737,19 +6738,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="C130" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>355</v>
-      </c>
       <c r="E130" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="27"/>
@@ -6759,19 +6760,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C131" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>357</v>
-      </c>
       <c r="E131" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="27"/>
@@ -6781,19 +6782,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C132" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="E132" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="27"/>
@@ -6803,19 +6804,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C133" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>361</v>
-      </c>
       <c r="E133" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="27"/>
@@ -6825,19 +6826,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D134" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>363</v>
-      </c>
       <c r="E134" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G134" s="21"/>
       <c r="H134" s="27"/>
@@ -6847,19 +6848,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D135" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="C135" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>365</v>
-      </c>
       <c r="E135" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G135" s="21"/>
       <c r="H135" s="27"/>
@@ -6869,19 +6870,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="E136" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="27"/>
@@ -6891,19 +6892,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D137" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>369</v>
-      </c>
       <c r="E137" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="27"/>
@@ -6913,19 +6914,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C138" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>371</v>
-      </c>
       <c r="E138" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="27"/>
@@ -6935,19 +6936,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="C139" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>373</v>
-      </c>
       <c r="E139" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="27"/>
@@ -6957,19 +6958,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>375</v>
-      </c>
       <c r="E140" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G140" s="21"/>
       <c r="H140" s="27"/>
@@ -6979,19 +6980,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D141" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="E141" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="27"/>
@@ -7001,19 +7002,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C142" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="E142" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G142" s="21"/>
       <c r="H142" s="27"/>
@@ -7023,19 +7024,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C143" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>381</v>
-      </c>
       <c r="E143" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="27"/>
@@ -7045,19 +7046,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C144" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>383</v>
-      </c>
       <c r="E144" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="27"/>
@@ -7067,19 +7068,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>385</v>
-      </c>
       <c r="E145" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
@@ -7089,19 +7090,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C146" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="D146" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="D146" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="E146" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="27"/>
@@ -7111,19 +7112,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D147" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C147" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>390</v>
-      </c>
       <c r="E147" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G147" s="21"/>
       <c r="H147" s="27"/>
@@ -7133,19 +7134,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D148" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C148" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>392</v>
-      </c>
       <c r="E148" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G148" s="21"/>
       <c r="H148" s="27"/>
@@ -7155,19 +7156,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D149" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C149" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>394</v>
-      </c>
       <c r="E149" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G149" s="21"/>
       <c r="H149" s="27"/>
@@ -7177,19 +7178,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D150" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>396</v>
-      </c>
       <c r="E150" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G150" s="21"/>
       <c r="H150" s="27"/>
@@ -7199,19 +7200,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>398</v>
-      </c>
       <c r="E151" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G151" s="21"/>
       <c r="H151" s="27"/>
@@ -7221,19 +7222,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D152" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="C152" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>400</v>
-      </c>
       <c r="E152" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G152" s="21"/>
       <c r="H152" s="27"/>
@@ -7243,19 +7244,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C153" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>402</v>
-      </c>
       <c r="E153" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G153" s="21"/>
       <c r="H153" s="27"/>
@@ -7265,19 +7266,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>404</v>
-      </c>
       <c r="E154" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G154" s="21"/>
       <c r="H154" s="27"/>
@@ -7287,19 +7288,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C155" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>406</v>
-      </c>
       <c r="E155" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G155" s="21"/>
       <c r="H155" s="27"/>
@@ -7309,19 +7310,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C156" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="E156" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G156" s="21"/>
       <c r="H156" s="27"/>
@@ -7331,19 +7332,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="C157" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>410</v>
-      </c>
       <c r="E157" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G157" s="21"/>
       <c r="H157" s="27"/>
@@ -7353,19 +7354,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="C158" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>412</v>
-      </c>
       <c r="E158" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G158" s="21"/>
       <c r="H158" s="27"/>
@@ -7375,19 +7376,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C159" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>414</v>
-      </c>
       <c r="E159" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="27"/>
@@ -7397,19 +7398,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="C160" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>416</v>
-      </c>
       <c r="E160" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="27"/>
@@ -7419,19 +7420,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C161" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="E161" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G161" s="21"/>
       <c r="H161" s="27"/>
@@ -7441,19 +7442,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="C162" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>420</v>
-      </c>
       <c r="E162" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G162" s="21"/>
       <c r="H162" s="27"/>
@@ -7463,19 +7464,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C163" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>422</v>
-      </c>
       <c r="E163" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G163" s="21"/>
       <c r="H163" s="27"/>
@@ -7485,19 +7486,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D164" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C164" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>424</v>
-      </c>
       <c r="E164" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G164" s="21"/>
       <c r="H164" s="27"/>
@@ -7507,19 +7508,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="E165" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G165" s="24"/>
       <c r="H165" s="24"/>
@@ -7529,19 +7530,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C166" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="D166" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D166" s="24" t="s">
-        <v>429</v>
-      </c>
       <c r="E166" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
@@ -7551,19 +7552,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C167" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>431</v>
-      </c>
       <c r="E167" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
@@ -7573,19 +7574,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D168" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C168" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D168" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="E168" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G168" s="21"/>
       <c r="H168" s="21"/>
@@ -7595,19 +7596,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D169" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="C169" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>435</v>
-      </c>
       <c r="E169" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
@@ -7617,19 +7618,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D170" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="C170" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D170" s="21" t="s">
-        <v>437</v>
-      </c>
       <c r="E170" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
@@ -7639,19 +7640,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C171" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>439</v>
-      </c>
       <c r="E171" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G171" s="21"/>
       <c r="H171" s="21"/>
@@ -7661,19 +7662,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D172" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="C172" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>441</v>
-      </c>
       <c r="E172" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G172" s="21"/>
       <c r="H172" s="21"/>
@@ -7683,19 +7684,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D173" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C173" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>443</v>
-      </c>
       <c r="E173" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G173" s="21"/>
       <c r="H173" s="21"/>
@@ -7705,19 +7706,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D174" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C174" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>445</v>
-      </c>
       <c r="E174" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G174" s="21"/>
       <c r="H174" s="21"/>
@@ -7727,19 +7728,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D175" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C175" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>447</v>
-      </c>
       <c r="E175" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G175" s="21"/>
       <c r="H175" s="21"/>
@@ -7749,19 +7750,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D176" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C176" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>449</v>
-      </c>
       <c r="E176" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
@@ -7771,19 +7772,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D177" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>451</v>
-      </c>
       <c r="E177" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
@@ -7793,19 +7794,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D178" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C178" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>453</v>
-      </c>
       <c r="E178" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
@@ -7815,19 +7816,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="C179" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>455</v>
-      </c>
       <c r="E179" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
@@ -7837,19 +7838,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D180" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>457</v>
-      </c>
       <c r="E180" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
@@ -7859,19 +7860,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D181" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C181" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>459</v>
-      </c>
       <c r="E181" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
@@ -7881,19 +7882,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D182" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="C182" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>461</v>
-      </c>
       <c r="E182" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
@@ -7903,19 +7904,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D183" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>463</v>
-      </c>
       <c r="E183" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G183" s="21"/>
       <c r="H183" s="21"/>
@@ -7925,19 +7926,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D184" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C184" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>465</v>
-      </c>
       <c r="E184" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G184" s="21"/>
       <c r="H184" s="21"/>
@@ -7947,19 +7948,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D185" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="C185" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>467</v>
-      </c>
       <c r="E185" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G185" s="21"/>
       <c r="H185" s="21"/>
@@ -7969,19 +7970,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D186" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="C186" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="E186" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
@@ -7991,19 +7992,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C187" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="D187" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="D187" s="21" t="s">
-        <v>472</v>
-      </c>
       <c r="E187" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
@@ -8013,19 +8014,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D188" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C188" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>474</v>
-      </c>
       <c r="E188" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
@@ -8035,19 +8036,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D189" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>476</v>
-      </c>
       <c r="E189" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G189" s="21"/>
       <c r="H189" s="21"/>
@@ -8057,19 +8058,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>478</v>
-      </c>
       <c r="E190" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
@@ -8079,19 +8080,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D191" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C191" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>480</v>
-      </c>
       <c r="E191" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G191" s="21"/>
       <c r="H191" s="21"/>
@@ -8101,19 +8102,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D192" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="C192" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>482</v>
-      </c>
       <c r="E192" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
@@ -8123,19 +8124,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>484</v>
-      </c>
       <c r="E193" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
@@ -8145,19 +8146,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D194" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="C194" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>486</v>
-      </c>
       <c r="E194" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
@@ -8167,19 +8168,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D195" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="C195" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>488</v>
-      </c>
       <c r="E195" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
@@ -8189,19 +8190,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D196" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="C196" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D196" s="21" t="s">
-        <v>490</v>
-      </c>
       <c r="E196" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
@@ -8211,19 +8212,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D197" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C197" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>492</v>
-      </c>
       <c r="E197" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
@@ -8233,19 +8234,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C198" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>494</v>
-      </c>
       <c r="E198" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
@@ -8255,19 +8256,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>496</v>
-      </c>
       <c r="E199" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
@@ -8277,19 +8278,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>498</v>
-      </c>
       <c r="E200" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
@@ -8299,19 +8300,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D201" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D201" s="21" t="s">
-        <v>500</v>
-      </c>
       <c r="E201" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
@@ -8321,19 +8322,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="C202" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D202" s="21" t="s">
-        <v>502</v>
-      </c>
       <c r="E202" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
@@ -8343,19 +8344,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C203" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>504</v>
-      </c>
       <c r="E203" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
@@ -8365,19 +8366,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D204" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C204" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D204" s="21" t="s">
-        <v>506</v>
-      </c>
       <c r="E204" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
@@ -8387,19 +8388,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C205" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>508</v>
-      </c>
       <c r="E205" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
@@ -8409,19 +8410,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>510</v>
-      </c>
       <c r="E206" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G206" s="24"/>
       <c r="H206" s="24"/>
@@ -8431,19 +8432,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C207" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="D207" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D207" s="24" t="s">
-        <v>513</v>
-      </c>
       <c r="E207" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
@@ -8453,19 +8454,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D208" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C208" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>515</v>
-      </c>
       <c r="E208" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
@@ -8475,19 +8476,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D209" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="C209" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>517</v>
-      </c>
       <c r="E209" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
@@ -8497,19 +8498,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D210" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="C210" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>519</v>
-      </c>
       <c r="E210" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
@@ -8519,19 +8520,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D211" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="C211" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>521</v>
-      </c>
       <c r="E211" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
@@ -8541,19 +8542,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D212" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C212" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D212" s="21" t="s">
-        <v>523</v>
-      </c>
       <c r="E212" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G212" s="21"/>
       <c r="H212" s="21"/>
@@ -8563,19 +8564,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D213" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C213" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>525</v>
-      </c>
       <c r="E213" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
@@ -8585,19 +8586,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D214" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C214" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D214" s="21" t="s">
-        <v>527</v>
-      </c>
       <c r="E214" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
@@ -8607,19 +8608,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D215" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="C215" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D215" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="E215" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G215" s="21"/>
       <c r="H215" s="21"/>
@@ -8629,19 +8630,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D216" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C216" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D216" s="21" t="s">
-        <v>531</v>
-      </c>
       <c r="E216" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G216" s="21"/>
       <c r="H216" s="21"/>
@@ -8651,19 +8652,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D217" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C217" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D217" s="21" t="s">
-        <v>533</v>
-      </c>
       <c r="E217" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G217" s="21"/>
       <c r="H217" s="21"/>
@@ -8673,19 +8674,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="C218" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>535</v>
-      </c>
       <c r="E218" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
@@ -8695,19 +8696,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D219" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C219" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>537</v>
-      </c>
       <c r="E219" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G219" s="21"/>
       <c r="H219" s="21"/>
@@ -8717,19 +8718,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D220" s="21" t="s">
-        <v>539</v>
-      </c>
       <c r="E220" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
@@ -8739,19 +8740,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D221" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C221" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D221" s="21" t="s">
-        <v>541</v>
-      </c>
       <c r="E221" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
@@ -8761,19 +8762,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D222" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C222" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="E222" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G222" s="21"/>
       <c r="H222" s="21"/>
@@ -8783,19 +8784,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D223" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="C223" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>545</v>
-      </c>
       <c r="E223" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G223" s="21"/>
       <c r="H223" s="21"/>
@@ -8805,19 +8806,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C224" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D224" s="21" t="s">
-        <v>547</v>
-      </c>
       <c r="E224" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
@@ -8827,19 +8828,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D225" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="C225" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="E225" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
@@ -8849,19 +8850,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D226" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="C226" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>551</v>
-      </c>
       <c r="E226" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G226" s="21"/>
       <c r="H226" s="21"/>
@@ -8871,19 +8872,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D227" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="C227" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D227" s="24" t="s">
-        <v>553</v>
-      </c>
       <c r="E227" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
@@ -8893,19 +8894,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C228" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="D228" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="D228" s="21" t="s">
-        <v>556</v>
-      </c>
       <c r="E228" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
@@ -8915,19 +8916,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D229" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="C229" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D229" s="21" t="s">
-        <v>558</v>
-      </c>
       <c r="E229" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G229" s="21"/>
       <c r="H229" s="21"/>
@@ -8937,19 +8938,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D230" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C230" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D230" s="21" t="s">
-        <v>560</v>
-      </c>
       <c r="E230" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G230" s="21"/>
       <c r="H230" s="21"/>
@@ -8959,19 +8960,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D231" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C231" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>562</v>
-      </c>
       <c r="E231" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G231" s="21"/>
       <c r="H231" s="21"/>
@@ -8981,19 +8982,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D232" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C232" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D232" s="21" t="s">
-        <v>564</v>
-      </c>
       <c r="E232" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G232" s="21"/>
       <c r="H232" s="21"/>
@@ -9003,19 +9004,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D233" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="C233" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>566</v>
-      </c>
       <c r="E233" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G233" s="21"/>
       <c r="H233" s="21"/>
@@ -9025,19 +9026,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="C234" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D234" s="21" t="s">
-        <v>568</v>
-      </c>
       <c r="E234" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
@@ -9047,19 +9048,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D235" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="C235" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D235" s="21" t="s">
-        <v>570</v>
-      </c>
       <c r="E235" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G235" s="21"/>
       <c r="H235" s="21"/>
@@ -9069,19 +9070,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D236" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="C236" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D236" s="21" t="s">
-        <v>572</v>
-      </c>
       <c r="E236" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G236" s="21"/>
       <c r="H236" s="21"/>
@@ -9091,19 +9092,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D237" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="C237" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D237" s="21" t="s">
-        <v>574</v>
-      </c>
       <c r="E237" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
@@ -9113,19 +9114,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D238" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="C238" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D238" s="21" t="s">
-        <v>576</v>
-      </c>
       <c r="E238" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
@@ -9135,19 +9136,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D239" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C239" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D239" s="21" t="s">
-        <v>578</v>
-      </c>
       <c r="E239" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
@@ -9157,19 +9158,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D240" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="C240" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D240" s="21" t="s">
-        <v>580</v>
-      </c>
       <c r="E240" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
@@ -9179,19 +9180,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D241" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="C241" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D241" s="21" t="s">
-        <v>582</v>
-      </c>
       <c r="E241" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
@@ -9201,19 +9202,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D242" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="C242" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D242" s="21" t="s">
-        <v>584</v>
-      </c>
       <c r="E242" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G242" s="21"/>
       <c r="H242" s="21"/>
@@ -9223,19 +9224,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D243" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="C243" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D243" s="21" t="s">
-        <v>586</v>
-      </c>
       <c r="E243" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G243" s="21"/>
       <c r="H243" s="21"/>
@@ -9245,19 +9246,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D244" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="C244" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D244" s="21" t="s">
-        <v>588</v>
-      </c>
       <c r="E244" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
@@ -9267,19 +9268,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D245" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C245" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D245" s="21" t="s">
-        <v>590</v>
-      </c>
       <c r="E245" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
@@ -9289,19 +9290,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D246" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="C246" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>592</v>
-      </c>
       <c r="E246" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
@@ -9311,19 +9312,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D247" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="C247" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="D247" s="24" t="s">
-        <v>594</v>
-      </c>
       <c r="E247" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G247" s="24"/>
       <c r="H247" s="24"/>
@@ -9332,7 +9333,7 @@
   <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9382,293 +9383,293 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
       <c r="C31" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,7 +9751,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -9759,7 +9760,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
@@ -9767,7 +9768,7 @@
       <c r="L1" s="43"/>
       <c r="M1" s="41"/>
       <c r="N1" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9777,58 +9778,58 @@
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>644</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>644</v>
       </c>
       <c r="M2" s="33"/>
       <c r="N2" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>644</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11232,53 +11233,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>658</v>
-      </c>
       <c r="D3" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF7664-1159-4262-A7AA-3DC2724B5D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141AFDAE-B47E-4BC0-9CA5-219EB68A7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3874,7 +3874,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141AFDAE-B47E-4BC0-9CA5-219EB68A7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F2D7E-EBA9-43DA-94FA-82661CFF0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3874,7 +3874,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F2D7E-EBA9-43DA-94FA-82661CFF0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA85CDA-0A88-43FD-881A-4FF7A5BF157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="数码变焦case自动化部分" sheetId="2" r:id="rId2"/>
-    <sheet name="大纲" sheetId="3" r:id="rId3"/>
-    <sheet name="分辨率对应表-NotAvailable" sheetId="4" r:id="rId4"/>
-    <sheet name="修改记录" sheetId="5" r:id="rId5"/>
+    <sheet name="数码变焦case自动化部分_Test" sheetId="6" r:id="rId1"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
+    <sheet name="数码变焦case自动化部分" sheetId="2" r:id="rId3"/>
+    <sheet name="大纲" sheetId="3" r:id="rId4"/>
+    <sheet name="分辨率对应表-NotAvailable" sheetId="4" r:id="rId5"/>
+    <sheet name="修改记录" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$1:$I$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数码变焦case自动化部分!$A$1:$H$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数码变焦case自动化部分!$A$1:$H$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数码变焦case自动化部分_Test!$A$1:$H$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="659">
   <si>
     <t>测试项</t>
   </si>
@@ -2396,14 +2398,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF0000FF"/>
       </font>
@@ -2413,6 +2407,14 @@
         <b/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2723,6 +2725,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C5DAB6-8252-44A8-976A-A2C06C61C00C}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="46.125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -3857,10 +4000,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3869,12 +4012,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9337,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -9730,7 +9873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
@@ -11212,7 +11355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA85CDA-0A88-43FD-881A-4FF7A5BF157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B9D990-7CEC-4AB1-84A1-5DE5076FDF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,7 +2729,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B9D990-7CEC-4AB1-84A1-5DE5076FDF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC73D0D-B699-4894-A02E-F31FDAB59992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,7 +2729,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC73D0D-B699-4894-A02E-F31FDAB59992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D2922-DBCA-45D4-96B8-673C8556F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数码变焦case自动化部分_Test" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="660">
   <si>
     <t>测试项</t>
   </si>
@@ -2061,6 +2061,10 @@
   </si>
   <si>
     <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大53步长；查看预览画面，移动画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2728,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C5DAB6-8252-44A8-976A-A2C06C61C00C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2829,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>129</v>
+        <v>659</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>14</v>
@@ -4016,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D2922-DBCA-45D4-96B8-673C8556F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7E914-A5DE-4C5C-B160-CF9FE0273456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="数码变焦case自动化部分_Test" sheetId="6" r:id="rId1"/>
-    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
-    <sheet name="数码变焦case自动化部分" sheetId="2" r:id="rId3"/>
-    <sheet name="大纲" sheetId="3" r:id="rId4"/>
-    <sheet name="分辨率对应表-NotAvailable" sheetId="4" r:id="rId5"/>
-    <sheet name="修改记录" sheetId="5" r:id="rId6"/>
+    <sheet name="数码变焦case自动化部分_Test" sheetId="1" r:id="rId1"/>
+    <sheet name="测试用例" sheetId="2" r:id="rId2"/>
+    <sheet name="数码变焦case自动化部分" sheetId="3" r:id="rId3"/>
+    <sheet name="大纲" sheetId="4" r:id="rId4"/>
+    <sheet name="分辨率对应表-NotAvailable" sheetId="5" r:id="rId5"/>
+    <sheet name="修改记录" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$I$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数码变焦case自动化部分!$A$1:$H$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数码变焦case自动化部分_Test!$A$1:$H$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="659">
+  <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>测试点</t>
+  </si>
+  <si>
+    <t>测试前提</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
+  </si>
+  <si>
+    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
+  </si>
+  <si>
+    <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩放1步长；查看预览画面，移动画面，移动画面，移动画面</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>超出最大缩放步长，提示错误</t>
+  </si>
+  <si>
+    <t>1,MJPG 3840×2160P 30(P 16:9),5</t>
+  </si>
+  <si>
+    <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大5步长；查看预览画面，移动画面，移动画面</t>
+  </si>
+  <si>
+    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
+预览画面放大1.1倍</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),53</t>
+  </si>
+  <si>
+    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大53步长；查看预览画面，移动画面</t>
+  </si>
+  <si>
+    <t>超出最大放大步长，提示错误</t>
+  </si>
+  <si>
+    <t>2,MJPG 3840×2160P 30(P 16:9),40,-1</t>
+  </si>
+  <si>
+    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
+  </si>
+  <si>
+    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小1步长；查看预览画面，移动画面</t>
+  </si>
+  <si>
+    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
+预览画面放大2.8或者2.9倍</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
+  </si>
+  <si>
+    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
+  </si>
   <si>
     <t>测试项</t>
   </si>
@@ -53,16 +132,7 @@
     <t>前提条件</t>
   </si>
   <si>
-    <t>测试步骤</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
     <t>预期结果</t>
-  </si>
-  <si>
-    <t>测试结果</t>
   </si>
   <si>
     <t>备注</t>
@@ -84,14 +154,8 @@
 2、进行变焦动作</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>变焦时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 移动时无卡顿、花屏等异常现象</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>重新打开预览</t>
@@ -235,40 +299,6 @@
     <t>72°</t>
   </si>
   <si>
-    <t>CaseNumber</t>
-  </si>
-  <si>
-    <t>测试点</t>
-  </si>
-  <si>
-    <t>测试前提</t>
-  </si>
-  <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
-  </si>
-  <si>
-    <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩放1步长；查看预览画面，移动画面，移动画面，移动画面</t>
-  </si>
-  <si>
-    <t>超出最大缩放步长，提示错误</t>
-  </si>
-  <si>
-    <t>1,MJPG 3840×2160P 30(P 16:9),5</t>
-  </si>
-  <si>
-    <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大5步长；查看预览画面，移动画面，移动画面</t>
-  </si>
-  <si>
-    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
-预览画面放大1.1倍</t>
-  </si>
-  <si>
     <t>1,MJPG 3840×2160P 30(P 16:9),10</t>
   </si>
   <si>
@@ -441,10 +471,6 @@
     <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大39步长；查看预览画面，移动画面</t>
   </si>
   <si>
-    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
-预览画面放大2.8或者2.9倍</t>
-  </si>
-  <si>
     <t>1,MJPG 3840×2160P 30(P 16:9),40</t>
   </si>
   <si>
@@ -455,24 +481,6 @@
 预览画面放大3倍</t>
   </si>
   <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),53</t>
-  </si>
-  <si>
-    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大53步长；查看预览画面，移动画面</t>
-  </si>
-  <si>
-    <t>超出最大放大步长，提示错误</t>
-  </si>
-  <si>
-    <t>2,MJPG 3840×2160P 30(P 16:9),40,-1</t>
-  </si>
-  <si>
-    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
-  </si>
-  <si>
-    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小1步长；查看预览画面，移动画面</t>
-  </si>
-  <si>
     <t>2,MJPG 3840×2160P 30(P 16:9),40,-2</t>
   </si>
   <si>
@@ -587,12 +595,6 @@
   <si>
     <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 预览画面变焦回原图</t>
-  </si>
-  <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
-  </si>
-  <si>
-    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
   </si>
   <si>
     <t>0,MJPG 1920×1080P 30(P 16:9),-1</t>
@@ -2058,14 +2060,6 @@
   </si>
   <si>
     <t>2021.12.13</t>
-  </si>
-  <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大53步长；查看预览画面，移动画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2400,7 +2394,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF0000FF"/>
@@ -2411,14 +2405,6 @@
         <b/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2729,11 +2715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C5DAB6-8252-44A8-976A-A2C06C61C00C}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,28 +2736,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,19 +2765,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>658</v>
+        <v>8</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2801,19 +2787,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -2823,19 +2809,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>659</v>
+        <v>17</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -2845,36 +2831,60 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2888,63 +2898,63 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="15" width="9" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="5"/>
+    <col min="10" max="16" width="9" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -2952,22 +2962,22 @@
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2975,49 +2985,49 @@
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="19" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -3025,49 +3035,49 @@
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -3076,19 +3086,19 @@
       <c r="B8" s="33"/>
       <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -3096,22 +3106,22 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -3120,44 +3130,44 @@
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -3165,49 +3175,49 @@
       <c r="A12" s="33"/>
       <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -3216,19 +3226,19 @@
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -3236,22 +3246,22 @@
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -3260,44 +3270,44 @@
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -3305,49 +3315,49 @@
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -3356,19 +3366,19 @@
       <c r="B20" s="33"/>
       <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -3376,22 +3386,22 @@
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -3400,44 +3410,44 @@
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -3445,49 +3455,49 @@
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -3496,19 +3506,19 @@
       <c r="B26" s="33"/>
       <c r="C26" s="31"/>
       <c r="D26" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I26" s="6"/>
     </row>
@@ -3516,22 +3526,22 @@
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -3540,44 +3550,44 @@
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I29" s="6"/>
     </row>
@@ -3585,49 +3595,49 @@
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" s="6"/>
     </row>
@@ -3636,19 +3646,19 @@
       <c r="B32" s="33"/>
       <c r="C32" s="31"/>
       <c r="D32" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I32" s="6"/>
     </row>
@@ -3656,22 +3666,22 @@
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -3680,44 +3690,44 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -3725,49 +3735,49 @@
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -3776,19 +3786,19 @@
       <c r="B38" s="33"/>
       <c r="C38" s="31"/>
       <c r="D38" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="6"/>
     </row>
@@ -3796,22 +3806,22 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="6"/>
     </row>
@@ -3820,44 +3830,44 @@
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -3865,106 +3875,106 @@
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="H44" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I45" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="35">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -4017,11 +4027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4038,28 +4048,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,19 +4077,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>658</v>
+        <v>8</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -4089,19 +4099,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -4111,19 +4121,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -4133,19 +4143,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4155,19 +4165,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -4177,22 +4187,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H7" s="21"/>
     </row>
@@ -4201,19 +4211,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -4223,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -4245,19 +4255,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -4267,19 +4277,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -4289,19 +4299,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -4311,19 +4321,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -4333,19 +4343,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -4355,19 +4365,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -4377,19 +4387,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -4399,19 +4409,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -4421,19 +4431,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -4443,19 +4453,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4465,19 +4475,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -4487,19 +4497,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -4509,19 +4519,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -4531,19 +4541,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -4553,19 +4563,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -4575,19 +4585,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -4597,19 +4607,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -4619,19 +4629,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4641,19 +4651,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -4663,19 +4673,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -4685,19 +4695,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -4707,19 +4717,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -4729,19 +4739,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -4751,19 +4761,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4773,19 +4783,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -4795,19 +4805,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -4817,19 +4827,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -4839,19 +4849,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -4861,19 +4871,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -4883,19 +4893,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -4905,19 +4915,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -4927,19 +4937,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -4949,19 +4959,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -4971,19 +4981,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -4993,19 +5003,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -5015,19 +5025,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -5037,19 +5047,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -5059,19 +5069,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -5081,19 +5091,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -5103,19 +5113,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -5125,19 +5135,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -5147,19 +5157,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -5169,19 +5179,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -5191,19 +5201,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -5213,19 +5223,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -5235,19 +5245,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -5257,19 +5267,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -5279,19 +5289,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -5301,19 +5311,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -5323,19 +5333,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -5345,19 +5355,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -5367,19 +5377,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -5389,19 +5399,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -5411,19 +5421,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
@@ -5433,19 +5443,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -5455,19 +5465,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -5477,19 +5487,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -5499,19 +5509,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -5521,19 +5531,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
@@ -5543,19 +5553,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -5565,19 +5575,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
@@ -5587,19 +5597,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
@@ -5609,19 +5619,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
@@ -5631,19 +5641,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
@@ -5653,19 +5663,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
@@ -5675,19 +5685,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
@@ -5697,19 +5707,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -5719,19 +5729,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -5741,19 +5751,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
@@ -5763,19 +5773,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -5785,19 +5795,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
@@ -5807,19 +5817,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
@@ -5829,19 +5839,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
@@ -5851,19 +5861,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
@@ -5873,19 +5883,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
@@ -5895,19 +5905,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="27"/>
@@ -5917,19 +5927,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="27"/>
@@ -5939,19 +5949,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="27"/>
@@ -5961,19 +5971,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="27"/>
@@ -5983,19 +5993,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="27"/>
@@ -6005,19 +6015,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="27"/>
@@ -6027,19 +6037,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="27"/>
@@ -6049,19 +6059,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G92" s="21"/>
       <c r="H92" s="27"/>
@@ -6071,19 +6081,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="27"/>
@@ -6093,19 +6103,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="27"/>
@@ -6115,19 +6125,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="27"/>
@@ -6137,19 +6147,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="27"/>
@@ -6159,19 +6169,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="27"/>
@@ -6181,19 +6191,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="27"/>
@@ -6203,19 +6213,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="27"/>
@@ -6225,19 +6235,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="27"/>
@@ -6247,19 +6257,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G101" s="21"/>
       <c r="H101" s="27"/>
@@ -6269,19 +6279,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="27"/>
@@ -6291,19 +6301,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G103" s="21"/>
       <c r="H103" s="27"/>
@@ -6313,19 +6323,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
@@ -6335,19 +6345,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="27"/>
@@ -6357,19 +6367,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G106" s="21"/>
       <c r="H106" s="27"/>
@@ -6379,19 +6389,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G107" s="21"/>
       <c r="H107" s="27"/>
@@ -6401,19 +6411,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="27"/>
@@ -6423,19 +6433,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="27"/>
@@ -6445,19 +6455,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="27"/>
@@ -6467,19 +6477,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G111" s="21"/>
       <c r="H111" s="27"/>
@@ -6489,19 +6499,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="27"/>
@@ -6511,19 +6521,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="27"/>
@@ -6533,19 +6543,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="27"/>
@@ -6555,19 +6565,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="27"/>
@@ -6577,19 +6587,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="27"/>
@@ -6599,19 +6609,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="27"/>
@@ -6621,19 +6631,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G118" s="21"/>
       <c r="H118" s="27"/>
@@ -6643,19 +6653,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G119" s="21"/>
       <c r="H119" s="27"/>
@@ -6665,19 +6675,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="27"/>
@@ -6687,19 +6697,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="27"/>
@@ -6709,19 +6719,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="27"/>
@@ -6731,19 +6741,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="27"/>
@@ -6753,19 +6763,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
@@ -6775,19 +6785,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
@@ -6797,19 +6807,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="27"/>
@@ -6819,19 +6829,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="27"/>
@@ -6841,19 +6851,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="27"/>
@@ -6863,19 +6873,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="27"/>
@@ -6885,19 +6895,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="27"/>
@@ -6907,19 +6917,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="27"/>
@@ -6929,19 +6939,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="27"/>
@@ -6951,19 +6961,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="27"/>
@@ -6973,19 +6983,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G134" s="21"/>
       <c r="H134" s="27"/>
@@ -6995,19 +7005,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G135" s="21"/>
       <c r="H135" s="27"/>
@@ -7017,19 +7027,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="27"/>
@@ -7039,19 +7049,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="27"/>
@@ -7061,19 +7071,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="27"/>
@@ -7083,19 +7093,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="27"/>
@@ -7105,19 +7115,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G140" s="21"/>
       <c r="H140" s="27"/>
@@ -7127,19 +7137,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="27"/>
@@ -7149,19 +7159,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G142" s="21"/>
       <c r="H142" s="27"/>
@@ -7171,19 +7181,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="27"/>
@@ -7193,19 +7203,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="27"/>
@@ -7215,19 +7225,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
@@ -7237,19 +7247,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="27"/>
@@ -7259,19 +7269,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G147" s="21"/>
       <c r="H147" s="27"/>
@@ -7281,19 +7291,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G148" s="21"/>
       <c r="H148" s="27"/>
@@ -7303,19 +7313,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G149" s="21"/>
       <c r="H149" s="27"/>
@@ -7325,19 +7335,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G150" s="21"/>
       <c r="H150" s="27"/>
@@ -7347,19 +7357,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G151" s="21"/>
       <c r="H151" s="27"/>
@@ -7369,19 +7379,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G152" s="21"/>
       <c r="H152" s="27"/>
@@ -7391,19 +7401,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G153" s="21"/>
       <c r="H153" s="27"/>
@@ -7413,19 +7423,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G154" s="21"/>
       <c r="H154" s="27"/>
@@ -7435,19 +7445,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G155" s="21"/>
       <c r="H155" s="27"/>
@@ -7457,19 +7467,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G156" s="21"/>
       <c r="H156" s="27"/>
@@ -7479,19 +7489,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G157" s="21"/>
       <c r="H157" s="27"/>
@@ -7501,19 +7511,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G158" s="21"/>
       <c r="H158" s="27"/>
@@ -7523,19 +7533,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="27"/>
@@ -7545,19 +7555,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="27"/>
@@ -7567,19 +7577,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G161" s="21"/>
       <c r="H161" s="27"/>
@@ -7589,19 +7599,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G162" s="21"/>
       <c r="H162" s="27"/>
@@ -7611,19 +7621,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G163" s="21"/>
       <c r="H163" s="27"/>
@@ -7633,19 +7643,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G164" s="21"/>
       <c r="H164" s="27"/>
@@ -7655,19 +7665,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G165" s="24"/>
       <c r="H165" s="24"/>
@@ -7677,19 +7687,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
@@ -7699,19 +7709,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
@@ -7721,19 +7731,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G168" s="21"/>
       <c r="H168" s="21"/>
@@ -7743,19 +7753,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
@@ -7765,19 +7775,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
@@ -7787,19 +7797,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G171" s="21"/>
       <c r="H171" s="21"/>
@@ -7809,19 +7819,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G172" s="21"/>
       <c r="H172" s="21"/>
@@ -7831,19 +7841,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G173" s="21"/>
       <c r="H173" s="21"/>
@@ -7853,19 +7863,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G174" s="21"/>
       <c r="H174" s="21"/>
@@ -7875,19 +7885,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G175" s="21"/>
       <c r="H175" s="21"/>
@@ -7897,19 +7907,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
@@ -7919,19 +7929,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
@@ -7941,19 +7951,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
@@ -7963,19 +7973,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
@@ -7985,19 +7995,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
@@ -8007,19 +8017,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
@@ -8029,19 +8039,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
@@ -8051,19 +8061,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G183" s="21"/>
       <c r="H183" s="21"/>
@@ -8073,19 +8083,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G184" s="21"/>
       <c r="H184" s="21"/>
@@ -8095,19 +8105,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G185" s="21"/>
       <c r="H185" s="21"/>
@@ -8117,19 +8127,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
@@ -8139,19 +8149,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
@@ -8161,19 +8171,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
@@ -8183,19 +8193,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G189" s="21"/>
       <c r="H189" s="21"/>
@@ -8205,19 +8215,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
@@ -8227,19 +8237,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G191" s="21"/>
       <c r="H191" s="21"/>
@@ -8249,19 +8259,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
@@ -8271,19 +8281,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
@@ -8293,19 +8303,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
@@ -8315,19 +8325,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
@@ -8337,19 +8347,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
@@ -8359,19 +8369,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
@@ -8381,19 +8391,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
@@ -8403,19 +8413,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
@@ -8425,19 +8435,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
@@ -8447,19 +8457,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
@@ -8469,19 +8479,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
@@ -8491,19 +8501,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
@@ -8513,19 +8523,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
@@ -8535,19 +8545,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
@@ -8557,19 +8567,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G206" s="24"/>
       <c r="H206" s="24"/>
@@ -8579,19 +8589,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
@@ -8601,19 +8611,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
@@ -8623,19 +8633,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
@@ -8645,19 +8655,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
@@ -8667,19 +8677,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
@@ -8689,19 +8699,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G212" s="21"/>
       <c r="H212" s="21"/>
@@ -8711,19 +8721,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
@@ -8733,19 +8743,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
@@ -8755,19 +8765,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G215" s="21"/>
       <c r="H215" s="21"/>
@@ -8777,19 +8787,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G216" s="21"/>
       <c r="H216" s="21"/>
@@ -8799,19 +8809,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G217" s="21"/>
       <c r="H217" s="21"/>
@@ -8821,19 +8831,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
@@ -8843,19 +8853,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G219" s="21"/>
       <c r="H219" s="21"/>
@@ -8865,19 +8875,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
@@ -8887,19 +8897,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E221" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
@@ -8909,19 +8919,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E222" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G222" s="21"/>
       <c r="H222" s="21"/>
@@ -8931,19 +8941,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G223" s="21"/>
       <c r="H223" s="21"/>
@@ -8953,19 +8963,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
@@ -8975,19 +8985,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E225" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
@@ -8997,19 +9007,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E226" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G226" s="21"/>
       <c r="H226" s="21"/>
@@ -9019,19 +9029,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
@@ -9041,19 +9051,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
@@ -9063,19 +9073,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G229" s="21"/>
       <c r="H229" s="21"/>
@@ -9085,19 +9095,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G230" s="21"/>
       <c r="H230" s="21"/>
@@ -9107,19 +9117,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G231" s="21"/>
       <c r="H231" s="21"/>
@@ -9129,19 +9139,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G232" s="21"/>
       <c r="H232" s="21"/>
@@ -9151,19 +9161,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G233" s="21"/>
       <c r="H233" s="21"/>
@@ -9173,19 +9183,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
@@ -9195,19 +9205,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G235" s="21"/>
       <c r="H235" s="21"/>
@@ -9217,19 +9227,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G236" s="21"/>
       <c r="H236" s="21"/>
@@ -9239,19 +9249,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E237" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
@@ -9261,19 +9271,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
@@ -9283,19 +9293,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
@@ -9305,19 +9315,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
@@ -9327,19 +9337,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E241" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
@@ -9349,19 +9359,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G242" s="21"/>
       <c r="H242" s="21"/>
@@ -9371,19 +9381,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G243" s="21"/>
       <c r="H243" s="21"/>
@@ -9393,19 +9403,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
@@ -9415,19 +9425,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
@@ -9437,19 +9447,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
@@ -9459,33 +9469,33 @@
         <v>246</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G247" s="24"/>
       <c r="H247" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9501,331 +9511,331 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
       <c r="C31" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9837,7 +9847,7 @@
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -9848,17 +9858,17 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9878,7 +9888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9898,7 +9908,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -9907,7 +9917,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
@@ -9915,7 +9925,7 @@
       <c r="L1" s="43"/>
       <c r="M1" s="41"/>
       <c r="N1" s="41" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9925,58 +9935,58 @@
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M2" s="33"/>
       <c r="N2" s="29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11360,7 +11370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11374,59 +11384,59 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="11" width="9" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="13"/>
+    <col min="6" max="12" width="9" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>655</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7E914-A5DE-4C5C-B160-CF9FE0273456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2404F-99CC-4EC0-A692-83F3E0DE3753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2404F-99CC-4EC0-A692-83F3E0DE3753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC20DD-24A8-4608-98FE-A289E1930FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数码变焦case自动化部分_Test" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="659">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>超出最大缩放步长，提示错误</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>1,MJPG 3840×2160P 30(P 16:9),5</t>
@@ -109,9 +112,6 @@
   <si>
     <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 预览画面放大2.8或者2.9倍</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
@@ -2341,6 +2341,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2348,26 +2354,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2779,7 +2779,9 @@
       <c r="F2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2787,21 +2789,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,21 +2813,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,22 +2837,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -2858,7 +2864,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>25</v>
@@ -2869,7 +2875,9 @@
       <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="24"/>
     </row>
   </sheetData>
@@ -2898,8 +2906,8 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="16" width="9" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="10" max="17" width="9" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,16 +2923,16 @@
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2932,10 +2940,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2947,20 +2955,20 @@
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="18" t="s">
         <v>38</v>
       </c>
@@ -2970,20 +2978,20 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
         <v>40</v>
       </c>
@@ -2993,22 +3001,22 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3020,20 +3028,20 @@
       <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
@@ -3043,14 +3051,14 @@
       <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -3058,10 +3066,10 @@
       <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3070,42 +3078,42 @@
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3114,41 +3122,41 @@
       <c r="E9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3160,20 +3168,20 @@
       <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
@@ -3183,14 +3191,14 @@
       <c r="E12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -3198,10 +3206,10 @@
       <c r="A13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3210,42 +3218,42 @@
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3254,41 +3262,41 @@
       <c r="E15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3300,20 +3308,20 @@
       <c r="E17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
@@ -3323,14 +3331,14 @@
       <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -3338,10 +3346,10 @@
       <c r="A19" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3350,42 +3358,42 @@
       <c r="E19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3394,41 +3402,41 @@
       <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3440,20 +3448,20 @@
       <c r="E23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
@@ -3463,14 +3471,14 @@
       <c r="E24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -3478,10 +3486,10 @@
       <c r="A25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3490,42 +3498,42 @@
       <c r="E25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3534,41 +3542,41 @@
       <c r="E27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3580,20 +3588,20 @@
       <c r="E29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>65</v>
       </c>
@@ -3603,14 +3611,14 @@
       <c r="E30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -3618,10 +3626,10 @@
       <c r="A31" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3630,42 +3638,42 @@
       <c r="E31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3674,41 +3682,41 @@
       <c r="E33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3720,20 +3728,20 @@
       <c r="E35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>65</v>
       </c>
@@ -3743,14 +3751,14 @@
       <c r="E36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -3758,10 +3766,10 @@
       <c r="A37" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3770,42 +3778,42 @@
       <c r="E37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="30" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3814,41 +3822,41 @@
       <c r="E39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3860,20 +3868,20 @@
       <c r="E41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>65</v>
       </c>
@@ -3883,14 +3891,14 @@
       <c r="E42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -3910,19 +3918,19 @@
       <c r="E43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3937,7 +3945,7 @@
       <c r="E44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3949,7 +3957,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
@@ -3962,7 +3970,7 @@
       <c r="E45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3976,6 +3984,26 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3991,26 +4019,6 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -4030,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4099,19 +4107,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -4487,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -4519,19 +4527,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -4541,19 +4549,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -4566,7 +4574,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>138</v>
@@ -4588,7 +4596,7 @@
         <v>139</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>140</v>
@@ -4610,7 +4618,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>142</v>
@@ -4632,7 +4640,7 @@
         <v>143</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>144</v>
@@ -4654,7 +4662,7 @@
         <v>145</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>146</v>
@@ -4676,7 +4684,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>148</v>
@@ -4698,7 +4706,7 @@
         <v>149</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>150</v>
@@ -4720,7 +4728,7 @@
         <v>151</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>152</v>
@@ -4742,7 +4750,7 @@
         <v>154</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>155</v>
@@ -4764,7 +4772,7 @@
         <v>156</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>157</v>
@@ -4786,7 +4794,7 @@
         <v>158</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>159</v>
@@ -4808,7 +4816,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>161</v>
@@ -4830,7 +4838,7 @@
         <v>162</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>163</v>
@@ -4852,7 +4860,7 @@
         <v>164</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>165</v>
@@ -4874,7 +4882,7 @@
         <v>166</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>167</v>
@@ -4896,7 +4904,7 @@
         <v>168</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>169</v>
@@ -4918,7 +4926,7 @@
         <v>170</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>171</v>
@@ -4927,7 +4935,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -4940,7 +4948,7 @@
         <v>172</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>173</v>
@@ -4962,7 +4970,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>25</v>
@@ -5015,7 +5023,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -5389,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -5433,7 +5441,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
@@ -5455,7 +5463,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -5829,7 +5837,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
@@ -5917,10 +5925,10 @@
         <v>11</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
@@ -5942,7 +5950,7 @@
         <v>84</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
@@ -5964,7 +5972,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
@@ -5986,7 +5994,7 @@
         <v>90</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
@@ -6008,7 +6016,7 @@
         <v>93</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
@@ -6030,7 +6038,7 @@
         <v>97</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
@@ -6052,7 +6060,7 @@
         <v>100</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
@@ -6074,7 +6082,7 @@
         <v>103</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
@@ -6096,7 +6104,7 @@
         <v>107</v>
       </c>
       <c r="G93" s="21"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
@@ -6118,7 +6126,7 @@
         <v>110</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
@@ -6140,7 +6148,7 @@
         <v>113</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
@@ -6162,7 +6170,7 @@
         <v>116</v>
       </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
@@ -6184,7 +6192,7 @@
         <v>119</v>
       </c>
       <c r="G97" s="21"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
@@ -6206,7 +6214,7 @@
         <v>122</v>
       </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -6228,7 +6236,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="21"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
@@ -6250,7 +6258,7 @@
         <v>128</v>
       </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
@@ -6272,7 +6280,7 @@
         <v>131</v>
       </c>
       <c r="G101" s="21"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
@@ -6291,10 +6299,10 @@
         <v>11</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102" s="21"/>
-      <c r="H102" s="27"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
@@ -6316,7 +6324,7 @@
         <v>136</v>
       </c>
       <c r="G103" s="21"/>
-      <c r="H103" s="27"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
@@ -6335,7 +6343,7 @@
         <v>11</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
@@ -6357,10 +6365,10 @@
         <v>11</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="27"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -6382,7 +6390,7 @@
         <v>131</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="27"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
@@ -6404,7 +6412,7 @@
         <v>128</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="27"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
@@ -6426,7 +6434,7 @@
         <v>125</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="27"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
@@ -6448,7 +6456,7 @@
         <v>122</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="27"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
@@ -6470,7 +6478,7 @@
         <v>119</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="27"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
@@ -6492,7 +6500,7 @@
         <v>116</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="27"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
@@ -6514,7 +6522,7 @@
         <v>113</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="27"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
@@ -6536,7 +6544,7 @@
         <v>153</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="27"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
@@ -6558,7 +6566,7 @@
         <v>107</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
@@ -6580,7 +6588,7 @@
         <v>103</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="27"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
@@ -6602,7 +6610,7 @@
         <v>100</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="27"/>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
@@ -6624,7 +6632,7 @@
         <v>97</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="27"/>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
@@ -6646,7 +6654,7 @@
         <v>93</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
@@ -6668,7 +6676,7 @@
         <v>90</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
@@ -6690,7 +6698,7 @@
         <v>87</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
@@ -6712,7 +6720,7 @@
         <v>84</v>
       </c>
       <c r="G121" s="21"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
@@ -6731,10 +6739,10 @@
         <v>11</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G122" s="21"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
@@ -6756,7 +6764,7 @@
         <v>174</v>
       </c>
       <c r="G123" s="21"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24">
@@ -6819,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="27"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
@@ -6844,7 +6852,7 @@
         <v>84</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="27"/>
+      <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
@@ -6866,7 +6874,7 @@
         <v>87</v>
       </c>
       <c r="G128" s="21"/>
-      <c r="H128" s="27"/>
+      <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
@@ -6888,7 +6896,7 @@
         <v>90</v>
       </c>
       <c r="G129" s="21"/>
-      <c r="H129" s="27"/>
+      <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
@@ -6910,7 +6918,7 @@
         <v>93</v>
       </c>
       <c r="G130" s="21"/>
-      <c r="H130" s="27"/>
+      <c r="H130" s="25"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
@@ -6932,7 +6940,7 @@
         <v>97</v>
       </c>
       <c r="G131" s="21"/>
-      <c r="H131" s="27"/>
+      <c r="H131" s="25"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
@@ -6954,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="G132" s="21"/>
-      <c r="H132" s="27"/>
+      <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
@@ -6976,7 +6984,7 @@
         <v>103</v>
       </c>
       <c r="G133" s="21"/>
-      <c r="H133" s="27"/>
+      <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
@@ -6998,7 +7006,7 @@
         <v>107</v>
       </c>
       <c r="G134" s="21"/>
-      <c r="H134" s="27"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
@@ -7020,7 +7028,7 @@
         <v>110</v>
       </c>
       <c r="G135" s="21"/>
-      <c r="H135" s="27"/>
+      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
@@ -7042,7 +7050,7 @@
         <v>113</v>
       </c>
       <c r="G136" s="21"/>
-      <c r="H136" s="27"/>
+      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
@@ -7064,7 +7072,7 @@
         <v>116</v>
       </c>
       <c r="G137" s="21"/>
-      <c r="H137" s="27"/>
+      <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
@@ -7086,7 +7094,7 @@
         <v>119</v>
       </c>
       <c r="G138" s="21"/>
-      <c r="H138" s="27"/>
+      <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
@@ -7108,7 +7116,7 @@
         <v>122</v>
       </c>
       <c r="G139" s="21"/>
-      <c r="H139" s="27"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
@@ -7130,7 +7138,7 @@
         <v>125</v>
       </c>
       <c r="G140" s="21"/>
-      <c r="H140" s="27"/>
+      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
@@ -7152,7 +7160,7 @@
         <v>128</v>
       </c>
       <c r="G141" s="21"/>
-      <c r="H141" s="27"/>
+      <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
@@ -7174,7 +7182,7 @@
         <v>131</v>
       </c>
       <c r="G142" s="21"/>
-      <c r="H142" s="27"/>
+      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
@@ -7193,10 +7201,10 @@
         <v>11</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G143" s="21"/>
-      <c r="H143" s="27"/>
+      <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
@@ -7218,7 +7226,7 @@
         <v>136</v>
       </c>
       <c r="G144" s="21"/>
-      <c r="H144" s="27"/>
+      <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
@@ -7237,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
@@ -7259,10 +7267,10 @@
         <v>11</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G146" s="21"/>
-      <c r="H146" s="27"/>
+      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
@@ -7284,7 +7292,7 @@
         <v>131</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="27"/>
+      <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
@@ -7306,7 +7314,7 @@
         <v>128</v>
       </c>
       <c r="G148" s="21"/>
-      <c r="H148" s="27"/>
+      <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
@@ -7328,7 +7336,7 @@
         <v>125</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="H149" s="27"/>
+      <c r="H149" s="25"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
@@ -7350,7 +7358,7 @@
         <v>122</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="H150" s="27"/>
+      <c r="H150" s="25"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
@@ -7372,7 +7380,7 @@
         <v>119</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="25"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
@@ -7394,7 +7402,7 @@
         <v>116</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="25"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
@@ -7416,7 +7424,7 @@
         <v>113</v>
       </c>
       <c r="G153" s="21"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
@@ -7438,7 +7446,7 @@
         <v>153</v>
       </c>
       <c r="G154" s="21"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
@@ -7460,7 +7468,7 @@
         <v>107</v>
       </c>
       <c r="G155" s="21"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="25"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
@@ -7482,7 +7490,7 @@
         <v>103</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="25"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
@@ -7504,7 +7512,7 @@
         <v>100</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="27"/>
+      <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
@@ -7526,7 +7534,7 @@
         <v>97</v>
       </c>
       <c r="G158" s="21"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="25"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
@@ -7548,7 +7556,7 @@
         <v>93</v>
       </c>
       <c r="G159" s="21"/>
-      <c r="H159" s="27"/>
+      <c r="H159" s="25"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
@@ -7570,7 +7578,7 @@
         <v>90</v>
       </c>
       <c r="G160" s="21"/>
-      <c r="H160" s="27"/>
+      <c r="H160" s="25"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
@@ -7592,7 +7600,7 @@
         <v>87</v>
       </c>
       <c r="G161" s="21"/>
-      <c r="H161" s="27"/>
+      <c r="H161" s="25"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
@@ -7614,7 +7622,7 @@
         <v>84</v>
       </c>
       <c r="G162" s="21"/>
-      <c r="H162" s="27"/>
+      <c r="H162" s="25"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
@@ -7633,10 +7641,10 @@
         <v>11</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G163" s="21"/>
-      <c r="H163" s="27"/>
+      <c r="H163" s="25"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
@@ -7658,7 +7666,7 @@
         <v>174</v>
       </c>
       <c r="G164" s="21"/>
-      <c r="H164" s="27"/>
+      <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24">
@@ -7721,7 +7729,7 @@
         <v>11</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
@@ -8095,7 +8103,7 @@
         <v>11</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G184" s="21"/>
       <c r="H184" s="21"/>
@@ -8139,7 +8147,7 @@
         <v>11</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
@@ -8161,7 +8169,7 @@
         <v>11</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
@@ -8535,7 +8543,7 @@
         <v>11</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
@@ -8623,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
@@ -8997,7 +9005,7 @@
         <v>11</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
@@ -9041,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
@@ -9063,7 +9071,7 @@
         <v>11</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
@@ -9437,7 +9445,7 @@
         <v>11</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
@@ -9521,10 +9529,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9532,8 +9540,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
@@ -9550,314 +9558,314 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="6" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="30" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -9865,8 +9873,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="6" t="s">
         <v>65</v>
       </c>
@@ -9952,7 +9960,7 @@
       <c r="F2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9968,7 +9976,7 @@
       <c r="L2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="29" t="s">
         <v>640</v>
       </c>
@@ -10011,7 +10019,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -10030,7 +10038,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -10076,7 +10084,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -10095,7 +10103,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -10141,7 +10149,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10160,7 +10168,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10206,7 +10214,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10225,7 +10233,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10271,7 +10279,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10290,7 +10298,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10336,7 +10344,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10355,7 +10363,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10401,7 +10409,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10420,7 +10428,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10466,7 +10474,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10485,7 +10493,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10531,7 +10539,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10550,7 +10558,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10596,7 +10604,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10615,7 +10623,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -10661,7 +10669,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -10680,7 +10688,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -10726,7 +10734,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -10745,7 +10753,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -10791,7 +10799,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -10810,7 +10818,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -10856,7 +10864,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -10875,7 +10883,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10921,7 +10929,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10940,7 +10948,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10986,7 +10994,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -11005,7 +11013,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -11051,7 +11059,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -11070,7 +11078,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -11116,7 +11124,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -11135,7 +11143,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11181,7 +11189,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11200,7 +11208,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11246,7 +11254,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11265,7 +11273,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11311,7 +11319,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11330,7 +11338,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11384,8 +11392,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="12" width="9" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="13"/>
+    <col min="6" max="13" width="9" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="数码变焦case自动化部分_Test" sheetId="1" state="visible" r:id="rId1"/>
@@ -319,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -332,20 +326,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -758,10 +758,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -824,17 +824,17 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
+          <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
         </is>
       </c>
       <c r="C2" s="24" t="inlineStr">
         <is>
-          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
+          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
         </is>
       </c>
       <c r="D2" s="24" t="inlineStr">
         <is>
-          <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩放1步长；查看预览画面，移动画面，移动画面，移动画面</t>
+          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
         </is>
       </c>
       <c r="E2" s="24" t="inlineStr">
@@ -855,150 +855,77 @@
       <c r="H2" s="24" t="n"/>
     </row>
     <row r="3" ht="57" customHeight="1" s="23">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>1,MJPG 3840×2160P 30(P 16:9),5</t>
-        </is>
-      </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
-        </is>
-      </c>
-      <c r="D3" s="21" t="inlineStr">
-        <is>
-          <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大5步长；查看预览画面，移动画面，移动画面</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="F3" s="21" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t>0,MJPG 1920×1080P 30(P 16:9),-1</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>使用amcap\potplyer工具打开MJPG 1080P分辨率预览，并处于无变焦状态</t>
+        </is>
+      </c>
+      <c r="D3" s="24" t="inlineStr">
+        <is>
+          <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID缩放1步长；查看预览画面，移动画面</t>
+        </is>
+      </c>
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
+        <is>
+          <t>超出最大缩放步长，提示错误</t>
+        </is>
+      </c>
+      <c r="G3" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="24" t="n"/>
+    </row>
+    <row r="4" ht="57" customHeight="1" s="23">
+      <c r="A4" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t>1,MJPG 1920×1080P 30(P 16:9),5</t>
+        </is>
+      </c>
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>使用amcap\potplyer工具打开MJPG 1080P分辨率预览，并处于无变焦状态</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="inlineStr">
+        <is>
+          <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID放大5步长；查看预览画面，移动画面</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="F4" s="21" t="inlineStr">
         <is>
           <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 预览画面放大1.1倍</t>
         </is>
       </c>
-      <c r="G3" s="21" t="inlineStr">
+      <c r="G4" s="21" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="21" t="n"/>
-    </row>
-    <row r="4" ht="57" customHeight="1" s="23">
-      <c r="A4" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="inlineStr">
-        <is>
-          <t>0,MJPG 3840×2160P 30(P 16:9),53</t>
-        </is>
-      </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大53步长；查看预览画面，移动画面</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>超出最大放大步长，提示错误</t>
-        </is>
-      </c>
-      <c r="G4" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5" ht="57" customHeight="1" s="23">
-      <c r="A5" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="inlineStr">
-        <is>
-          <t>2,MJPG 3840×2160P 30(P 16:9),40,-1</t>
-        </is>
-      </c>
-      <c r="C5" s="21" t="inlineStr">
-        <is>
-          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
-        </is>
-      </c>
-      <c r="D5" s="21" t="inlineStr">
-        <is>
-          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小1步长；查看预览画面，移动画面</t>
-        </is>
-      </c>
-      <c r="E5" s="21" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="F5" s="21" t="inlineStr">
-        <is>
-          <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
-预览画面放大2.8或者2.9倍</t>
-        </is>
-      </c>
-      <c r="G5" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="21" t="n"/>
-    </row>
-    <row r="6" ht="57" customHeight="1" s="23">
-      <c r="A6" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="inlineStr">
-        <is>
-          <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
-        </is>
-      </c>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
-        </is>
-      </c>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="F6" s="24" t="inlineStr">
-        <is>
-          <t>超出最大缩放步长，提示错误</t>
-        </is>
-      </c>
-      <c r="G6" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="n"/>
+      <c r="H4" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,8 +956,8 @@
     <col width="60.5" customWidth="1" style="5" min="7" max="7"/>
     <col width="9" customWidth="1" style="5" min="8" max="8"/>
     <col width="21" customWidth="1" style="5" min="9" max="9"/>
-    <col width="9" customWidth="1" style="5" min="10" max="17"/>
-    <col width="9" customWidth="1" style="5" min="18" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="10" max="20"/>
+    <col width="9" customWidth="1" style="5" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" s="23">
@@ -1054,22 +981,22 @@
           <t>前提条件</t>
         </is>
       </c>
-      <c r="E1" s="33" t="inlineStr">
+      <c r="E1" s="35" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="35" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="35" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="34" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -1081,12 +1008,12 @@
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" s="23">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="34" t="inlineStr">
         <is>
           <t>实时切换</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>预览</t>
         </is>
@@ -1107,7 +1034,7 @@
 2、进行变焦动作</t>
         </is>
       </c>
-      <c r="F2" s="35" t="inlineStr">
+      <c r="F2" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1126,8 +1053,8 @@
       <c r="I2" s="4" t="n"/>
     </row>
     <row r="3" ht="47.25" customHeight="1" s="23">
-      <c r="A3" s="31" t="n"/>
-      <c r="B3" s="31" t="n"/>
+      <c r="A3" s="33" t="n"/>
+      <c r="B3" s="33" t="n"/>
       <c r="C3" s="18" t="inlineStr">
         <is>
           <t>重新打开预览</t>
@@ -1145,7 +1072,7 @@
 3、进行变焦动作</t>
         </is>
       </c>
-      <c r="F3" s="35" t="inlineStr">
+      <c r="F3" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1164,8 +1091,8 @@
       <c r="I3" s="4" t="n"/>
     </row>
     <row r="4" ht="47.25" customHeight="1" s="23">
-      <c r="A4" s="32" t="n"/>
-      <c r="B4" s="32" t="n"/>
+      <c r="A4" s="31" t="n"/>
+      <c r="B4" s="31" t="n"/>
       <c r="C4" s="19" t="inlineStr">
         <is>
           <t>上电切换模式</t>
@@ -1183,7 +1110,7 @@
 3、进行变焦动作</t>
         </is>
       </c>
-      <c r="F4" s="35" t="inlineStr">
+      <c r="F4" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1202,12 +1129,12 @@
       <c r="I4" s="4" t="n"/>
     </row>
     <row r="5" ht="58.5" customHeight="1" s="23">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="34" t="inlineStr">
         <is>
           <t>放大区域</t>
         </is>
       </c>
-      <c r="B5" s="33" t="inlineStr">
+      <c r="B5" s="35" t="inlineStr">
         <is>
           <t>移动功能</t>
         </is>
@@ -1229,7 +1156,7 @@
 3、使用HID工具移动放大区域（对角线）</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1248,8 +1175,8 @@
       <c r="I5" s="4" t="n"/>
     </row>
     <row r="6" ht="84.75" customHeight="1" s="23">
-      <c r="A6" s="32" t="n"/>
-      <c r="B6" s="32" t="n"/>
+      <c r="A6" s="31" t="n"/>
+      <c r="B6" s="31" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>顺序移动</t>
@@ -1267,7 +1194,7 @@
 3、使用HID工具移动放大区域（每个方向移动到底后移动其他方向）—— 需要分别覆盖不同移动像素</t>
         </is>
       </c>
-      <c r="F6" s="35" t="inlineStr">
+      <c r="F6" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1291,12 +1218,12 @@
           <t>MJPG 3840*2160</t>
         </is>
       </c>
-      <c r="B7" s="35" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C7" s="34" t="inlineStr">
+      <c r="C7" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -1311,7 +1238,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F7" s="35" t="inlineStr">
+      <c r="F7" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1329,9 +1256,9 @@
       <c r="I7" s="6" t="n"/>
     </row>
     <row r="8" ht="28.5" customHeight="1" s="23">
-      <c r="A8" s="31" t="n"/>
-      <c r="B8" s="31" t="n"/>
-      <c r="C8" s="32" t="n"/>
+      <c r="A8" s="33" t="n"/>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="31" t="n"/>
       <c r="D8" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1342,7 +1269,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F8" s="35" t="inlineStr">
+      <c r="F8" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1360,9 +1287,9 @@
       <c r="I8" s="6" t="n"/>
     </row>
     <row r="9" ht="28.5" customHeight="1" s="23">
-      <c r="A9" s="31" t="n"/>
-      <c r="B9" s="31" t="n"/>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -1377,7 +1304,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F9" s="35" t="inlineStr">
+      <c r="F9" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1395,9 +1322,9 @@
       <c r="I9" s="6" t="n"/>
     </row>
     <row r="10" ht="28.5" customHeight="1" s="23">
-      <c r="A10" s="31" t="n"/>
-      <c r="B10" s="32" t="n"/>
-      <c r="C10" s="32" t="n"/>
+      <c r="A10" s="33" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
       <c r="D10" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1408,7 +1335,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F10" s="35" t="inlineStr">
+      <c r="F10" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1426,8 +1353,8 @@
       <c r="I10" s="6" t="n"/>
     </row>
     <row r="11" ht="28.5" customHeight="1" s="23">
-      <c r="A11" s="31" t="n"/>
-      <c r="B11" s="35" t="inlineStr">
+      <c r="A11" s="33" t="n"/>
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -1447,7 +1374,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F11" s="35" t="inlineStr">
+      <c r="F11" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1465,8 +1392,8 @@
       <c r="I11" s="6" t="n"/>
     </row>
     <row r="12" ht="28.5" customHeight="1" s="23">
-      <c r="A12" s="31" t="n"/>
-      <c r="B12" s="32" t="n"/>
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="31" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -1482,7 +1409,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F12" s="35" t="inlineStr">
+      <c r="F12" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1505,12 +1432,12 @@
           <t>MJPG 1920*1080</t>
         </is>
       </c>
-      <c r="B13" s="35" t="inlineStr">
+      <c r="B13" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C13" s="34" t="inlineStr">
+      <c r="C13" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -1525,7 +1452,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F13" s="35" t="inlineStr">
+      <c r="F13" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1543,9 +1470,9 @@
       <c r="I13" s="6" t="n"/>
     </row>
     <row r="14" ht="28.5" customHeight="1" s="23">
-      <c r="A14" s="31" t="n"/>
-      <c r="B14" s="31" t="n"/>
-      <c r="C14" s="32" t="n"/>
+      <c r="A14" s="33" t="n"/>
+      <c r="B14" s="33" t="n"/>
+      <c r="C14" s="31" t="n"/>
       <c r="D14" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1556,7 +1483,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F14" s="35" t="inlineStr">
+      <c r="F14" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1574,9 +1501,9 @@
       <c r="I14" s="6" t="n"/>
     </row>
     <row r="15" ht="28.5" customHeight="1" s="23">
-      <c r="A15" s="31" t="n"/>
-      <c r="B15" s="31" t="n"/>
-      <c r="C15" s="34" t="inlineStr">
+      <c r="A15" s="33" t="n"/>
+      <c r="B15" s="33" t="n"/>
+      <c r="C15" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -1591,7 +1518,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F15" s="35" t="inlineStr">
+      <c r="F15" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1609,9 +1536,9 @@
       <c r="I15" s="6" t="n"/>
     </row>
     <row r="16" ht="28.5" customHeight="1" s="23">
-      <c r="A16" s="31" t="n"/>
-      <c r="B16" s="32" t="n"/>
-      <c r="C16" s="32" t="n"/>
+      <c r="A16" s="33" t="n"/>
+      <c r="B16" s="31" t="n"/>
+      <c r="C16" s="31" t="n"/>
       <c r="D16" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1622,7 +1549,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F16" s="35" t="inlineStr">
+      <c r="F16" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1640,8 +1567,8 @@
       <c r="I16" s="6" t="n"/>
     </row>
     <row r="17" ht="28.5" customHeight="1" s="23">
-      <c r="A17" s="31" t="n"/>
-      <c r="B17" s="35" t="inlineStr">
+      <c r="A17" s="33" t="n"/>
+      <c r="B17" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -1661,7 +1588,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F17" s="35" t="inlineStr">
+      <c r="F17" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1679,8 +1606,8 @@
       <c r="I17" s="6" t="n"/>
     </row>
     <row r="18" ht="28.5" customHeight="1" s="23">
-      <c r="A18" s="32" t="n"/>
-      <c r="B18" s="32" t="n"/>
+      <c r="A18" s="31" t="n"/>
+      <c r="B18" s="31" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -1696,7 +1623,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F18" s="35" t="inlineStr">
+      <c r="F18" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1719,12 +1646,12 @@
           <t>MJPG 1280*720</t>
         </is>
       </c>
-      <c r="B19" s="35" t="inlineStr">
+      <c r="B19" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C19" s="34" t="inlineStr">
+      <c r="C19" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -1739,7 +1666,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F19" s="35" t="inlineStr">
+      <c r="F19" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1757,9 +1684,9 @@
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20" ht="28.5" customHeight="1" s="23">
-      <c r="A20" s="31" t="n"/>
-      <c r="B20" s="31" t="n"/>
-      <c r="C20" s="32" t="n"/>
+      <c r="A20" s="33" t="n"/>
+      <c r="B20" s="33" t="n"/>
+      <c r="C20" s="31" t="n"/>
       <c r="D20" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1770,7 +1697,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F20" s="35" t="inlineStr">
+      <c r="F20" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1788,9 +1715,9 @@
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" ht="28.5" customHeight="1" s="23">
-      <c r="A21" s="31" t="n"/>
-      <c r="B21" s="31" t="n"/>
-      <c r="C21" s="34" t="inlineStr">
+      <c r="A21" s="33" t="n"/>
+      <c r="B21" s="33" t="n"/>
+      <c r="C21" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -1805,7 +1732,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F21" s="35" t="inlineStr">
+      <c r="F21" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1823,9 +1750,9 @@
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" ht="28.5" customHeight="1" s="23">
-      <c r="A22" s="31" t="n"/>
-      <c r="B22" s="32" t="n"/>
-      <c r="C22" s="32" t="n"/>
+      <c r="A22" s="33" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
       <c r="D22" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1836,7 +1763,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F22" s="35" t="inlineStr">
+      <c r="F22" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -1854,8 +1781,8 @@
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="31" t="n"/>
-      <c r="B23" s="35" t="inlineStr">
+      <c r="A23" s="33" t="n"/>
+      <c r="B23" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -1875,7 +1802,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F23" s="35" t="inlineStr">
+      <c r="F23" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1893,8 +1820,8 @@
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="n"/>
-      <c r="B24" s="32" t="n"/>
+      <c r="A24" s="31" t="n"/>
+      <c r="B24" s="31" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -1910,7 +1837,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F24" s="35" t="inlineStr">
+      <c r="F24" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1933,12 +1860,12 @@
           <t>H264 3840*2160</t>
         </is>
       </c>
-      <c r="B25" s="35" t="inlineStr">
+      <c r="B25" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C25" s="34" t="inlineStr">
+      <c r="C25" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -1953,7 +1880,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F25" s="35" t="inlineStr">
+      <c r="F25" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -1971,9 +1898,9 @@
       <c r="I25" s="6" t="n"/>
     </row>
     <row r="26" ht="28.5" customHeight="1" s="23">
-      <c r="A26" s="31" t="n"/>
-      <c r="B26" s="31" t="n"/>
-      <c r="C26" s="32" t="n"/>
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="31" t="n"/>
       <c r="D26" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -1984,7 +1911,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F26" s="35" t="inlineStr">
+      <c r="F26" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2002,9 +1929,9 @@
       <c r="I26" s="6" t="n"/>
     </row>
     <row r="27" ht="28.5" customHeight="1" s="23">
-      <c r="A27" s="31" t="n"/>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="34" t="inlineStr">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -2019,7 +1946,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F27" s="35" t="inlineStr">
+      <c r="F27" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2037,9 +1964,9 @@
       <c r="I27" s="6" t="n"/>
     </row>
     <row r="28" ht="28.5" customHeight="1" s="23">
-      <c r="A28" s="31" t="n"/>
-      <c r="B28" s="32" t="n"/>
-      <c r="C28" s="32" t="n"/>
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="31" t="n"/>
       <c r="D28" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -2050,7 +1977,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F28" s="35" t="inlineStr">
+      <c r="F28" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2068,8 +1995,8 @@
       <c r="I28" s="6" t="n"/>
     </row>
     <row r="29" ht="28.5" customHeight="1" s="23">
-      <c r="A29" s="31" t="n"/>
-      <c r="B29" s="35" t="inlineStr">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -2089,7 +2016,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F29" s="35" t="inlineStr">
+      <c r="F29" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2107,8 +2034,8 @@
       <c r="I29" s="6" t="n"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" s="23">
-      <c r="A30" s="32" t="n"/>
-      <c r="B30" s="32" t="n"/>
+      <c r="A30" s="31" t="n"/>
+      <c r="B30" s="31" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -2124,7 +2051,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F30" s="35" t="inlineStr">
+      <c r="F30" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2147,12 +2074,12 @@
           <t>H264 1920*1080</t>
         </is>
       </c>
-      <c r="B31" s="35" t="inlineStr">
+      <c r="B31" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C31" s="34" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -2167,7 +2094,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F31" s="35" t="inlineStr">
+      <c r="F31" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2185,9 +2112,9 @@
       <c r="I31" s="6" t="n"/>
     </row>
     <row r="32" ht="28.5" customHeight="1" s="23">
-      <c r="A32" s="31" t="n"/>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="32" t="n"/>
+      <c r="A32" s="33" t="n"/>
+      <c r="B32" s="33" t="n"/>
+      <c r="C32" s="31" t="n"/>
       <c r="D32" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -2198,7 +2125,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F32" s="35" t="inlineStr">
+      <c r="F32" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2216,9 +2143,9 @@
       <c r="I32" s="6" t="n"/>
     </row>
     <row r="33" ht="28.5" customHeight="1" s="23">
-      <c r="A33" s="31" t="n"/>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="A33" s="33" t="n"/>
+      <c r="B33" s="33" t="n"/>
+      <c r="C33" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -2233,7 +2160,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F33" s="35" t="inlineStr">
+      <c r="F33" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2251,9 +2178,9 @@
       <c r="I33" s="6" t="n"/>
     </row>
     <row r="34" ht="28.5" customHeight="1" s="23">
-      <c r="A34" s="31" t="n"/>
-      <c r="B34" s="32" t="n"/>
-      <c r="C34" s="32" t="n"/>
+      <c r="A34" s="33" t="n"/>
+      <c r="B34" s="31" t="n"/>
+      <c r="C34" s="31" t="n"/>
       <c r="D34" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -2264,7 +2191,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F34" s="35" t="inlineStr">
+      <c r="F34" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2282,8 +2209,8 @@
       <c r="I34" s="6" t="n"/>
     </row>
     <row r="35" ht="28.5" customHeight="1" s="23">
-      <c r="A35" s="31" t="n"/>
-      <c r="B35" s="35" t="inlineStr">
+      <c r="A35" s="33" t="n"/>
+      <c r="B35" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -2303,7 +2230,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F35" s="35" t="inlineStr">
+      <c r="F35" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2321,8 +2248,8 @@
       <c r="I35" s="6" t="n"/>
     </row>
     <row r="36" ht="28.5" customHeight="1" s="23">
-      <c r="A36" s="32" t="n"/>
-      <c r="B36" s="32" t="n"/>
+      <c r="A36" s="31" t="n"/>
+      <c r="B36" s="31" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -2338,7 +2265,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F36" s="35" t="inlineStr">
+      <c r="F36" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2361,12 +2288,12 @@
           <t>H264 1280*720</t>
         </is>
       </c>
-      <c r="B37" s="35" t="inlineStr">
+      <c r="B37" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C37" s="34" t="inlineStr">
+      <c r="C37" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
@@ -2381,7 +2308,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F37" s="35" t="inlineStr">
+      <c r="F37" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2399,9 +2326,9 @@
       <c r="I37" s="6" t="n"/>
     </row>
     <row r="38" ht="28.5" customHeight="1" s="23">
-      <c r="A38" s="31" t="n"/>
-      <c r="B38" s="31" t="n"/>
-      <c r="C38" s="32" t="n"/>
+      <c r="A38" s="33" t="n"/>
+      <c r="B38" s="33" t="n"/>
+      <c r="C38" s="31" t="n"/>
       <c r="D38" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -2412,7 +2339,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F38" s="35" t="inlineStr">
+      <c r="F38" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2430,9 +2357,9 @@
       <c r="I38" s="6" t="n"/>
     </row>
     <row r="39" ht="28.5" customHeight="1" s="23">
-      <c r="A39" s="31" t="n"/>
-      <c r="B39" s="31" t="n"/>
-      <c r="C39" s="34" t="inlineStr">
+      <c r="A39" s="33" t="n"/>
+      <c r="B39" s="33" t="n"/>
+      <c r="C39" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
@@ -2447,7 +2374,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F39" s="35" t="inlineStr">
+      <c r="F39" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2465,9 +2392,9 @@
       <c r="I39" s="6" t="n"/>
     </row>
     <row r="40" ht="28.5" customHeight="1" s="23">
-      <c r="A40" s="31" t="n"/>
-      <c r="B40" s="32" t="n"/>
-      <c r="C40" s="32" t="n"/>
+      <c r="A40" s="33" t="n"/>
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="31" t="n"/>
       <c r="D40" s="6" t="inlineStr">
         <is>
           <t>设置步长为20步长</t>
@@ -2478,7 +2405,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小</t>
         </is>
       </c>
-      <c r="F40" s="35" t="inlineStr">
+      <c r="F40" s="32" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
@@ -2496,8 +2423,8 @@
       <c r="I40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="31" t="n"/>
-      <c r="B41" s="35" t="inlineStr">
+      <c r="A41" s="33" t="n"/>
+      <c r="B41" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -2517,7 +2444,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F41" s="35" t="inlineStr">
+      <c r="F41" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2535,8 +2462,8 @@
       <c r="I41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="32" t="n"/>
-      <c r="B42" s="32" t="n"/>
+      <c r="A42" s="31" t="n"/>
+      <c r="B42" s="31" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -2552,7 +2479,7 @@
           <t>点击复位</t>
         </is>
       </c>
-      <c r="F42" s="35" t="inlineStr">
+      <c r="F42" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2595,7 +2522,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小，对角和顺序移动至上下左右最边缘，恢复</t>
         </is>
       </c>
-      <c r="F43" s="35" t="inlineStr">
+      <c r="F43" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2613,7 +2540,7 @@
       <c r="I43" s="6" t="n"/>
     </row>
     <row r="44" ht="42.75" customHeight="1" s="23">
-      <c r="A44" s="34" t="inlineStr">
+      <c r="A44" s="30" t="inlineStr">
         <is>
           <t>视场角</t>
         </is>
@@ -2638,7 +2565,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小，对角和顺序移动至上下左右最边缘，恢复</t>
         </is>
       </c>
-      <c r="F44" s="35" t="inlineStr">
+      <c r="F44" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2656,7 +2583,7 @@
       <c r="I44" s="6" t="n"/>
     </row>
     <row r="45" ht="42.75" customHeight="1" s="23">
-      <c r="A45" s="32" t="n"/>
+      <c r="A45" s="31" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
           <t>72°</t>
@@ -2677,7 +2604,7 @@
           <t>预览时点击放大至最大，之后点击缩小至最小，对角和顺序移动至上下左右最边缘，恢复</t>
         </is>
       </c>
-      <c r="F45" s="35" t="inlineStr">
+      <c r="F45" s="32" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
@@ -2697,26 +2624,6 @@
   </sheetData>
   <autoFilter ref="A1:I45"/>
   <mergeCells count="35">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -2732,6 +2639,26 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="H1">
     <cfRule type="containsText" priority="3" operator="containsText" dxfId="1" text="Fail">
@@ -2754,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -2841,7 +2768,11 @@
           <t>超出最大缩放步长，提示错误</t>
         </is>
       </c>
-      <c r="G2" s="24" t="n"/>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H2" s="24" t="n"/>
     </row>
     <row r="3" ht="57" customHeight="1" s="23">
@@ -2874,7 +2805,11 @@
 预览画面放大1.1倍</t>
         </is>
       </c>
-      <c r="G3" s="21" t="n"/>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H3" s="21" t="n"/>
     </row>
     <row r="4" ht="57" customHeight="1" s="23">
@@ -2907,7 +2842,11 @@
 预览画面放大1.2倍</t>
         </is>
       </c>
-      <c r="G4" s="21" t="n"/>
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H4" s="21" t="n"/>
     </row>
     <row r="5" ht="57" customHeight="1" s="23">
@@ -2926,7 +2865,7 @@
       </c>
       <c r="D5" s="21" t="inlineStr">
         <is>
-          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大14步长；查看预览画面，移动画面，移动画面</t>
+          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大14步长；查看预览</t>
         </is>
       </c>
       <c r="E5" s="21" t="inlineStr">
@@ -2940,7 +2879,11 @@
 预览画面放大1.3倍</t>
         </is>
       </c>
-      <c r="G5" s="21" t="n"/>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H5" s="21" t="n"/>
     </row>
     <row r="6" ht="57" customHeight="1" s="23">
@@ -2973,7 +2916,11 @@
 预览画面放大1.4倍</t>
         </is>
       </c>
-      <c r="G6" s="21" t="n"/>
+      <c r="G6" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H6" s="21" t="n"/>
     </row>
     <row r="7" ht="57" customHeight="1" s="23">
@@ -3008,7 +2955,7 @@
       </c>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H7" s="21" t="n"/>
@@ -3029,7 +2976,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大23步长；查看预览画面，移动画面</t>
+          <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大23步</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -3043,7 +2990,11 @@
 预览画面放大1.6倍</t>
         </is>
       </c>
-      <c r="G8" s="21" t="n"/>
+      <c r="G8" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H8" s="21" t="n"/>
     </row>
     <row r="9" ht="57" customHeight="1" s="23">
@@ -3076,7 +3027,11 @@
 预览画面放大1.7倍</t>
         </is>
       </c>
-      <c r="G9" s="21" t="n"/>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H9" s="21" t="n"/>
     </row>
     <row r="10" ht="57" customHeight="1" s="23">
@@ -3109,7 +3064,11 @@
 预览画面放大1.8倍</t>
         </is>
       </c>
-      <c r="G10" s="21" t="n"/>
+      <c r="G10" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H10" s="21" t="n"/>
     </row>
     <row r="11" ht="57" customHeight="1" s="23">
@@ -3142,7 +3101,11 @@
 预览画面放大1.9倍</t>
         </is>
       </c>
-      <c r="G11" s="21" t="n"/>
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H11" s="21" t="n"/>
     </row>
     <row r="12" ht="57" customHeight="1" s="23">
@@ -3175,7 +3138,11 @@
 预览画面放大2倍</t>
         </is>
       </c>
-      <c r="G12" s="21" t="n"/>
+      <c r="G12" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H12" s="21" t="n"/>
     </row>
     <row r="13" ht="57" customHeight="1" s="23">
@@ -3208,7 +3175,11 @@
 预览画面放大2.1倍</t>
         </is>
       </c>
-      <c r="G13" s="21" t="n"/>
+      <c r="G13" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H13" s="21" t="n"/>
     </row>
     <row r="14" ht="57" customHeight="1" s="23">
@@ -3241,7 +3212,11 @@
 预览画面放大2.2倍</t>
         </is>
       </c>
-      <c r="G14" s="21" t="n"/>
+      <c r="G14" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H14" s="21" t="n"/>
     </row>
     <row r="15" ht="57" customHeight="1" s="23">
@@ -3270,11 +3245,14 @@
       </c>
       <c r="F15" s="21" t="inlineStr">
         <is>
-          <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
-预览画面放大2.3倍</t>
-        </is>
-      </c>
-      <c r="G15" s="21" t="n"/>
+          <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H15" s="21" t="n"/>
     </row>
     <row r="16" ht="57" customHeight="1" s="23">
@@ -3307,7 +3285,11 @@
 预览画面放大2.4倍</t>
         </is>
       </c>
-      <c r="G16" s="21" t="n"/>
+      <c r="G16" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H16" s="21" t="n"/>
     </row>
     <row r="17" ht="57" customHeight="1" s="23">
@@ -3340,7 +3322,11 @@
 预览画面放大2.5倍</t>
         </is>
       </c>
-      <c r="G17" s="21" t="n"/>
+      <c r="G17" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H17" s="21" t="n"/>
     </row>
     <row r="18" ht="57" customHeight="1" s="23">
@@ -3373,7 +3359,11 @@
 预览画面放大2.6倍</t>
         </is>
       </c>
-      <c r="G18" s="21" t="n"/>
+      <c r="G18" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H18" s="21" t="n"/>
     </row>
     <row r="19" ht="57" customHeight="1" s="23">
@@ -3406,7 +3396,11 @@
 预览画面放大2.7倍</t>
         </is>
       </c>
-      <c r="G19" s="21" t="n"/>
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H19" s="21" t="n"/>
     </row>
     <row r="20" ht="57" customHeight="1" s="23">
@@ -3439,7 +3433,11 @@
 预览画面放大2.8或者2.9倍</t>
         </is>
       </c>
-      <c r="G20" s="21" t="n"/>
+      <c r="G20" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H20" s="21" t="n"/>
     </row>
     <row r="21" ht="57" customHeight="1" s="23">
@@ -3472,7 +3470,11 @@
 预览画面放大3倍</t>
         </is>
       </c>
-      <c r="G21" s="21" t="n"/>
+      <c r="G21" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H21" s="21" t="n"/>
     </row>
     <row r="22" ht="57" customHeight="1" s="23">
@@ -3504,7 +3506,11 @@
           <t>超出最大放大步长，提示错误</t>
         </is>
       </c>
-      <c r="G22" s="24" t="n"/>
+      <c r="G22" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H22" s="24" t="n"/>
     </row>
     <row r="23" ht="57" customHeight="1" s="23">
@@ -3537,7 +3543,11 @@
 预览画面放大2.8或者2.9倍</t>
         </is>
       </c>
-      <c r="G23" s="21" t="n"/>
+      <c r="G23" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H23" s="21" t="n"/>
     </row>
     <row r="24" ht="57" customHeight="1" s="23">
@@ -3570,7 +3580,11 @@
 预览画面放大2.7倍</t>
         </is>
       </c>
-      <c r="G24" s="21" t="n"/>
+      <c r="G24" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H24" s="21" t="n"/>
     </row>
     <row r="25" ht="57" customHeight="1" s="23">
@@ -3603,7 +3617,11 @@
 预览画面放大2.6倍</t>
         </is>
       </c>
-      <c r="G25" s="21" t="n"/>
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H25" s="21" t="n"/>
     </row>
     <row r="26" ht="57" customHeight="1" s="23">
@@ -3636,7 +3654,11 @@
 预览画面放大2.5倍</t>
         </is>
       </c>
-      <c r="G26" s="21" t="n"/>
+      <c r="G26" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H26" s="21" t="n"/>
     </row>
     <row r="27" ht="57" customHeight="1" s="23">
@@ -3669,7 +3691,11 @@
 预览画面放大2.4倍</t>
         </is>
       </c>
-      <c r="G27" s="21" t="n"/>
+      <c r="G27" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H27" s="21" t="n"/>
     </row>
     <row r="28" ht="57" customHeight="1" s="23">
@@ -3702,7 +3728,11 @@
 预览画面放大2.3倍</t>
         </is>
       </c>
-      <c r="G28" s="21" t="n"/>
+      <c r="G28" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H28" s="21" t="n"/>
     </row>
     <row r="29" ht="57" customHeight="1" s="23">
@@ -3735,7 +3765,11 @@
 预览画面放大2.2倍</t>
         </is>
       </c>
-      <c r="G29" s="21" t="n"/>
+      <c r="G29" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H29" s="21" t="n"/>
     </row>
     <row r="30" ht="57" customHeight="1" s="23">
@@ -3768,7 +3802,11 @@
 预览画面放大2.1倍</t>
         </is>
       </c>
-      <c r="G30" s="21" t="n"/>
+      <c r="G30" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H30" s="21" t="n"/>
     </row>
     <row r="31" ht="57" customHeight="1" s="23">
@@ -3801,7 +3839,11 @@
 预览画面放大2.0倍</t>
         </is>
       </c>
-      <c r="G31" s="21" t="n"/>
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H31" s="21" t="n"/>
     </row>
     <row r="32" ht="57" customHeight="1" s="23">
@@ -3834,7 +3876,11 @@
 预览画面放大1.9倍</t>
         </is>
       </c>
-      <c r="G32" s="21" t="n"/>
+      <c r="G32" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H32" s="21" t="n"/>
     </row>
     <row r="33" ht="57" customHeight="1" s="23">
@@ -3867,7 +3913,11 @@
 预览画面放大1.8倍</t>
         </is>
       </c>
-      <c r="G33" s="21" t="n"/>
+      <c r="G33" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H33" s="21" t="n"/>
     </row>
     <row r="34" ht="57" customHeight="1" s="23">
@@ -3900,7 +3950,11 @@
 预览画面放大1.7倍</t>
         </is>
       </c>
-      <c r="G34" s="21" t="n"/>
+      <c r="G34" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H34" s="21" t="n"/>
     </row>
     <row r="35" ht="57" customHeight="1" s="23">
@@ -3933,7 +3987,11 @@
 预览画面放大1.6倍</t>
         </is>
       </c>
-      <c r="G35" s="21" t="n"/>
+      <c r="G35" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H35" s="21" t="n"/>
     </row>
     <row r="36" ht="57" customHeight="1" s="23">
@@ -3966,7 +4024,11 @@
 预览画面放大1.5倍</t>
         </is>
       </c>
-      <c r="G36" s="21" t="n"/>
+      <c r="G36" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H36" s="21" t="n"/>
     </row>
     <row r="37" ht="57" customHeight="1" s="23">
@@ -3999,7 +4061,11 @@
 预览画面放大1.4倍</t>
         </is>
       </c>
-      <c r="G37" s="21" t="n"/>
+      <c r="G37" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H37" s="21" t="n"/>
     </row>
     <row r="38" ht="57" customHeight="1" s="23">
@@ -4032,7 +4098,11 @@
 预览画面放大1.3倍</t>
         </is>
       </c>
-      <c r="G38" s="21" t="n"/>
+      <c r="G38" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H38" s="21" t="n"/>
     </row>
     <row r="39" ht="57" customHeight="1" s="23">
@@ -4065,7 +4135,11 @@
 预览画面放大1.2倍</t>
         </is>
       </c>
-      <c r="G39" s="21" t="n"/>
+      <c r="G39" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H39" s="21" t="n"/>
     </row>
     <row r="40" ht="57" customHeight="1" s="23">
@@ -4098,7 +4172,11 @@
 预览画面放大1.1倍</t>
         </is>
       </c>
-      <c r="G40" s="21" t="n"/>
+      <c r="G40" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H40" s="21" t="n"/>
     </row>
     <row r="41" ht="57" customHeight="1" s="23">
@@ -4131,7 +4209,11 @@
 预览画面变焦回原图</t>
         </is>
       </c>
-      <c r="G41" s="21" t="n"/>
+      <c r="G41" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H41" s="21" t="n"/>
     </row>
     <row r="42" ht="42" customHeight="1" s="23">
@@ -4163,7 +4245,11 @@
           <t>超出最大缩放步长，提示错误</t>
         </is>
       </c>
-      <c r="G42" s="24" t="n"/>
+      <c r="G42" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H42" s="24" t="n"/>
     </row>
     <row r="43" ht="63.75" customHeight="1" s="23">
@@ -4195,7 +4281,11 @@
           <t>超出最大缩放步长，提示错误</t>
         </is>
       </c>
-      <c r="G43" s="24" t="n"/>
+      <c r="G43" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="H43" s="24" t="n"/>
     </row>
     <row r="44" ht="63.75" customHeight="1" s="23">
@@ -5579,7 +5669,7 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="34" t="n"/>
+      <c r="H85" s="30" t="n"/>
     </row>
     <row r="86" ht="57" customHeight="1" s="23">
       <c r="A86" s="21" t="n">
@@ -5612,7 +5702,7 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="34" t="n"/>
+      <c r="H86" s="30" t="n"/>
     </row>
     <row r="87" ht="57" customHeight="1" s="23">
       <c r="A87" s="21" t="n">
@@ -5645,7 +5735,7 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="34" t="n"/>
+      <c r="H87" s="30" t="n"/>
     </row>
     <row r="88" ht="57" customHeight="1" s="23">
       <c r="A88" s="21" t="n">
@@ -5678,7 +5768,7 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="34" t="n"/>
+      <c r="H88" s="30" t="n"/>
     </row>
     <row r="89" ht="57" customHeight="1" s="23">
       <c r="A89" s="21" t="n">
@@ -5711,7 +5801,7 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="34" t="n"/>
+      <c r="H89" s="30" t="n"/>
     </row>
     <row r="90" ht="57" customHeight="1" s="23">
       <c r="A90" s="21" t="n">
@@ -5744,7 +5834,7 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="34" t="n"/>
+      <c r="H90" s="30" t="n"/>
     </row>
     <row r="91" ht="57" customHeight="1" s="23">
       <c r="A91" s="21" t="n">
@@ -5777,7 +5867,7 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="34" t="n"/>
+      <c r="H91" s="30" t="n"/>
     </row>
     <row r="92" ht="57" customHeight="1" s="23">
       <c r="A92" s="21" t="n">
@@ -5810,7 +5900,7 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="34" t="n"/>
+      <c r="H92" s="30" t="n"/>
     </row>
     <row r="93" ht="57" customHeight="1" s="23">
       <c r="A93" s="21" t="n">
@@ -5843,7 +5933,7 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="34" t="n"/>
+      <c r="H93" s="30" t="n"/>
     </row>
     <row r="94" ht="57" customHeight="1" s="23">
       <c r="A94" s="21" t="n">
@@ -5876,7 +5966,7 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="34" t="n"/>
+      <c r="H94" s="30" t="n"/>
     </row>
     <row r="95" ht="57" customHeight="1" s="23">
       <c r="A95" s="21" t="n">
@@ -5909,7 +5999,7 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="34" t="n"/>
+      <c r="H95" s="30" t="n"/>
     </row>
     <row r="96" ht="57" customHeight="1" s="23">
       <c r="A96" s="21" t="n">
@@ -5942,7 +6032,7 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="34" t="n"/>
+      <c r="H96" s="30" t="n"/>
     </row>
     <row r="97" ht="57" customHeight="1" s="23">
       <c r="A97" s="21" t="n">
@@ -5975,7 +6065,7 @@
         </is>
       </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="34" t="n"/>
+      <c r="H97" s="30" t="n"/>
     </row>
     <row r="98" ht="57" customHeight="1" s="23">
       <c r="A98" s="21" t="n">
@@ -6008,7 +6098,7 @@
         </is>
       </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="34" t="n"/>
+      <c r="H98" s="30" t="n"/>
     </row>
     <row r="99" ht="57" customHeight="1" s="23">
       <c r="A99" s="21" t="n">
@@ -6041,7 +6131,7 @@
         </is>
       </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="34" t="n"/>
+      <c r="H99" s="30" t="n"/>
     </row>
     <row r="100" ht="57" customHeight="1" s="23">
       <c r="A100" s="21" t="n">
@@ -6074,7 +6164,7 @@
         </is>
       </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="34" t="n"/>
+      <c r="H100" s="30" t="n"/>
     </row>
     <row r="101" ht="57" customHeight="1" s="23">
       <c r="A101" s="21" t="n">
@@ -6107,7 +6197,7 @@
         </is>
       </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="34" t="n"/>
+      <c r="H101" s="30" t="n"/>
     </row>
     <row r="102" ht="57" customHeight="1" s="23">
       <c r="A102" s="21" t="n">
@@ -6140,7 +6230,7 @@
         </is>
       </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="34" t="n"/>
+      <c r="H102" s="30" t="n"/>
     </row>
     <row r="103" ht="57" customHeight="1" s="23">
       <c r="A103" s="21" t="n">
@@ -6173,7 +6263,7 @@
         </is>
       </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="34" t="n"/>
+      <c r="H103" s="30" t="n"/>
     </row>
     <row r="104" ht="57" customHeight="1" s="23">
       <c r="A104" s="24" t="n">
@@ -6238,7 +6328,7 @@
         </is>
       </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="34" t="n"/>
+      <c r="H105" s="30" t="n"/>
     </row>
     <row r="106" ht="57" customHeight="1" s="23">
       <c r="A106" s="21" t="n">
@@ -6271,7 +6361,7 @@
         </is>
       </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="34" t="n"/>
+      <c r="H106" s="30" t="n"/>
     </row>
     <row r="107" ht="57" customHeight="1" s="23">
       <c r="A107" s="21" t="n">
@@ -6304,7 +6394,7 @@
         </is>
       </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="34" t="n"/>
+      <c r="H107" s="30" t="n"/>
     </row>
     <row r="108" ht="57" customHeight="1" s="23">
       <c r="A108" s="21" t="n">
@@ -6337,7 +6427,7 @@
         </is>
       </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="34" t="n"/>
+      <c r="H108" s="30" t="n"/>
     </row>
     <row r="109" ht="57" customHeight="1" s="23">
       <c r="A109" s="21" t="n">
@@ -6370,7 +6460,7 @@
         </is>
       </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="34" t="n"/>
+      <c r="H109" s="30" t="n"/>
     </row>
     <row r="110" ht="57" customHeight="1" s="23">
       <c r="A110" s="21" t="n">
@@ -6403,7 +6493,7 @@
         </is>
       </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="34" t="n"/>
+      <c r="H110" s="30" t="n"/>
     </row>
     <row r="111" ht="57" customHeight="1" s="23">
       <c r="A111" s="21" t="n">
@@ -6436,7 +6526,7 @@
         </is>
       </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="34" t="n"/>
+      <c r="H111" s="30" t="n"/>
     </row>
     <row r="112" ht="57" customHeight="1" s="23">
       <c r="A112" s="21" t="n">
@@ -6469,7 +6559,7 @@
         </is>
       </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="34" t="n"/>
+      <c r="H112" s="30" t="n"/>
     </row>
     <row r="113" ht="57" customHeight="1" s="23">
       <c r="A113" s="21" t="n">
@@ -6502,7 +6592,7 @@
         </is>
       </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="34" t="n"/>
+      <c r="H113" s="30" t="n"/>
     </row>
     <row r="114" ht="57" customHeight="1" s="23">
       <c r="A114" s="21" t="n">
@@ -6535,7 +6625,7 @@
         </is>
       </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="34" t="n"/>
+      <c r="H114" s="30" t="n"/>
     </row>
     <row r="115" ht="57" customHeight="1" s="23">
       <c r="A115" s="21" t="n">
@@ -6568,7 +6658,7 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="34" t="n"/>
+      <c r="H115" s="30" t="n"/>
     </row>
     <row r="116" ht="57" customHeight="1" s="23">
       <c r="A116" s="21" t="n">
@@ -6601,7 +6691,7 @@
         </is>
       </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="34" t="n"/>
+      <c r="H116" s="30" t="n"/>
     </row>
     <row r="117" ht="57" customHeight="1" s="23">
       <c r="A117" s="21" t="n">
@@ -6634,7 +6724,7 @@
         </is>
       </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="34" t="n"/>
+      <c r="H117" s="30" t="n"/>
     </row>
     <row r="118" ht="57" customHeight="1" s="23">
       <c r="A118" s="21" t="n">
@@ -6667,7 +6757,7 @@
         </is>
       </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="34" t="n"/>
+      <c r="H118" s="30" t="n"/>
     </row>
     <row r="119" ht="57" customHeight="1" s="23">
       <c r="A119" s="21" t="n">
@@ -6700,7 +6790,7 @@
         </is>
       </c>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" s="34" t="n"/>
+      <c r="H119" s="30" t="n"/>
     </row>
     <row r="120" ht="57" customHeight="1" s="23">
       <c r="A120" s="21" t="n">
@@ -6733,7 +6823,7 @@
         </is>
       </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="34" t="n"/>
+      <c r="H120" s="30" t="n"/>
     </row>
     <row r="121" ht="57" customHeight="1" s="23">
       <c r="A121" s="21" t="n">
@@ -6766,7 +6856,7 @@
         </is>
       </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="34" t="n"/>
+      <c r="H121" s="30" t="n"/>
     </row>
     <row r="122" ht="57" customHeight="1" s="23">
       <c r="A122" s="21" t="n">
@@ -6799,7 +6889,7 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="34" t="n"/>
+      <c r="H122" s="30" t="n"/>
     </row>
     <row r="123" ht="57" customHeight="1" s="23">
       <c r="A123" s="21" t="n">
@@ -6832,7 +6922,7 @@
         </is>
       </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="34" t="n"/>
+      <c r="H123" s="30" t="n"/>
     </row>
     <row r="124" ht="57" customHeight="1" s="23">
       <c r="A124" s="24" t="n">
@@ -6929,7 +7019,7 @@
         </is>
       </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="34" t="n"/>
+      <c r="H126" s="30" t="n"/>
     </row>
     <row r="127" ht="57" customHeight="1" s="23">
       <c r="A127" s="21" t="n">
@@ -6962,7 +7052,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="34" t="n"/>
+      <c r="H127" s="30" t="n"/>
     </row>
     <row r="128" ht="57" customHeight="1" s="23">
       <c r="A128" s="21" t="n">
@@ -6995,7 +7085,7 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="34" t="n"/>
+      <c r="H128" s="30" t="n"/>
     </row>
     <row r="129" ht="57" customHeight="1" s="23">
       <c r="A129" s="21" t="n">
@@ -7028,7 +7118,7 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="34" t="n"/>
+      <c r="H129" s="30" t="n"/>
     </row>
     <row r="130" ht="57" customHeight="1" s="23">
       <c r="A130" s="21" t="n">
@@ -7061,7 +7151,7 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="34" t="n"/>
+      <c r="H130" s="30" t="n"/>
     </row>
     <row r="131" ht="57" customHeight="1" s="23">
       <c r="A131" s="21" t="n">
@@ -7094,7 +7184,7 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="34" t="n"/>
+      <c r="H131" s="30" t="n"/>
     </row>
     <row r="132" ht="57" customHeight="1" s="23">
       <c r="A132" s="21" t="n">
@@ -7127,7 +7217,7 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="34" t="n"/>
+      <c r="H132" s="30" t="n"/>
     </row>
     <row r="133" ht="57" customHeight="1" s="23">
       <c r="A133" s="21" t="n">
@@ -7160,7 +7250,7 @@
         </is>
       </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="34" t="n"/>
+      <c r="H133" s="30" t="n"/>
     </row>
     <row r="134" ht="57" customHeight="1" s="23">
       <c r="A134" s="21" t="n">
@@ -7193,7 +7283,7 @@
         </is>
       </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="34" t="n"/>
+      <c r="H134" s="30" t="n"/>
     </row>
     <row r="135" ht="57" customHeight="1" s="23">
       <c r="A135" s="21" t="n">
@@ -7226,7 +7316,7 @@
         </is>
       </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="34" t="n"/>
+      <c r="H135" s="30" t="n"/>
     </row>
     <row r="136" ht="57" customHeight="1" s="23">
       <c r="A136" s="21" t="n">
@@ -7259,7 +7349,7 @@
         </is>
       </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="34" t="n"/>
+      <c r="H136" s="30" t="n"/>
     </row>
     <row r="137" ht="57" customHeight="1" s="23">
       <c r="A137" s="21" t="n">
@@ -7292,7 +7382,7 @@
         </is>
       </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="34" t="n"/>
+      <c r="H137" s="30" t="n"/>
     </row>
     <row r="138" ht="57" customHeight="1" s="23">
       <c r="A138" s="21" t="n">
@@ -7325,7 +7415,7 @@
         </is>
       </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="34" t="n"/>
+      <c r="H138" s="30" t="n"/>
     </row>
     <row r="139" ht="57" customHeight="1" s="23">
       <c r="A139" s="21" t="n">
@@ -7358,7 +7448,7 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="34" t="n"/>
+      <c r="H139" s="30" t="n"/>
     </row>
     <row r="140" ht="57" customHeight="1" s="23">
       <c r="A140" s="21" t="n">
@@ -7391,7 +7481,7 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="34" t="n"/>
+      <c r="H140" s="30" t="n"/>
     </row>
     <row r="141" ht="57" customHeight="1" s="23">
       <c r="A141" s="21" t="n">
@@ -7424,7 +7514,7 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="34" t="n"/>
+      <c r="H141" s="30" t="n"/>
     </row>
     <row r="142" ht="57" customHeight="1" s="23">
       <c r="A142" s="21" t="n">
@@ -7457,7 +7547,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="34" t="n"/>
+      <c r="H142" s="30" t="n"/>
     </row>
     <row r="143" ht="57" customHeight="1" s="23">
       <c r="A143" s="21" t="n">
@@ -7490,7 +7580,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="34" t="n"/>
+      <c r="H143" s="30" t="n"/>
     </row>
     <row r="144" ht="57" customHeight="1" s="23">
       <c r="A144" s="21" t="n">
@@ -7523,7 +7613,7 @@
         </is>
       </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="34" t="n"/>
+      <c r="H144" s="30" t="n"/>
     </row>
     <row r="145" ht="57" customHeight="1" s="23">
       <c r="A145" s="24" t="n">
@@ -7588,7 +7678,7 @@
         </is>
       </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="34" t="n"/>
+      <c r="H146" s="30" t="n"/>
     </row>
     <row r="147" ht="57" customHeight="1" s="23">
       <c r="A147" s="21" t="n">
@@ -7621,7 +7711,7 @@
         </is>
       </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="34" t="n"/>
+      <c r="H147" s="30" t="n"/>
     </row>
     <row r="148" ht="57" customHeight="1" s="23">
       <c r="A148" s="21" t="n">
@@ -7654,7 +7744,7 @@
         </is>
       </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="34" t="n"/>
+      <c r="H148" s="30" t="n"/>
     </row>
     <row r="149" ht="57" customHeight="1" s="23">
       <c r="A149" s="21" t="n">
@@ -7687,7 +7777,7 @@
         </is>
       </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="34" t="n"/>
+      <c r="H149" s="30" t="n"/>
     </row>
     <row r="150" ht="57" customHeight="1" s="23">
       <c r="A150" s="21" t="n">
@@ -7720,7 +7810,7 @@
         </is>
       </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="34" t="n"/>
+      <c r="H150" s="30" t="n"/>
     </row>
     <row r="151" ht="57" customHeight="1" s="23">
       <c r="A151" s="21" t="n">
@@ -7753,7 +7843,7 @@
         </is>
       </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="34" t="n"/>
+      <c r="H151" s="30" t="n"/>
     </row>
     <row r="152" ht="57" customHeight="1" s="23">
       <c r="A152" s="21" t="n">
@@ -7786,7 +7876,7 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="34" t="n"/>
+      <c r="H152" s="30" t="n"/>
     </row>
     <row r="153" ht="57" customHeight="1" s="23">
       <c r="A153" s="21" t="n">
@@ -7819,7 +7909,7 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="34" t="n"/>
+      <c r="H153" s="30" t="n"/>
     </row>
     <row r="154" ht="57" customHeight="1" s="23">
       <c r="A154" s="21" t="n">
@@ -7852,7 +7942,7 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="34" t="n"/>
+      <c r="H154" s="30" t="n"/>
     </row>
     <row r="155" ht="57" customHeight="1" s="23">
       <c r="A155" s="21" t="n">
@@ -7885,7 +7975,7 @@
         </is>
       </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="34" t="n"/>
+      <c r="H155" s="30" t="n"/>
     </row>
     <row r="156" ht="57" customHeight="1" s="23">
       <c r="A156" s="21" t="n">
@@ -7918,7 +8008,7 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="34" t="n"/>
+      <c r="H156" s="30" t="n"/>
     </row>
     <row r="157" ht="57" customHeight="1" s="23">
       <c r="A157" s="21" t="n">
@@ -7951,7 +8041,7 @@
         </is>
       </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="34" t="n"/>
+      <c r="H157" s="30" t="n"/>
     </row>
     <row r="158" ht="57" customHeight="1" s="23">
       <c r="A158" s="21" t="n">
@@ -7984,7 +8074,7 @@
         </is>
       </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="34" t="n"/>
+      <c r="H158" s="30" t="n"/>
     </row>
     <row r="159" ht="57" customHeight="1" s="23">
       <c r="A159" s="21" t="n">
@@ -8017,7 +8107,7 @@
         </is>
       </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="34" t="n"/>
+      <c r="H159" s="30" t="n"/>
     </row>
     <row r="160" ht="57" customHeight="1" s="23">
       <c r="A160" s="21" t="n">
@@ -8050,7 +8140,7 @@
         </is>
       </c>
       <c r="G160" s="21" t="n"/>
-      <c r="H160" s="34" t="n"/>
+      <c r="H160" s="30" t="n"/>
     </row>
     <row r="161" ht="57" customHeight="1" s="23">
       <c r="A161" s="21" t="n">
@@ -8083,7 +8173,7 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="34" t="n"/>
+      <c r="H161" s="30" t="n"/>
     </row>
     <row r="162" ht="57" customHeight="1" s="23">
       <c r="A162" s="21" t="n">
@@ -8116,7 +8206,7 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="34" t="n"/>
+      <c r="H162" s="30" t="n"/>
     </row>
     <row r="163" ht="57" customHeight="1" s="23">
       <c r="A163" s="21" t="n">
@@ -8149,7 +8239,7 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="34" t="n"/>
+      <c r="H163" s="30" t="n"/>
     </row>
     <row r="164" ht="57" customHeight="1" s="23">
       <c r="A164" s="21" t="n">
@@ -8182,7 +8272,7 @@
         </is>
       </c>
       <c r="G164" s="21" t="n"/>
-      <c r="H164" s="34" t="n"/>
+      <c r="H164" s="30" t="n"/>
     </row>
     <row r="165" ht="57" customHeight="1" s="23">
       <c r="A165" s="24" t="n">
@@ -10960,12 +11050,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="34" t="inlineStr">
         <is>
           <t>放大区域</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>移动功能</t>
         </is>
@@ -10977,8 +11067,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="n"/>
-      <c r="B3" s="32" t="n"/>
+      <c r="A3" s="31" t="n"/>
+      <c r="B3" s="31" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
           <t>顺序移动</t>
@@ -11013,8 +11103,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="n"/>
-      <c r="B5" s="31" t="n"/>
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="33" t="n"/>
       <c r="C5" s="6" t="inlineStr">
         <is>
           <t>放大5步长</t>
@@ -11022,8 +11112,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="n"/>
-      <c r="B6" s="31" t="n"/>
+      <c r="A6" s="33" t="n"/>
+      <c r="B6" s="33" t="n"/>
       <c r="C6" s="6" t="inlineStr">
         <is>
           <t>放大10步长</t>
@@ -11031,8 +11121,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="n"/>
-      <c r="B7" s="31" t="n"/>
+      <c r="A7" s="33" t="n"/>
+      <c r="B7" s="33" t="n"/>
       <c r="C7" s="6" t="inlineStr">
         <is>
           <t>放大14步长</t>
@@ -11040,8 +11130,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="n"/>
-      <c r="B8" s="31" t="n"/>
+      <c r="A8" s="33" t="n"/>
+      <c r="B8" s="33" t="n"/>
       <c r="C8" s="6" t="inlineStr">
         <is>
           <t>放大17步长</t>
@@ -11049,8 +11139,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="n"/>
-      <c r="B9" s="31" t="n"/>
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="33" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
           <t>放大20步长</t>
@@ -11058,8 +11148,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="n"/>
-      <c r="B10" s="31" t="n"/>
+      <c r="A10" s="33" t="n"/>
+      <c r="B10" s="33" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
           <t>放大23步长</t>
@@ -11067,8 +11157,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="n"/>
-      <c r="B11" s="31" t="n"/>
+      <c r="A11" s="33" t="n"/>
+      <c r="B11" s="33" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
           <t>放大25步长</t>
@@ -11076,8 +11166,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="n"/>
-      <c r="B12" s="31" t="n"/>
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
           <t>放大27步长</t>
@@ -11085,8 +11175,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="n"/>
-      <c r="B13" s="31" t="n"/>
+      <c r="A13" s="33" t="n"/>
+      <c r="B13" s="33" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
           <t>放大28步长</t>
@@ -11094,8 +11184,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="n"/>
-      <c r="B14" s="31" t="n"/>
+      <c r="A14" s="33" t="n"/>
+      <c r="B14" s="33" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
           <t>放大30步长</t>
@@ -11103,8 +11193,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="n"/>
-      <c r="B15" s="31" t="n"/>
+      <c r="A15" s="33" t="n"/>
+      <c r="B15" s="33" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
           <t>放大31步长</t>
@@ -11112,8 +11202,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="n"/>
-      <c r="B16" s="31" t="n"/>
+      <c r="A16" s="33" t="n"/>
+      <c r="B16" s="33" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
           <t>放大33步长</t>
@@ -11121,8 +11211,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="n"/>
-      <c r="B17" s="31" t="n"/>
+      <c r="A17" s="33" t="n"/>
+      <c r="B17" s="33" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
           <t>放大34步长</t>
@@ -11130,8 +11220,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="n"/>
-      <c r="B18" s="31" t="n"/>
+      <c r="A18" s="33" t="n"/>
+      <c r="B18" s="33" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
           <t>放大35步长</t>
@@ -11139,8 +11229,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="n"/>
-      <c r="B19" s="31" t="n"/>
+      <c r="A19" s="33" t="n"/>
+      <c r="B19" s="33" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
           <t>放大36步长</t>
@@ -11148,8 +11238,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="n"/>
-      <c r="B20" s="31" t="n"/>
+      <c r="A20" s="33" t="n"/>
+      <c r="B20" s="33" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
           <t>放大37步长</t>
@@ -11157,8 +11247,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="n"/>
-      <c r="B21" s="31" t="n"/>
+      <c r="A21" s="33" t="n"/>
+      <c r="B21" s="33" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
           <t>放大38步长</t>
@@ -11166,8 +11256,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="n"/>
-      <c r="B22" s="31" t="n"/>
+      <c r="A22" s="33" t="n"/>
+      <c r="B22" s="33" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
           <t>放大39步长</t>
@@ -11175,8 +11265,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="31" t="n"/>
-      <c r="B23" s="31" t="n"/>
+      <c r="A23" s="33" t="n"/>
+      <c r="B23" s="33" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
           <t>放大40步长</t>
@@ -11184,8 +11274,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="31" t="n"/>
-      <c r="B24" s="31" t="n"/>
+      <c r="A24" s="33" t="n"/>
+      <c r="B24" s="33" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
           <t>放大41步长</t>
@@ -11193,8 +11283,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="31" t="n"/>
-      <c r="B25" s="31" t="n"/>
+      <c r="A25" s="33" t="n"/>
+      <c r="B25" s="33" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
           <t>缩小1步长</t>
@@ -11202,8 +11292,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="31" t="n"/>
-      <c r="B26" s="31" t="n"/>
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
           <t>缩小2步长</t>
@@ -11211,8 +11301,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="31" t="n"/>
-      <c r="B27" s="31" t="n"/>
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
           <t>缩小3步长</t>
@@ -11220,8 +11310,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="n"/>
-      <c r="B28" s="31" t="n"/>
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
           <t>缩小4步长</t>
@@ -11229,8 +11319,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31" t="n"/>
-      <c r="B29" s="31" t="n"/>
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
           <t>缩小5步长</t>
@@ -11238,8 +11328,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="31" t="n"/>
-      <c r="B30" s="31" t="n"/>
+      <c r="A30" s="33" t="n"/>
+      <c r="B30" s="33" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
           <t>缩小6步长</t>
@@ -11247,8 +11337,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="31" t="n"/>
-      <c r="B31" s="31" t="n"/>
+      <c r="A31" s="33" t="n"/>
+      <c r="B31" s="33" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
           <t>缩小7步长</t>
@@ -11256,8 +11346,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="31" t="n"/>
-      <c r="B32" s="31" t="n"/>
+      <c r="A32" s="33" t="n"/>
+      <c r="B32" s="33" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
           <t>缩小9步长</t>
@@ -11265,8 +11355,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="31" t="n"/>
-      <c r="B33" s="31" t="n"/>
+      <c r="A33" s="33" t="n"/>
+      <c r="B33" s="33" t="n"/>
       <c r="C33" s="6" t="inlineStr">
         <is>
           <t>缩小10步长</t>
@@ -11274,8 +11364,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="31" t="n"/>
-      <c r="B34" s="31" t="n"/>
+      <c r="A34" s="33" t="n"/>
+      <c r="B34" s="33" t="n"/>
       <c r="C34" s="6" t="inlineStr">
         <is>
           <t>缩小12步长</t>
@@ -11283,8 +11373,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="n"/>
-      <c r="B35" s="31" t="n"/>
+      <c r="A35" s="33" t="n"/>
+      <c r="B35" s="33" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
           <t>缩小13步长</t>
@@ -11292,8 +11382,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="31" t="n"/>
-      <c r="B36" s="31" t="n"/>
+      <c r="A36" s="33" t="n"/>
+      <c r="B36" s="33" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
           <t>缩小15步长</t>
@@ -11301,8 +11391,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="n"/>
-      <c r="B37" s="31" t="n"/>
+      <c r="A37" s="33" t="n"/>
+      <c r="B37" s="33" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
           <t>缩小18步长</t>
@@ -11310,8 +11400,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="n"/>
-      <c r="B38" s="31" t="n"/>
+      <c r="A38" s="33" t="n"/>
+      <c r="B38" s="33" t="n"/>
       <c r="C38" s="6" t="inlineStr">
         <is>
           <t>缩小20步长</t>
@@ -11319,8 +11409,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="31" t="n"/>
-      <c r="B39" s="31" t="n"/>
+      <c r="A39" s="33" t="n"/>
+      <c r="B39" s="33" t="n"/>
       <c r="C39" s="6" t="inlineStr">
         <is>
           <t>缩小23步长</t>
@@ -11328,8 +11418,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="31" t="n"/>
-      <c r="B40" s="31" t="n"/>
+      <c r="A40" s="33" t="n"/>
+      <c r="B40" s="33" t="n"/>
       <c r="C40" s="6" t="inlineStr">
         <is>
           <t>缩小26步长</t>
@@ -11337,8 +11427,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="31" t="n"/>
-      <c r="B41" s="31" t="n"/>
+      <c r="A41" s="33" t="n"/>
+      <c r="B41" s="33" t="n"/>
       <c r="C41" s="6" t="inlineStr">
         <is>
           <t>缩小30步长</t>
@@ -11346,8 +11436,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="n"/>
-      <c r="B42" s="31" t="n"/>
+      <c r="A42" s="33" t="n"/>
+      <c r="B42" s="33" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
           <t>缩小35步长</t>
@@ -11355,8 +11445,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="31" t="n"/>
-      <c r="B43" s="31" t="n"/>
+      <c r="A43" s="33" t="n"/>
+      <c r="B43" s="33" t="n"/>
       <c r="C43" s="6" t="inlineStr">
         <is>
           <t>缩小40步长</t>
@@ -11364,8 +11454,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="n"/>
-      <c r="B44" s="32" t="n"/>
+      <c r="A44" s="33" t="n"/>
+      <c r="B44" s="31" t="n"/>
       <c r="C44" s="6" t="inlineStr">
         <is>
           <t>缩小41步长</t>
@@ -11373,40 +11463,40 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="31" t="n"/>
-      <c r="B45" s="35" t="inlineStr">
+      <c r="A45" s="33" t="n"/>
+      <c r="B45" s="32" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="C45" s="34" t="inlineStr">
+      <c r="C45" s="30" t="inlineStr">
         <is>
           <t>顺光环境</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="31" t="n"/>
-      <c r="B46" s="31" t="n"/>
-      <c r="C46" s="32" t="n"/>
+      <c r="A46" s="33" t="n"/>
+      <c r="B46" s="33" t="n"/>
+      <c r="C46" s="31" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="31" t="n"/>
-      <c r="B47" s="31" t="n"/>
-      <c r="C47" s="34" t="inlineStr">
+      <c r="A47" s="33" t="n"/>
+      <c r="B47" s="33" t="n"/>
+      <c r="C47" s="30" t="inlineStr">
         <is>
           <t>逆光环境</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="31" t="n"/>
-      <c r="B48" s="32" t="n"/>
-      <c r="C48" s="32" t="n"/>
+      <c r="A48" s="33" t="n"/>
+      <c r="B48" s="31" t="n"/>
+      <c r="C48" s="31" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="n"/>
-      <c r="B49" s="35" t="inlineStr">
+      <c r="A49" s="33" t="n"/>
+      <c r="B49" s="32" t="inlineStr">
         <is>
           <t>复位</t>
         </is>
@@ -11418,8 +11508,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="32" t="n"/>
-      <c r="B50" s="32" t="n"/>
+      <c r="A50" s="31" t="n"/>
+      <c r="B50" s="31" t="n"/>
       <c r="C50" s="6" t="inlineStr">
         <is>
           <t>无变焦复位</t>
@@ -11528,7 +11618,7 @@
           <t>变焦后高度</t>
         </is>
       </c>
-      <c r="G2" s="31" t="n"/>
+      <c r="G2" s="33" t="n"/>
       <c r="H2" s="41" t="inlineStr">
         <is>
           <t>宽</t>
@@ -11554,7 +11644,7 @@
           <t>变焦后高度</t>
         </is>
       </c>
-      <c r="M2" s="31" t="n"/>
+      <c r="M2" s="33" t="n"/>
       <c r="N2" s="41" t="inlineStr">
         <is>
           <t>宽</t>
@@ -11609,7 +11699,7 @@
         <f>E3/A3</f>
         <v/>
       </c>
-      <c r="G3" s="31" t="n"/>
+      <c r="G3" s="33" t="n"/>
       <c r="H3" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11628,7 +11718,7 @@
         <f>K3/A3</f>
         <v/>
       </c>
-      <c r="M3" s="31" t="n"/>
+      <c r="M3" s="33" t="n"/>
       <c r="N3" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11674,7 +11764,7 @@
         <f>E4/A4</f>
         <v/>
       </c>
-      <c r="G4" s="31" t="n"/>
+      <c r="G4" s="33" t="n"/>
       <c r="H4" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11693,7 +11783,7 @@
         <f>K4/A4</f>
         <v/>
       </c>
-      <c r="M4" s="31" t="n"/>
+      <c r="M4" s="33" t="n"/>
       <c r="N4" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11739,7 +11829,7 @@
         <f>E5/A5</f>
         <v/>
       </c>
-      <c r="G5" s="31" t="n"/>
+      <c r="G5" s="33" t="n"/>
       <c r="H5" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11758,7 +11848,7 @@
         <f>K5/A5</f>
         <v/>
       </c>
-      <c r="M5" s="31" t="n"/>
+      <c r="M5" s="33" t="n"/>
       <c r="N5" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11804,7 +11894,7 @@
         <f>E6/A6</f>
         <v/>
       </c>
-      <c r="G6" s="31" t="n"/>
+      <c r="G6" s="33" t="n"/>
       <c r="H6" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11823,7 +11913,7 @@
         <f>K6/A6</f>
         <v/>
       </c>
-      <c r="M6" s="31" t="n"/>
+      <c r="M6" s="33" t="n"/>
       <c r="N6" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11869,7 +11959,7 @@
         <f>E7/A7</f>
         <v/>
       </c>
-      <c r="G7" s="31" t="n"/>
+      <c r="G7" s="33" t="n"/>
       <c r="H7" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11888,7 +11978,7 @@
         <f>K7/A7</f>
         <v/>
       </c>
-      <c r="M7" s="31" t="n"/>
+      <c r="M7" s="33" t="n"/>
       <c r="N7" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11934,7 +12024,7 @@
         <f>E8/A8</f>
         <v/>
       </c>
-      <c r="G8" s="31" t="n"/>
+      <c r="G8" s="33" t="n"/>
       <c r="H8" s="7" t="n">
         <v>1920</v>
       </c>
@@ -11953,7 +12043,7 @@
         <f>K8/A8</f>
         <v/>
       </c>
-      <c r="M8" s="31" t="n"/>
+      <c r="M8" s="33" t="n"/>
       <c r="N8" s="7" t="n">
         <v>1280</v>
       </c>
@@ -11999,7 +12089,7 @@
         <f>E9/A9</f>
         <v/>
       </c>
-      <c r="G9" s="31" t="n"/>
+      <c r="G9" s="33" t="n"/>
       <c r="H9" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12018,7 +12108,7 @@
         <f>K9/A9</f>
         <v/>
       </c>
-      <c r="M9" s="31" t="n"/>
+      <c r="M9" s="33" t="n"/>
       <c r="N9" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12064,7 +12154,7 @@
         <f>E10/A10</f>
         <v/>
       </c>
-      <c r="G10" s="31" t="n"/>
+      <c r="G10" s="33" t="n"/>
       <c r="H10" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12083,7 +12173,7 @@
         <f>K10/A10</f>
         <v/>
       </c>
-      <c r="M10" s="31" t="n"/>
+      <c r="M10" s="33" t="n"/>
       <c r="N10" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12129,7 +12219,7 @@
         <f>E11/A11</f>
         <v/>
       </c>
-      <c r="G11" s="31" t="n"/>
+      <c r="G11" s="33" t="n"/>
       <c r="H11" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12148,7 +12238,7 @@
         <f>K11/A11</f>
         <v/>
       </c>
-      <c r="M11" s="31" t="n"/>
+      <c r="M11" s="33" t="n"/>
       <c r="N11" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12194,7 +12284,7 @@
         <f>E12/A12</f>
         <v/>
       </c>
-      <c r="G12" s="31" t="n"/>
+      <c r="G12" s="33" t="n"/>
       <c r="H12" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12213,7 +12303,7 @@
         <f>K12/A12</f>
         <v/>
       </c>
-      <c r="M12" s="31" t="n"/>
+      <c r="M12" s="33" t="n"/>
       <c r="N12" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12259,7 +12349,7 @@
         <f>E13/A13</f>
         <v/>
       </c>
-      <c r="G13" s="31" t="n"/>
+      <c r="G13" s="33" t="n"/>
       <c r="H13" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12278,7 +12368,7 @@
         <f>K13/A13</f>
         <v/>
       </c>
-      <c r="M13" s="31" t="n"/>
+      <c r="M13" s="33" t="n"/>
       <c r="N13" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12324,7 +12414,7 @@
         <f>E14/A14</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="n"/>
+      <c r="G14" s="33" t="n"/>
       <c r="H14" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12343,7 +12433,7 @@
         <f>K14/A14</f>
         <v/>
       </c>
-      <c r="M14" s="31" t="n"/>
+      <c r="M14" s="33" t="n"/>
       <c r="N14" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12389,7 +12479,7 @@
         <f>E15/A15</f>
         <v/>
       </c>
-      <c r="G15" s="31" t="n"/>
+      <c r="G15" s="33" t="n"/>
       <c r="H15" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12408,7 +12498,7 @@
         <f>K15/A15</f>
         <v/>
       </c>
-      <c r="M15" s="31" t="n"/>
+      <c r="M15" s="33" t="n"/>
       <c r="N15" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12454,7 +12544,7 @@
         <f>E16/A16</f>
         <v/>
       </c>
-      <c r="G16" s="31" t="n"/>
+      <c r="G16" s="33" t="n"/>
       <c r="H16" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12473,7 +12563,7 @@
         <f>K16/A16</f>
         <v/>
       </c>
-      <c r="M16" s="31" t="n"/>
+      <c r="M16" s="33" t="n"/>
       <c r="N16" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12519,7 +12609,7 @@
         <f>E17/A17</f>
         <v/>
       </c>
-      <c r="G17" s="31" t="n"/>
+      <c r="G17" s="33" t="n"/>
       <c r="H17" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12538,7 +12628,7 @@
         <f>K17/A17</f>
         <v/>
       </c>
-      <c r="M17" s="31" t="n"/>
+      <c r="M17" s="33" t="n"/>
       <c r="N17" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12584,7 +12674,7 @@
         <f>E18/A18</f>
         <v/>
       </c>
-      <c r="G18" s="31" t="n"/>
+      <c r="G18" s="33" t="n"/>
       <c r="H18" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12603,7 +12693,7 @@
         <f>K18/A18</f>
         <v/>
       </c>
-      <c r="M18" s="31" t="n"/>
+      <c r="M18" s="33" t="n"/>
       <c r="N18" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12649,7 +12739,7 @@
         <f>E19/A19</f>
         <v/>
       </c>
-      <c r="G19" s="31" t="n"/>
+      <c r="G19" s="33" t="n"/>
       <c r="H19" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12668,7 +12758,7 @@
         <f>K19/A19</f>
         <v/>
       </c>
-      <c r="M19" s="31" t="n"/>
+      <c r="M19" s="33" t="n"/>
       <c r="N19" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12714,7 +12804,7 @@
         <f>E20/A20</f>
         <v/>
       </c>
-      <c r="G20" s="31" t="n"/>
+      <c r="G20" s="33" t="n"/>
       <c r="H20" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12733,7 +12823,7 @@
         <f>K20/A20</f>
         <v/>
       </c>
-      <c r="M20" s="31" t="n"/>
+      <c r="M20" s="33" t="n"/>
       <c r="N20" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12779,7 +12869,7 @@
         <f>E21/A21</f>
         <v/>
       </c>
-      <c r="G21" s="31" t="n"/>
+      <c r="G21" s="33" t="n"/>
       <c r="H21" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12798,7 +12888,7 @@
         <f>K21/A21</f>
         <v/>
       </c>
-      <c r="M21" s="31" t="n"/>
+      <c r="M21" s="33" t="n"/>
       <c r="N21" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12844,7 +12934,7 @@
         <f>E22/A22</f>
         <v/>
       </c>
-      <c r="G22" s="31" t="n"/>
+      <c r="G22" s="33" t="n"/>
       <c r="H22" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12863,7 +12953,7 @@
         <f>K22/A22</f>
         <v/>
       </c>
-      <c r="M22" s="31" t="n"/>
+      <c r="M22" s="33" t="n"/>
       <c r="N22" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12909,7 +12999,7 @@
         <f>E23/A23</f>
         <v/>
       </c>
-      <c r="G23" s="32" t="n"/>
+      <c r="G23" s="31" t="n"/>
       <c r="H23" s="7" t="n">
         <v>1920</v>
       </c>
@@ -12928,7 +13018,7 @@
         <f>K23/A23</f>
         <v/>
       </c>
-      <c r="M23" s="32" t="n"/>
+      <c r="M23" s="31" t="n"/>
       <c r="N23" s="7" t="n">
         <v>1280</v>
       </c>
@@ -12985,8 +13075,8 @@
     <col width="20.5" customWidth="1" style="13" min="3" max="3"/>
     <col width="22" customWidth="1" style="13" min="4" max="4"/>
     <col width="31.125" customWidth="1" style="13" min="5" max="5"/>
-    <col width="9" customWidth="1" style="13" min="6" max="13"/>
-    <col width="9" customWidth="1" style="13" min="14" max="16384"/>
+    <col width="9" customWidth="1" style="13" min="6" max="16"/>
+    <col width="9" customWidth="1" style="13" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" s="23">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B221A-6542-4364-847A-88610CF1AD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005083A-4056-4FB2-BE74-37D84B9F8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,12 +2341,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,20 +2348,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2858,8 +2858,8 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="21" width="9" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="5"/>
+    <col min="10" max="22" width="9" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2892,10 +2892,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2907,7 +2907,7 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2919,8 +2919,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2942,8 +2942,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2965,10 +2965,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2980,7 +2980,7 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2992,8 +2992,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3018,10 +3018,10 @@
       <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3030,7 +3030,7 @@
       <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3042,16 +3042,16 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3063,9 +3063,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3074,7 +3074,7 @@
       <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3086,16 +3086,16 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3107,8 +3107,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3120,7 +3120,7 @@
       <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3132,8 +3132,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3158,10 +3158,10 @@
       <c r="A13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3170,7 +3170,7 @@
       <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3182,16 +3182,16 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3203,9 +3203,9 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3214,7 +3214,7 @@
       <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3226,16 +3226,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3247,8 +3247,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3260,7 +3260,7 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -3272,8 +3272,8 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -3298,10 +3298,10 @@
       <c r="A19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3310,7 +3310,7 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3322,16 +3322,16 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3343,9 +3343,9 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3354,7 +3354,7 @@
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3366,16 +3366,16 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3387,8 +3387,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3400,7 +3400,7 @@
       <c r="E23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3412,8 +3412,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="E24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3438,10 +3438,10 @@
       <c r="A25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3450,7 +3450,7 @@
       <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3462,16 +3462,16 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3483,9 +3483,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3494,7 +3494,7 @@
       <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3506,16 +3506,16 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -3527,8 +3527,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3540,7 +3540,7 @@
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -3552,8 +3552,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -3578,10 +3578,10 @@
       <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3590,7 +3590,7 @@
       <c r="E31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -3602,16 +3602,16 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -3623,9 +3623,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3634,7 +3634,7 @@
       <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -3646,16 +3646,16 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -3667,8 +3667,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3680,7 +3680,7 @@
       <c r="E35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3692,8 +3692,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>59</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="E36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3718,10 +3718,10 @@
       <c r="A37" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3730,7 +3730,7 @@
       <c r="E37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -3742,16 +3742,16 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -3763,9 +3763,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3774,7 +3774,7 @@
       <c r="E39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3786,16 +3786,16 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3807,8 +3807,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3820,7 +3820,7 @@
       <c r="E41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3832,8 +3832,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>59</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="E42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3870,7 +3870,7 @@
       <c r="E43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3882,7 +3882,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3897,7 +3897,7 @@
       <c r="E44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3909,7 +3909,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="E45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3936,26 +3936,6 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3971,6 +3951,26 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5878,7 +5878,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
@@ -5900,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
@@ -5922,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="25"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
@@ -5944,7 +5944,7 @@
         <v>89</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="25"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
@@ -5966,7 +5966,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
@@ -5988,7 +5988,7 @@
         <v>95</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="25"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
@@ -6010,7 +6010,7 @@
         <v>98</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="25"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
@@ -6032,7 +6032,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="25"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
@@ -6054,7 +6054,7 @@
         <v>105</v>
       </c>
       <c r="G93" s="21"/>
-      <c r="H93" s="25"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
@@ -6076,7 +6076,7 @@
         <v>108</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="25"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
@@ -6098,7 +6098,7 @@
         <v>111</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="25"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
@@ -6120,7 +6120,7 @@
         <v>114</v>
       </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="25"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="G97" s="21"/>
-      <c r="H97" s="25"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
@@ -6164,7 +6164,7 @@
         <v>120</v>
       </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="25"/>
+      <c r="H98" s="27"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -6186,7 +6186,7 @@
         <v>123</v>
       </c>
       <c r="G99" s="21"/>
-      <c r="H99" s="25"/>
+      <c r="H99" s="27"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
@@ -6208,7 +6208,7 @@
         <v>126</v>
       </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="25"/>
+      <c r="H100" s="27"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
@@ -6230,7 +6230,7 @@
         <v>129</v>
       </c>
       <c r="G101" s="21"/>
-      <c r="H101" s="25"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
@@ -6252,7 +6252,7 @@
         <v>132</v>
       </c>
       <c r="G102" s="21"/>
-      <c r="H102" s="25"/>
+      <c r="H102" s="27"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
@@ -6274,7 +6274,7 @@
         <v>135</v>
       </c>
       <c r="G103" s="21"/>
-      <c r="H103" s="25"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
@@ -6318,7 +6318,7 @@
         <v>132</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="25"/>
+      <c r="H105" s="27"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -6340,7 +6340,7 @@
         <v>129</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="25"/>
+      <c r="H106" s="27"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
@@ -6362,7 +6362,7 @@
         <v>126</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="25"/>
+      <c r="H107" s="27"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
@@ -6384,7 +6384,7 @@
         <v>123</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="25"/>
+      <c r="H108" s="27"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
@@ -6406,7 +6406,7 @@
         <v>120</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="25"/>
+      <c r="H109" s="27"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
@@ -6428,7 +6428,7 @@
         <v>151</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="25"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
@@ -6450,7 +6450,7 @@
         <v>114</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="25"/>
+      <c r="H111" s="27"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
@@ -6472,7 +6472,7 @@
         <v>111</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="25"/>
+      <c r="H112" s="27"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
@@ -6494,7 +6494,7 @@
         <v>158</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="25"/>
+      <c r="H113" s="27"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
@@ -6516,7 +6516,7 @@
         <v>105</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="25"/>
+      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
@@ -6538,7 +6538,7 @@
         <v>101</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="25"/>
+      <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
@@ -6560,7 +6560,7 @@
         <v>98</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="25"/>
+      <c r="H116" s="27"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
@@ -6582,7 +6582,7 @@
         <v>95</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="25"/>
+      <c r="H117" s="27"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
@@ -6604,7 +6604,7 @@
         <v>92</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="25"/>
+      <c r="H118" s="27"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
@@ -6626,7 +6626,7 @@
         <v>89</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="25"/>
+      <c r="H119" s="27"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
@@ -6648,7 +6648,7 @@
         <v>86</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="25"/>
+      <c r="H120" s="27"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
@@ -6670,7 +6670,7 @@
         <v>83</v>
       </c>
       <c r="G121" s="21"/>
-      <c r="H121" s="25"/>
+      <c r="H121" s="27"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
@@ -6692,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="21"/>
-      <c r="H122" s="25"/>
+      <c r="H122" s="27"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
@@ -6714,7 +6714,7 @@
         <v>179</v>
       </c>
       <c r="G123" s="21"/>
-      <c r="H123" s="25"/>
+      <c r="H123" s="27"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24">
@@ -6780,7 +6780,7 @@
         <v>19</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="25"/>
+      <c r="H126" s="27"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
@@ -6802,7 +6802,7 @@
         <v>83</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="25"/>
+      <c r="H127" s="27"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
@@ -6824,7 +6824,7 @@
         <v>86</v>
       </c>
       <c r="G128" s="21"/>
-      <c r="H128" s="25"/>
+      <c r="H128" s="27"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
@@ -6846,7 +6846,7 @@
         <v>89</v>
       </c>
       <c r="G129" s="21"/>
-      <c r="H129" s="25"/>
+      <c r="H129" s="27"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
@@ -6868,7 +6868,7 @@
         <v>92</v>
       </c>
       <c r="G130" s="21"/>
-      <c r="H130" s="25"/>
+      <c r="H130" s="27"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
@@ -6890,7 +6890,7 @@
         <v>95</v>
       </c>
       <c r="G131" s="21"/>
-      <c r="H131" s="25"/>
+      <c r="H131" s="27"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
@@ -6912,7 +6912,7 @@
         <v>98</v>
       </c>
       <c r="G132" s="21"/>
-      <c r="H132" s="25"/>
+      <c r="H132" s="27"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
@@ -6934,7 +6934,7 @@
         <v>101</v>
       </c>
       <c r="G133" s="21"/>
-      <c r="H133" s="25"/>
+      <c r="H133" s="27"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
@@ -6956,7 +6956,7 @@
         <v>105</v>
       </c>
       <c r="G134" s="21"/>
-      <c r="H134" s="25"/>
+      <c r="H134" s="27"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
@@ -6978,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="G135" s="21"/>
-      <c r="H135" s="25"/>
+      <c r="H135" s="27"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
@@ -7000,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="G136" s="21"/>
-      <c r="H136" s="25"/>
+      <c r="H136" s="27"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
@@ -7022,7 +7022,7 @@
         <v>114</v>
       </c>
       <c r="G137" s="21"/>
-      <c r="H137" s="25"/>
+      <c r="H137" s="27"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
@@ -7044,7 +7044,7 @@
         <v>151</v>
       </c>
       <c r="G138" s="21"/>
-      <c r="H138" s="25"/>
+      <c r="H138" s="27"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
@@ -7066,7 +7066,7 @@
         <v>120</v>
       </c>
       <c r="G139" s="21"/>
-      <c r="H139" s="25"/>
+      <c r="H139" s="27"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
@@ -7088,7 +7088,7 @@
         <v>123</v>
       </c>
       <c r="G140" s="21"/>
-      <c r="H140" s="25"/>
+      <c r="H140" s="27"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
@@ -7110,7 +7110,7 @@
         <v>126</v>
       </c>
       <c r="G141" s="21"/>
-      <c r="H141" s="25"/>
+      <c r="H141" s="27"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
@@ -7132,7 +7132,7 @@
         <v>129</v>
       </c>
       <c r="G142" s="21"/>
-      <c r="H142" s="25"/>
+      <c r="H142" s="27"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
@@ -7154,7 +7154,7 @@
         <v>132</v>
       </c>
       <c r="G143" s="21"/>
-      <c r="H143" s="25"/>
+      <c r="H143" s="27"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
@@ -7176,7 +7176,7 @@
         <v>135</v>
       </c>
       <c r="G144" s="21"/>
-      <c r="H144" s="25"/>
+      <c r="H144" s="27"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
@@ -7220,7 +7220,7 @@
         <v>132</v>
       </c>
       <c r="G146" s="21"/>
-      <c r="H146" s="25"/>
+      <c r="H146" s="27"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
@@ -7242,7 +7242,7 @@
         <v>129</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="25"/>
+      <c r="H147" s="27"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="G148" s="21"/>
-      <c r="H148" s="25"/>
+      <c r="H148" s="27"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
@@ -7286,7 +7286,7 @@
         <v>123</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="H149" s="25"/>
+      <c r="H149" s="27"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
@@ -7308,7 +7308,7 @@
         <v>120</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="H150" s="25"/>
+      <c r="H150" s="27"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
@@ -7330,7 +7330,7 @@
         <v>151</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="H151" s="25"/>
+      <c r="H151" s="27"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
@@ -7352,7 +7352,7 @@
         <v>114</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="H152" s="25"/>
+      <c r="H152" s="27"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
@@ -7374,7 +7374,7 @@
         <v>111</v>
       </c>
       <c r="G153" s="21"/>
-      <c r="H153" s="25"/>
+      <c r="H153" s="27"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
@@ -7396,7 +7396,7 @@
         <v>158</v>
       </c>
       <c r="G154" s="21"/>
-      <c r="H154" s="25"/>
+      <c r="H154" s="27"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
@@ -7418,7 +7418,7 @@
         <v>105</v>
       </c>
       <c r="G155" s="21"/>
-      <c r="H155" s="25"/>
+      <c r="H155" s="27"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
@@ -7440,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="25"/>
+      <c r="H156" s="27"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
@@ -7462,7 +7462,7 @@
         <v>98</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="25"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
@@ -7484,7 +7484,7 @@
         <v>95</v>
       </c>
       <c r="G158" s="21"/>
-      <c r="H158" s="25"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
@@ -7506,7 +7506,7 @@
         <v>92</v>
       </c>
       <c r="G159" s="21"/>
-      <c r="H159" s="25"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
@@ -7528,7 +7528,7 @@
         <v>89</v>
       </c>
       <c r="G160" s="21"/>
-      <c r="H160" s="25"/>
+      <c r="H160" s="27"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
@@ -7550,7 +7550,7 @@
         <v>86</v>
       </c>
       <c r="G161" s="21"/>
-      <c r="H161" s="25"/>
+      <c r="H161" s="27"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
@@ -7572,7 +7572,7 @@
         <v>83</v>
       </c>
       <c r="G162" s="21"/>
-      <c r="H162" s="25"/>
+      <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
@@ -7594,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="G163" s="21"/>
-      <c r="H163" s="25"/>
+      <c r="H163" s="27"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
@@ -7616,7 +7616,7 @@
         <v>179</v>
       </c>
       <c r="G164" s="21"/>
-      <c r="H164" s="25"/>
+      <c r="H164" s="27"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24">
@@ -9479,10 +9479,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9490,8 +9490,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
@@ -9508,314 +9508,314 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="6" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="6" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="34" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -9823,8 +9823,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="6" t="s">
         <v>59</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="F2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="L2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9969,7 +9969,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -9988,7 +9988,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -10034,7 +10034,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -10053,7 +10053,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -10099,7 +10099,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10118,7 +10118,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="31"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10164,7 +10164,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10229,7 +10229,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10248,7 +10248,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10294,7 +10294,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10313,7 +10313,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="31"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10359,7 +10359,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10378,7 +10378,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10424,7 +10424,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10443,7 +10443,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10489,7 +10489,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10508,7 +10508,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10554,7 +10554,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10573,7 +10573,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -10619,7 +10619,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -10638,7 +10638,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -10684,7 +10684,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -10703,7 +10703,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -10749,7 +10749,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -10768,7 +10768,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -10814,7 +10814,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -10833,7 +10833,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10879,7 +10879,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10898,7 +10898,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10944,7 +10944,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -10963,7 +10963,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -11009,7 +11009,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -11028,7 +11028,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -11074,7 +11074,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -11093,7 +11093,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11139,7 +11139,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11158,7 +11158,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11204,7 +11204,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11223,7 +11223,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11269,7 +11269,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11288,7 +11288,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="32"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11342,8 +11342,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="17" width="9" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="13"/>
+    <col min="6" max="18" width="9" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005083A-4056-4FB2-BE74-37D84B9F8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0D98E-34FE-459A-AFDF-98D3376B87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,6 +2341,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2348,26 +2354,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2858,8 +2858,8 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="22" width="9" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5"/>
+    <col min="10" max="23" width="9" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2892,10 +2892,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2907,7 +2907,7 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2919,8 +2919,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2942,8 +2942,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2965,10 +2965,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2980,7 +2980,7 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2992,8 +2992,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3018,10 +3018,10 @@
       <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3030,7 +3030,7 @@
       <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3042,16 +3042,16 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3063,9 +3063,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3074,7 +3074,7 @@
       <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3086,16 +3086,16 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3107,8 +3107,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3120,7 +3120,7 @@
       <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3132,8 +3132,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3158,10 +3158,10 @@
       <c r="A13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3170,7 +3170,7 @@
       <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3182,16 +3182,16 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3203,9 +3203,9 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3214,7 +3214,7 @@
       <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3226,16 +3226,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3247,8 +3247,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3260,7 +3260,7 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -3272,8 +3272,8 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -3298,10 +3298,10 @@
       <c r="A19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3310,7 +3310,7 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3322,16 +3322,16 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3343,9 +3343,9 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3354,7 +3354,7 @@
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3366,16 +3366,16 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3387,8 +3387,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3400,7 +3400,7 @@
       <c r="E23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3412,8 +3412,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="E24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3438,10 +3438,10 @@
       <c r="A25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3450,7 +3450,7 @@
       <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3462,16 +3462,16 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3483,9 +3483,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3494,7 +3494,7 @@
       <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3506,16 +3506,16 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -3527,8 +3527,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3540,7 +3540,7 @@
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -3552,8 +3552,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -3578,10 +3578,10 @@
       <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3590,7 +3590,7 @@
       <c r="E31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -3602,16 +3602,16 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -3623,9 +3623,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3634,7 +3634,7 @@
       <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -3646,16 +3646,16 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -3667,8 +3667,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3680,7 +3680,7 @@
       <c r="E35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3692,8 +3692,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>59</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="E36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3718,10 +3718,10 @@
       <c r="A37" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3730,7 +3730,7 @@
       <c r="E37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -3742,16 +3742,16 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -3763,9 +3763,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="30" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3774,7 +3774,7 @@
       <c r="E39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3786,16 +3786,16 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="26" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3807,8 +3807,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3820,7 +3820,7 @@
       <c r="E41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3832,8 +3832,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>59</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="E42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3870,7 +3870,7 @@
       <c r="E43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3882,7 +3882,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3897,7 +3897,7 @@
       <c r="E44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3909,7 +3909,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="E45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3936,6 +3936,26 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3951,26 +3971,6 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5878,7 +5878,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
@@ -5900,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
@@ -5922,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
@@ -5944,7 +5944,7 @@
         <v>89</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
@@ -5966,7 +5966,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
@@ -5988,7 +5988,7 @@
         <v>95</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
@@ -6010,7 +6010,7 @@
         <v>98</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
@@ -6032,7 +6032,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
@@ -6054,7 +6054,7 @@
         <v>105</v>
       </c>
       <c r="G93" s="21"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
@@ -6076,7 +6076,7 @@
         <v>108</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
@@ -6098,7 +6098,7 @@
         <v>111</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
@@ -6120,7 +6120,7 @@
         <v>114</v>
       </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="G97" s="21"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
@@ -6164,7 +6164,7 @@
         <v>120</v>
       </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -6186,7 +6186,7 @@
         <v>123</v>
       </c>
       <c r="G99" s="21"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
@@ -6208,7 +6208,7 @@
         <v>126</v>
       </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
@@ -6230,7 +6230,7 @@
         <v>129</v>
       </c>
       <c r="G101" s="21"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
@@ -6252,7 +6252,7 @@
         <v>132</v>
       </c>
       <c r="G102" s="21"/>
-      <c r="H102" s="27"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
@@ -6274,7 +6274,7 @@
         <v>135</v>
       </c>
       <c r="G103" s="21"/>
-      <c r="H103" s="27"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
@@ -6318,7 +6318,7 @@
         <v>132</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="27"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -6340,7 +6340,7 @@
         <v>129</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="27"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
@@ -6362,7 +6362,7 @@
         <v>126</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="27"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
@@ -6384,7 +6384,7 @@
         <v>123</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="27"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
@@ -6406,7 +6406,7 @@
         <v>120</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="27"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
@@ -6428,7 +6428,7 @@
         <v>151</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="27"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
@@ -6450,7 +6450,7 @@
         <v>114</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="27"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
@@ -6472,7 +6472,7 @@
         <v>111</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="27"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
@@ -6494,7 +6494,7 @@
         <v>158</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="27"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
@@ -6516,7 +6516,7 @@
         <v>105</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
@@ -6538,7 +6538,7 @@
         <v>101</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="27"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
@@ -6560,7 +6560,7 @@
         <v>98</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="27"/>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
@@ -6582,7 +6582,7 @@
         <v>95</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="27"/>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
@@ -6604,7 +6604,7 @@
         <v>92</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
@@ -6626,7 +6626,7 @@
         <v>89</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
@@ -6648,7 +6648,7 @@
         <v>86</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
@@ -6670,7 +6670,7 @@
         <v>83</v>
       </c>
       <c r="G121" s="21"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
@@ -6692,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="21"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
@@ -6714,7 +6714,7 @@
         <v>179</v>
       </c>
       <c r="G123" s="21"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24">
@@ -6780,7 +6780,7 @@
         <v>19</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="27"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
@@ -6802,7 +6802,7 @@
         <v>83</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="27"/>
+      <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
@@ -6824,7 +6824,7 @@
         <v>86</v>
       </c>
       <c r="G128" s="21"/>
-      <c r="H128" s="27"/>
+      <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
@@ -6846,7 +6846,7 @@
         <v>89</v>
       </c>
       <c r="G129" s="21"/>
-      <c r="H129" s="27"/>
+      <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
@@ -6868,7 +6868,7 @@
         <v>92</v>
       </c>
       <c r="G130" s="21"/>
-      <c r="H130" s="27"/>
+      <c r="H130" s="25"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
@@ -6890,7 +6890,7 @@
         <v>95</v>
       </c>
       <c r="G131" s="21"/>
-      <c r="H131" s="27"/>
+      <c r="H131" s="25"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
@@ -6912,7 +6912,7 @@
         <v>98</v>
       </c>
       <c r="G132" s="21"/>
-      <c r="H132" s="27"/>
+      <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
@@ -6934,7 +6934,7 @@
         <v>101</v>
       </c>
       <c r="G133" s="21"/>
-      <c r="H133" s="27"/>
+      <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
@@ -6956,7 +6956,7 @@
         <v>105</v>
       </c>
       <c r="G134" s="21"/>
-      <c r="H134" s="27"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
@@ -6978,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="G135" s="21"/>
-      <c r="H135" s="27"/>
+      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
@@ -7000,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="G136" s="21"/>
-      <c r="H136" s="27"/>
+      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
@@ -7022,7 +7022,7 @@
         <v>114</v>
       </c>
       <c r="G137" s="21"/>
-      <c r="H137" s="27"/>
+      <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
@@ -7044,7 +7044,7 @@
         <v>151</v>
       </c>
       <c r="G138" s="21"/>
-      <c r="H138" s="27"/>
+      <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
@@ -7066,7 +7066,7 @@
         <v>120</v>
       </c>
       <c r="G139" s="21"/>
-      <c r="H139" s="27"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
@@ -7088,7 +7088,7 @@
         <v>123</v>
       </c>
       <c r="G140" s="21"/>
-      <c r="H140" s="27"/>
+      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
@@ -7110,7 +7110,7 @@
         <v>126</v>
       </c>
       <c r="G141" s="21"/>
-      <c r="H141" s="27"/>
+      <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
@@ -7132,7 +7132,7 @@
         <v>129</v>
       </c>
       <c r="G142" s="21"/>
-      <c r="H142" s="27"/>
+      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
@@ -7154,7 +7154,7 @@
         <v>132</v>
       </c>
       <c r="G143" s="21"/>
-      <c r="H143" s="27"/>
+      <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
@@ -7176,7 +7176,7 @@
         <v>135</v>
       </c>
       <c r="G144" s="21"/>
-      <c r="H144" s="27"/>
+      <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
@@ -7220,7 +7220,7 @@
         <v>132</v>
       </c>
       <c r="G146" s="21"/>
-      <c r="H146" s="27"/>
+      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
@@ -7242,7 +7242,7 @@
         <v>129</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="27"/>
+      <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="G148" s="21"/>
-      <c r="H148" s="27"/>
+      <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
@@ -7286,7 +7286,7 @@
         <v>123</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="H149" s="27"/>
+      <c r="H149" s="25"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
@@ -7308,7 +7308,7 @@
         <v>120</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="H150" s="27"/>
+      <c r="H150" s="25"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
@@ -7330,7 +7330,7 @@
         <v>151</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="25"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
@@ -7352,7 +7352,7 @@
         <v>114</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="25"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
@@ -7374,7 +7374,7 @@
         <v>111</v>
       </c>
       <c r="G153" s="21"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
@@ -7396,7 +7396,7 @@
         <v>158</v>
       </c>
       <c r="G154" s="21"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
@@ -7418,7 +7418,7 @@
         <v>105</v>
       </c>
       <c r="G155" s="21"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="25"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
@@ -7440,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="25"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
@@ -7462,7 +7462,7 @@
         <v>98</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="27"/>
+      <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
@@ -7484,7 +7484,7 @@
         <v>95</v>
       </c>
       <c r="G158" s="21"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="25"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
@@ -7506,7 +7506,7 @@
         <v>92</v>
       </c>
       <c r="G159" s="21"/>
-      <c r="H159" s="27"/>
+      <c r="H159" s="25"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
@@ -7528,7 +7528,7 @@
         <v>89</v>
       </c>
       <c r="G160" s="21"/>
-      <c r="H160" s="27"/>
+      <c r="H160" s="25"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
@@ -7550,7 +7550,7 @@
         <v>86</v>
       </c>
       <c r="G161" s="21"/>
-      <c r="H161" s="27"/>
+      <c r="H161" s="25"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
@@ -7572,7 +7572,7 @@
         <v>83</v>
       </c>
       <c r="G162" s="21"/>
-      <c r="H162" s="27"/>
+      <c r="H162" s="25"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
@@ -7594,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="G163" s="21"/>
-      <c r="H163" s="27"/>
+      <c r="H163" s="25"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
@@ -7616,7 +7616,7 @@
         <v>179</v>
       </c>
       <c r="G164" s="21"/>
-      <c r="H164" s="27"/>
+      <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24">
@@ -9479,10 +9479,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9490,8 +9490,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
@@ -9508,314 +9508,314 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="6" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="30" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -9823,8 +9823,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="6" t="s">
         <v>59</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="F2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="L2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9969,7 +9969,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -9988,7 +9988,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -10034,7 +10034,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -10053,7 +10053,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -10099,7 +10099,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10118,7 +10118,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10164,7 +10164,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10229,7 +10229,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10248,7 +10248,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10294,7 +10294,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10313,7 +10313,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10359,7 +10359,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10378,7 +10378,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10424,7 +10424,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10443,7 +10443,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10489,7 +10489,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10508,7 +10508,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10554,7 +10554,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10573,7 +10573,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -10619,7 +10619,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -10638,7 +10638,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -10684,7 +10684,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -10703,7 +10703,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -10749,7 +10749,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -10768,7 +10768,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -10814,7 +10814,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -10833,7 +10833,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10879,7 +10879,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10898,7 +10898,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10944,7 +10944,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -10963,7 +10963,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -11009,7 +11009,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -11028,7 +11028,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -11074,7 +11074,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -11093,7 +11093,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11139,7 +11139,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11158,7 +11158,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11204,7 +11204,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11223,7 +11223,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11269,7 +11269,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11288,7 +11288,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11342,8 +11342,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="18" width="9" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="13"/>
+    <col min="6" max="19" width="9" style="13" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0D98E-34FE-459A-AFDF-98D3376B87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12CFCF-C6AE-41CD-AF20-CA2910EF22F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,12 +2341,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,20 +2348,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2858,8 +2858,8 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="23" width="9" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="5"/>
+    <col min="10" max="24" width="9" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2892,10 +2892,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2907,7 +2907,7 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2919,8 +2919,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2942,8 +2942,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2965,10 +2965,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2980,7 +2980,7 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2992,8 +2992,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3018,10 +3018,10 @@
       <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3030,7 +3030,7 @@
       <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3042,16 +3042,16 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3063,9 +3063,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3074,7 +3074,7 @@
       <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3086,16 +3086,16 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3107,8 +3107,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3120,7 +3120,7 @@
       <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3132,8 +3132,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3158,10 +3158,10 @@
       <c r="A13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3170,7 +3170,7 @@
       <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3182,16 +3182,16 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3203,9 +3203,9 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3214,7 +3214,7 @@
       <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3226,16 +3226,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3247,8 +3247,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3260,7 +3260,7 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -3272,8 +3272,8 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -3298,10 +3298,10 @@
       <c r="A19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3310,7 +3310,7 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3322,16 +3322,16 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3343,9 +3343,9 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3354,7 +3354,7 @@
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3366,16 +3366,16 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3387,8 +3387,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3400,7 +3400,7 @@
       <c r="E23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3412,8 +3412,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="E24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3438,10 +3438,10 @@
       <c r="A25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3450,7 +3450,7 @@
       <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3462,16 +3462,16 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3483,9 +3483,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3494,7 +3494,7 @@
       <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3506,16 +3506,16 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -3527,8 +3527,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3540,7 +3540,7 @@
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -3552,8 +3552,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -3578,10 +3578,10 @@
       <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3590,7 +3590,7 @@
       <c r="E31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -3602,16 +3602,16 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -3623,9 +3623,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3634,7 +3634,7 @@
       <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -3646,16 +3646,16 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -3667,8 +3667,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3680,7 +3680,7 @@
       <c r="E35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3692,8 +3692,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>59</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="E36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3718,10 +3718,10 @@
       <c r="A37" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3730,7 +3730,7 @@
       <c r="E37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -3742,16 +3742,16 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -3763,9 +3763,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3774,7 +3774,7 @@
       <c r="E39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3786,16 +3786,16 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3807,8 +3807,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3820,7 +3820,7 @@
       <c r="E41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3832,8 +3832,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>59</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="E42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3870,7 +3870,7 @@
       <c r="E43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3882,7 +3882,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3897,7 +3897,7 @@
       <c r="E44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3909,7 +3909,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="E45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3936,26 +3936,6 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3971,6 +3951,26 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5878,7 +5878,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
@@ -5900,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
@@ -5922,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="25"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
@@ -5944,7 +5944,7 @@
         <v>89</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="25"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
@@ -5966,7 +5966,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
@@ -5988,7 +5988,7 @@
         <v>95</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="25"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
@@ -6010,7 +6010,7 @@
         <v>98</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="25"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
@@ -6032,7 +6032,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="25"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
@@ -6054,7 +6054,7 @@
         <v>105</v>
       </c>
       <c r="G93" s="21"/>
-      <c r="H93" s="25"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
@@ -6076,7 +6076,7 @@
         <v>108</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="25"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
@@ -6098,7 +6098,7 @@
         <v>111</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="25"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
@@ -6120,7 +6120,7 @@
         <v>114</v>
       </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="25"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="G97" s="21"/>
-      <c r="H97" s="25"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
@@ -6164,7 +6164,7 @@
         <v>120</v>
       </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="25"/>
+      <c r="H98" s="27"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -6186,7 +6186,7 @@
         <v>123</v>
       </c>
       <c r="G99" s="21"/>
-      <c r="H99" s="25"/>
+      <c r="H99" s="27"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
@@ -6208,7 +6208,7 @@
         <v>126</v>
       </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="25"/>
+      <c r="H100" s="27"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
@@ -6230,7 +6230,7 @@
         <v>129</v>
       </c>
       <c r="G101" s="21"/>
-      <c r="H101" s="25"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
@@ -6252,7 +6252,7 @@
         <v>132</v>
       </c>
       <c r="G102" s="21"/>
-      <c r="H102" s="25"/>
+      <c r="H102" s="27"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
@@ -6274,7 +6274,7 @@
         <v>135</v>
       </c>
       <c r="G103" s="21"/>
-      <c r="H103" s="25"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
@@ -6318,7 +6318,7 @@
         <v>132</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="25"/>
+      <c r="H105" s="27"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -6340,7 +6340,7 @@
         <v>129</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="25"/>
+      <c r="H106" s="27"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
@@ -6362,7 +6362,7 @@
         <v>126</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="25"/>
+      <c r="H107" s="27"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
@@ -6384,7 +6384,7 @@
         <v>123</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="25"/>
+      <c r="H108" s="27"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
@@ -6406,7 +6406,7 @@
         <v>120</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="25"/>
+      <c r="H109" s="27"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
@@ -6428,7 +6428,7 @@
         <v>151</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="25"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
@@ -6450,7 +6450,7 @@
         <v>114</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="25"/>
+      <c r="H111" s="27"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
@@ -6472,7 +6472,7 @@
         <v>111</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="25"/>
+      <c r="H112" s="27"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
@@ -6494,7 +6494,7 @@
         <v>158</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="25"/>
+      <c r="H113" s="27"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
@@ -6516,7 +6516,7 @@
         <v>105</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="25"/>
+      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
@@ -6538,7 +6538,7 @@
         <v>101</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="25"/>
+      <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
@@ -6560,7 +6560,7 @@
         <v>98</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="25"/>
+      <c r="H116" s="27"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
@@ -6582,7 +6582,7 @@
         <v>95</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="25"/>
+      <c r="H117" s="27"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
@@ -6604,7 +6604,7 @@
         <v>92</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="25"/>
+      <c r="H118" s="27"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
@@ -6626,7 +6626,7 @@
         <v>89</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="25"/>
+      <c r="H119" s="27"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
@@ -6648,7 +6648,7 @@
         <v>86</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="25"/>
+      <c r="H120" s="27"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
@@ -6670,7 +6670,7 @@
         <v>83</v>
       </c>
       <c r="G121" s="21"/>
-      <c r="H121" s="25"/>
+      <c r="H121" s="27"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
@@ -6692,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="21"/>
-      <c r="H122" s="25"/>
+      <c r="H122" s="27"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
@@ -6714,7 +6714,7 @@
         <v>179</v>
       </c>
       <c r="G123" s="21"/>
-      <c r="H123" s="25"/>
+      <c r="H123" s="27"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24">
@@ -6780,7 +6780,7 @@
         <v>19</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="25"/>
+      <c r="H126" s="27"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
@@ -6802,7 +6802,7 @@
         <v>83</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="25"/>
+      <c r="H127" s="27"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
@@ -6824,7 +6824,7 @@
         <v>86</v>
       </c>
       <c r="G128" s="21"/>
-      <c r="H128" s="25"/>
+      <c r="H128" s="27"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
@@ -6846,7 +6846,7 @@
         <v>89</v>
       </c>
       <c r="G129" s="21"/>
-      <c r="H129" s="25"/>
+      <c r="H129" s="27"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
@@ -6868,7 +6868,7 @@
         <v>92</v>
       </c>
       <c r="G130" s="21"/>
-      <c r="H130" s="25"/>
+      <c r="H130" s="27"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
@@ -6890,7 +6890,7 @@
         <v>95</v>
       </c>
       <c r="G131" s="21"/>
-      <c r="H131" s="25"/>
+      <c r="H131" s="27"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
@@ -6912,7 +6912,7 @@
         <v>98</v>
       </c>
       <c r="G132" s="21"/>
-      <c r="H132" s="25"/>
+      <c r="H132" s="27"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
@@ -6934,7 +6934,7 @@
         <v>101</v>
       </c>
       <c r="G133" s="21"/>
-      <c r="H133" s="25"/>
+      <c r="H133" s="27"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
@@ -6956,7 +6956,7 @@
         <v>105</v>
       </c>
       <c r="G134" s="21"/>
-      <c r="H134" s="25"/>
+      <c r="H134" s="27"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
@@ -6978,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="G135" s="21"/>
-      <c r="H135" s="25"/>
+      <c r="H135" s="27"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
@@ -7000,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="G136" s="21"/>
-      <c r="H136" s="25"/>
+      <c r="H136" s="27"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
@@ -7022,7 +7022,7 @@
         <v>114</v>
       </c>
       <c r="G137" s="21"/>
-      <c r="H137" s="25"/>
+      <c r="H137" s="27"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
@@ -7044,7 +7044,7 @@
         <v>151</v>
       </c>
       <c r="G138" s="21"/>
-      <c r="H138" s="25"/>
+      <c r="H138" s="27"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
@@ -7066,7 +7066,7 @@
         <v>120</v>
       </c>
       <c r="G139" s="21"/>
-      <c r="H139" s="25"/>
+      <c r="H139" s="27"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
@@ -7088,7 +7088,7 @@
         <v>123</v>
       </c>
       <c r="G140" s="21"/>
-      <c r="H140" s="25"/>
+      <c r="H140" s="27"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
@@ -7110,7 +7110,7 @@
         <v>126</v>
       </c>
       <c r="G141" s="21"/>
-      <c r="H141" s="25"/>
+      <c r="H141" s="27"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
@@ -7132,7 +7132,7 @@
         <v>129</v>
       </c>
       <c r="G142" s="21"/>
-      <c r="H142" s="25"/>
+      <c r="H142" s="27"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
@@ -7154,7 +7154,7 @@
         <v>132</v>
       </c>
       <c r="G143" s="21"/>
-      <c r="H143" s="25"/>
+      <c r="H143" s="27"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
@@ -7176,7 +7176,7 @@
         <v>135</v>
       </c>
       <c r="G144" s="21"/>
-      <c r="H144" s="25"/>
+      <c r="H144" s="27"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
@@ -7220,7 +7220,7 @@
         <v>132</v>
       </c>
       <c r="G146" s="21"/>
-      <c r="H146" s="25"/>
+      <c r="H146" s="27"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
@@ -7242,7 +7242,7 @@
         <v>129</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="25"/>
+      <c r="H147" s="27"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="G148" s="21"/>
-      <c r="H148" s="25"/>
+      <c r="H148" s="27"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
@@ -7286,7 +7286,7 @@
         <v>123</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="H149" s="25"/>
+      <c r="H149" s="27"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
@@ -7308,7 +7308,7 @@
         <v>120</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="H150" s="25"/>
+      <c r="H150" s="27"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
@@ -7330,7 +7330,7 @@
         <v>151</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="H151" s="25"/>
+      <c r="H151" s="27"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
@@ -7352,7 +7352,7 @@
         <v>114</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="H152" s="25"/>
+      <c r="H152" s="27"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
@@ -7374,7 +7374,7 @@
         <v>111</v>
       </c>
       <c r="G153" s="21"/>
-      <c r="H153" s="25"/>
+      <c r="H153" s="27"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
@@ -7396,7 +7396,7 @@
         <v>158</v>
       </c>
       <c r="G154" s="21"/>
-      <c r="H154" s="25"/>
+      <c r="H154" s="27"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
@@ -7418,7 +7418,7 @@
         <v>105</v>
       </c>
       <c r="G155" s="21"/>
-      <c r="H155" s="25"/>
+      <c r="H155" s="27"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
@@ -7440,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="G156" s="21"/>
-      <c r="H156" s="25"/>
+      <c r="H156" s="27"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
@@ -7462,7 +7462,7 @@
         <v>98</v>
       </c>
       <c r="G157" s="21"/>
-      <c r="H157" s="25"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
@@ -7484,7 +7484,7 @@
         <v>95</v>
       </c>
       <c r="G158" s="21"/>
-      <c r="H158" s="25"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
@@ -7506,7 +7506,7 @@
         <v>92</v>
       </c>
       <c r="G159" s="21"/>
-      <c r="H159" s="25"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
@@ -7528,7 +7528,7 @@
         <v>89</v>
       </c>
       <c r="G160" s="21"/>
-      <c r="H160" s="25"/>
+      <c r="H160" s="27"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
@@ -7550,7 +7550,7 @@
         <v>86</v>
       </c>
       <c r="G161" s="21"/>
-      <c r="H161" s="25"/>
+      <c r="H161" s="27"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
@@ -7572,7 +7572,7 @@
         <v>83</v>
       </c>
       <c r="G162" s="21"/>
-      <c r="H162" s="25"/>
+      <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
@@ -7594,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="G163" s="21"/>
-      <c r="H163" s="25"/>
+      <c r="H163" s="27"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
@@ -7616,7 +7616,7 @@
         <v>179</v>
       </c>
       <c r="G164" s="21"/>
-      <c r="H164" s="25"/>
+      <c r="H164" s="27"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24">
@@ -9479,10 +9479,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9490,8 +9490,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
@@ -9508,314 +9508,314 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="6" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="6" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="34" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -9823,8 +9823,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="6" t="s">
         <v>59</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="F2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="L2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9969,7 +9969,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -9988,7 +9988,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -10034,7 +10034,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -10053,7 +10053,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -10099,7 +10099,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10118,7 +10118,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="31"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10164,7 +10164,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10229,7 +10229,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10248,7 +10248,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10294,7 +10294,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10313,7 +10313,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="31"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10359,7 +10359,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10378,7 +10378,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10424,7 +10424,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10443,7 +10443,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10489,7 +10489,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10508,7 +10508,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10554,7 +10554,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10573,7 +10573,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -10619,7 +10619,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -10638,7 +10638,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -10684,7 +10684,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -10703,7 +10703,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -10749,7 +10749,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -10768,7 +10768,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -10814,7 +10814,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -10833,7 +10833,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10879,7 +10879,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10898,7 +10898,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10944,7 +10944,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -10963,7 +10963,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -11009,7 +11009,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -11028,7 +11028,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -11074,7 +11074,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -11093,7 +11093,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11139,7 +11139,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11158,7 +11158,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11204,7 +11204,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11223,7 +11223,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11269,7 +11269,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11288,7 +11288,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="32"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11342,8 +11342,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="19" width="9" style="13" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="13"/>
+    <col min="6" max="20" width="9" style="13" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
